--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-06-15.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-06-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1909"/>
+  <dimension ref="A1:G1838"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46884,10 +46884,8 @@
       </c>
       <c r="E1785" t="inlineStr"/>
       <c r="F1785" t="inlineStr"/>
-      <c r="G1785" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1785" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1786">
@@ -46913,10 +46911,8 @@
       </c>
       <c r="E1786" t="inlineStr"/>
       <c r="F1786" t="inlineStr"/>
-      <c r="G1786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1786" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1787">
@@ -46942,10 +46938,8 @@
       </c>
       <c r="E1787" t="inlineStr"/>
       <c r="F1787" t="inlineStr"/>
-      <c r="G1787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1787" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1788">
@@ -46971,10 +46965,8 @@
       </c>
       <c r="E1788" t="inlineStr"/>
       <c r="F1788" t="inlineStr"/>
-      <c r="G1788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1789">
@@ -47000,10 +46992,8 @@
       </c>
       <c r="E1789" t="inlineStr"/>
       <c r="F1789" t="inlineStr"/>
-      <c r="G1789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1789" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1790">
@@ -47037,10 +47027,8 @@
           <t>70.0K</t>
         </is>
       </c>
-      <c r="G1790" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1790" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1791">
@@ -47058,10 +47046,8 @@
       <c r="D1791" t="inlineStr"/>
       <c r="E1791" t="inlineStr"/>
       <c r="F1791" t="inlineStr"/>
-      <c r="G1791" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1791" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1792">
@@ -47095,10 +47081,8 @@
           <t>52.1</t>
         </is>
       </c>
-      <c r="G1792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1792" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1793">
@@ -47132,10 +47116,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="G1793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1793" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1794">
@@ -47169,10 +47151,8 @@
           <t>52</t>
         </is>
       </c>
-      <c r="G1794" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1794" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1795">
@@ -47202,10 +47182,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="G1795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1795" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1796">
@@ -47235,10 +47213,8 @@
           <t>50</t>
         </is>
       </c>
-      <c r="G1796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1796" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1797">
@@ -47272,10 +47248,8 @@
           <t>52.6</t>
         </is>
       </c>
-      <c r="G1797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1797" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1798">
@@ -47305,10 +47279,8 @@
           <t>65.7</t>
         </is>
       </c>
-      <c r="G1798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1799">
@@ -47338,10 +47310,8 @@
         </is>
       </c>
       <c r="F1799" t="inlineStr"/>
-      <c r="G1799" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1799" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1800">
@@ -47371,10 +47341,8 @@
         </is>
       </c>
       <c r="F1800" t="inlineStr"/>
-      <c r="G1800" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1800" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1801">
@@ -47400,10 +47368,8 @@
       </c>
       <c r="E1801" t="inlineStr"/>
       <c r="F1801" t="inlineStr"/>
-      <c r="G1801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1801" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1802">
@@ -47429,10 +47395,8 @@
       </c>
       <c r="E1802" t="inlineStr"/>
       <c r="F1802" t="inlineStr"/>
-      <c r="G1802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1802" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1803">
@@ -47458,10 +47422,8 @@
       </c>
       <c r="E1803" t="inlineStr"/>
       <c r="F1803" t="inlineStr"/>
-      <c r="G1803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1804">
@@ -47491,10 +47453,8 @@
         </is>
       </c>
       <c r="F1804" t="inlineStr"/>
-      <c r="G1804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1804" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1805">
@@ -47520,10 +47480,8 @@
       </c>
       <c r="E1805" t="inlineStr"/>
       <c r="F1805" t="inlineStr"/>
-      <c r="G1805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1805" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1806">
@@ -47549,10 +47507,8 @@
       </c>
       <c r="E1806" t="inlineStr"/>
       <c r="F1806" t="inlineStr"/>
-      <c r="G1806" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1806" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1807">
@@ -47578,10 +47534,8 @@
       </c>
       <c r="E1807" t="inlineStr"/>
       <c r="F1807" t="inlineStr"/>
-      <c r="G1807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1807" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1808">
@@ -47607,10 +47561,8 @@
       </c>
       <c r="E1808" t="inlineStr"/>
       <c r="F1808" t="inlineStr"/>
-      <c r="G1808" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1808" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1809">
@@ -47628,10 +47580,8 @@
       <c r="D1809" t="inlineStr"/>
       <c r="E1809" t="inlineStr"/>
       <c r="F1809" t="inlineStr"/>
-      <c r="G1809" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1809" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1810">
@@ -47649,10 +47599,8 @@
       <c r="D1810" t="inlineStr"/>
       <c r="E1810" t="inlineStr"/>
       <c r="F1810" t="inlineStr"/>
-      <c r="G1810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1811">
@@ -47691,10 +47639,8 @@
           <t>120.0K</t>
         </is>
       </c>
-      <c r="G1812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1813">
@@ -47724,10 +47670,8 @@
           <t>$-66.6B</t>
         </is>
       </c>
-      <c r="G1813" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1813" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1814">
@@ -47753,10 +47697,8 @@
           <t>$284.4B</t>
         </is>
       </c>
-      <c r="G1814" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1814" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1815">
@@ -47782,10 +47724,8 @@
           <t>$351.0B</t>
         </is>
       </c>
-      <c r="G1815" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1815" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1816">
@@ -47815,10 +47755,8 @@
           <t>243.0K</t>
         </is>
       </c>
-      <c r="G1816" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1816" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1817">
@@ -47848,10 +47786,8 @@
           <t>1921.0K</t>
         </is>
       </c>
-      <c r="G1817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1818">
@@ -47877,10 +47813,8 @@
           <t>232.0K</t>
         </is>
       </c>
-      <c r="G1818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1819">
@@ -47910,10 +47844,8 @@
           <t>-0.8%</t>
         </is>
       </c>
-      <c r="G1819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1819" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1820">
@@ -47943,10 +47875,8 @@
           <t>5.7%</t>
         </is>
       </c>
-      <c r="G1820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1821">
@@ -47972,10 +47902,8 @@
         </is>
       </c>
       <c r="F1821" t="inlineStr"/>
-      <c r="G1821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1822">
@@ -47997,10 +47925,8 @@
       </c>
       <c r="E1822" t="inlineStr"/>
       <c r="F1822" t="inlineStr"/>
-      <c r="G1822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1823">
@@ -48022,10 +47948,8 @@
       </c>
       <c r="E1823" t="inlineStr"/>
       <c r="F1823" t="inlineStr"/>
-      <c r="G1823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1824">
@@ -48043,10 +47967,8 @@
       <c r="D1824" t="inlineStr"/>
       <c r="E1824" t="inlineStr"/>
       <c r="F1824" t="inlineStr"/>
-      <c r="G1824" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1824" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1825">
@@ -48068,10 +47990,8 @@
       </c>
       <c r="E1825" t="inlineStr"/>
       <c r="F1825" t="inlineStr"/>
-      <c r="G1825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1826">
@@ -48093,10 +48013,8 @@
       </c>
       <c r="E1826" t="inlineStr"/>
       <c r="F1826" t="inlineStr"/>
-      <c r="G1826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1826" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1827">
@@ -48114,10 +48032,8 @@
       <c r="D1827" t="inlineStr"/>
       <c r="E1827" t="inlineStr"/>
       <c r="F1827" t="inlineStr"/>
-      <c r="G1827" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1827" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1828">
@@ -48139,83 +48055,65 @@
       </c>
       <c r="E1828" t="inlineStr"/>
       <c r="F1828" t="inlineStr"/>
-      <c r="G1828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1829">
       <c r="A1829" t="inlineStr">
         <is>
-          <t>Friday June 06 2025</t>
-        </is>
-      </c>
-      <c r="B1829" t="inlineStr"/>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B1829" t="inlineStr">
+        <is>
+          <t>Fed Balance SheetJUN/11</t>
+        </is>
+      </c>
       <c r="C1829" t="inlineStr"/>
       <c r="D1829" t="inlineStr"/>
       <c r="E1829" t="inlineStr"/>
       <c r="F1829" t="inlineStr"/>
-      <c r="G1829" t="inlineStr"/>
+      <c r="G1829" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1830">
       <c r="A1830" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1830" t="inlineStr">
-        <is>
-          <t>Non Farm PayrollsMAY</t>
-        </is>
-      </c>
+          <t>Friday June 13 2025</t>
+        </is>
+      </c>
+      <c r="B1830" t="inlineStr"/>
       <c r="C1830" t="inlineStr"/>
-      <c r="D1830" t="inlineStr">
-        <is>
-          <t>177K</t>
-        </is>
-      </c>
-      <c r="E1830" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="F1830" t="inlineStr">
-        <is>
-          <t>130.0K</t>
-        </is>
-      </c>
-      <c r="G1830" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D1830" t="inlineStr"/>
+      <c r="E1830" t="inlineStr"/>
+      <c r="F1830" t="inlineStr"/>
+      <c r="G1830" t="inlineStr"/>
     </row>
     <row r="1831">
       <c r="A1831" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1831" t="inlineStr">
         <is>
-          <t>Unemployment RateMAY</t>
+          <t>Michigan Consumer Sentiment PrelJUN</t>
         </is>
       </c>
       <c r="C1831" t="inlineStr"/>
       <c r="D1831" t="inlineStr">
         <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1831" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="E1831" t="inlineStr"/>
       <c r="F1831" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>55</t>
         </is>
       </c>
       <c r="G1831" t="inlineStr">
@@ -48227,125 +48125,97 @@
     <row r="1832">
       <c r="A1832" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1832" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMMAY</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C1832" t="inlineStr"/>
       <c r="D1832" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1832" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1832" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="E1832" t="inlineStr"/>
+      <c r="F1832" t="inlineStr"/>
       <c r="G1832" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1833">
       <c r="A1833" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1833" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYMAY</t>
+          <t>Michigan Consumer Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C1833" t="inlineStr"/>
       <c r="D1833" t="inlineStr">
         <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="E1833" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F1833" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+          <t>47.9</t>
+        </is>
+      </c>
+      <c r="E1833" t="inlineStr"/>
+      <c r="F1833" t="inlineStr"/>
       <c r="G1833" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1834">
       <c r="A1834" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1834" t="inlineStr">
         <is>
-          <t>Participation RateMAY</t>
+          <t>Michigan Current Conditions PrelJUN</t>
         </is>
       </c>
       <c r="C1834" t="inlineStr"/>
       <c r="D1834" t="inlineStr">
         <is>
-          <t>62.6%</t>
+          <t>58.9</t>
         </is>
       </c>
       <c r="E1834" t="inlineStr"/>
-      <c r="F1834" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
+      <c r="F1834" t="inlineStr"/>
       <c r="G1834" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1835">
       <c r="A1835" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1835" t="inlineStr">
         <is>
-          <t>Average Weekly HoursMAY</t>
+          <t>Michigan Inflation Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C1835" t="inlineStr"/>
       <c r="D1835" t="inlineStr">
         <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="E1835" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="F1835" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+          <t>6.6%</t>
+        </is>
+      </c>
+      <c r="E1835" t="inlineStr"/>
+      <c r="F1835" t="inlineStr"/>
       <c r="G1835" t="inlineStr">
         <is>
           <t>3</t>
@@ -48355,26 +48225,18 @@
     <row r="1836">
       <c r="A1836" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1836" t="inlineStr">
         <is>
-          <t>Government PayrollsMAY</t>
+          <t>Baker Hughes Oil Rig CountJUN/13</t>
         </is>
       </c>
       <c r="C1836" t="inlineStr"/>
-      <c r="D1836" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
+      <c r="D1836" t="inlineStr"/>
       <c r="E1836" t="inlineStr"/>
-      <c r="F1836" t="inlineStr">
-        <is>
-          <t>-10.0K</t>
-        </is>
-      </c>
+      <c r="F1836" t="inlineStr"/>
       <c r="G1836" t="inlineStr">
         <is>
           <t>3</t>
@@ -48384,30 +48246,18 @@
     <row r="1837">
       <c r="A1837" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1837" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsMAY</t>
+          <t>Baker Hughes Total Rigs CountJUN/13</t>
         </is>
       </c>
       <c r="C1837" t="inlineStr"/>
-      <c r="D1837" t="inlineStr">
-        <is>
-          <t>-1K</t>
-        </is>
-      </c>
-      <c r="E1837" t="inlineStr">
-        <is>
-          <t>-1K</t>
-        </is>
-      </c>
-      <c r="F1837" t="inlineStr">
-        <is>
-          <t>3.0K</t>
-        </is>
-      </c>
+      <c r="D1837" t="inlineStr"/>
+      <c r="E1837" t="inlineStr"/>
+      <c r="F1837" t="inlineStr"/>
       <c r="G1837" t="inlineStr">
         <is>
           <t>3</t>
@@ -48417,1702 +48267,15 @@
     <row r="1838">
       <c r="A1838" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1838" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateMAY</t>
-        </is>
-      </c>
+          <t>Sunday June 15 2025</t>
+        </is>
+      </c>
+      <c r="B1838" t="inlineStr"/>
       <c r="C1838" t="inlineStr"/>
-      <c r="D1838" t="inlineStr">
-        <is>
-          <t>167K</t>
-        </is>
-      </c>
-      <c r="E1838" t="inlineStr">
-        <is>
-          <t>120K</t>
-        </is>
-      </c>
-      <c r="F1838" t="inlineStr">
-        <is>
-          <t>140.0K</t>
-        </is>
-      </c>
-      <c r="G1838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1839">
-      <c r="A1839" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1839" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment RateMAY</t>
-        </is>
-      </c>
-      <c r="C1839" t="inlineStr"/>
-      <c r="D1839" t="inlineStr">
-        <is>
-          <t>7.8%</t>
-        </is>
-      </c>
-      <c r="E1839" t="inlineStr"/>
-      <c r="F1839" t="inlineStr">
-        <is>
-          <t>7.8%</t>
-        </is>
-      </c>
-      <c r="G1839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1840">
-      <c r="A1840" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1840" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUN/06</t>
-        </is>
-      </c>
-      <c r="C1840" t="inlineStr"/>
-      <c r="D1840" t="inlineStr">
-        <is>
-          <t>461</t>
-        </is>
-      </c>
-      <c r="E1840" t="inlineStr"/>
-      <c r="F1840" t="inlineStr"/>
-      <c r="G1840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1841">
-      <c r="A1841" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1841" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUN/06</t>
-        </is>
-      </c>
-      <c r="C1841" t="inlineStr"/>
-      <c r="D1841" t="inlineStr">
-        <is>
-          <t>563</t>
-        </is>
-      </c>
-      <c r="E1841" t="inlineStr"/>
-      <c r="F1841" t="inlineStr"/>
-      <c r="G1841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1842">
-      <c r="A1842" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B1842" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeAPR</t>
-        </is>
-      </c>
-      <c r="C1842" t="inlineStr"/>
-      <c r="D1842" t="inlineStr">
-        <is>
-          <t>$10.17B</t>
-        </is>
-      </c>
-      <c r="E1842" t="inlineStr">
-        <is>
-          <t>$10.85B</t>
-        </is>
-      </c>
-      <c r="F1842" t="inlineStr">
-        <is>
-          <t>$9.0B</t>
-        </is>
-      </c>
-      <c r="G1842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1843">
-      <c r="A1843" t="inlineStr"/>
-      <c r="B1843" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1843" t="inlineStr"/>
-      <c r="D1843" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="E1843" t="inlineStr"/>
-      <c r="F1843" t="inlineStr"/>
-      <c r="G1843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1844">
-      <c r="A1844" t="inlineStr"/>
-      <c r="B1844" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1844" t="inlineStr"/>
-      <c r="D1844" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="E1844" t="inlineStr"/>
-      <c r="F1844" t="inlineStr"/>
-      <c r="G1844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1845">
-      <c r="A1845" t="inlineStr">
-        <is>
-          <t>Saturday June 07 2025</t>
-        </is>
-      </c>
-      <c r="B1845" t="inlineStr"/>
-      <c r="C1845" t="inlineStr"/>
-      <c r="D1845" t="inlineStr"/>
-      <c r="E1845" t="inlineStr"/>
-      <c r="F1845" t="inlineStr"/>
-      <c r="G1845" t="inlineStr"/>
-    </row>
-    <row r="1846">
-      <c r="A1846" t="inlineStr">
-        <is>
-          <t>Sunday June 08 2025</t>
-        </is>
-      </c>
-      <c r="B1846" t="inlineStr"/>
-      <c r="C1846" t="inlineStr"/>
-      <c r="D1846" t="inlineStr"/>
-      <c r="E1846" t="inlineStr"/>
-      <c r="F1846" t="inlineStr"/>
-      <c r="G1846" t="inlineStr"/>
-    </row>
-    <row r="1847">
-      <c r="A1847" t="inlineStr">
-        <is>
-          <t>Monday June 09 2025</t>
-        </is>
-      </c>
-      <c r="B1847" t="inlineStr"/>
-      <c r="C1847" t="inlineStr"/>
-      <c r="D1847" t="inlineStr"/>
-      <c r="E1847" t="inlineStr"/>
-      <c r="F1847" t="inlineStr"/>
-      <c r="G1847" t="inlineStr"/>
-    </row>
-    <row r="1848">
-      <c r="A1848" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1848" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1848" t="inlineStr"/>
-      <c r="D1848" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1848" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1848" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="G1848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1849">
-      <c r="A1849" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1849" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsMAY</t>
-        </is>
-      </c>
-      <c r="C1849" t="inlineStr"/>
-      <c r="D1849" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E1849" t="inlineStr"/>
-      <c r="F1849" t="inlineStr"/>
-      <c r="G1849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1850">
-      <c r="A1850" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1850" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1850" t="inlineStr"/>
-      <c r="D1850" t="inlineStr">
-        <is>
-          <t>4.250%</t>
-        </is>
-      </c>
-      <c r="E1850" t="inlineStr"/>
-      <c r="F1850" t="inlineStr"/>
-      <c r="G1850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1851">
-      <c r="A1851" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1851" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1851" t="inlineStr"/>
-      <c r="D1851" t="inlineStr">
-        <is>
-          <t>4.150%</t>
-        </is>
-      </c>
-      <c r="E1851" t="inlineStr"/>
-      <c r="F1851" t="inlineStr"/>
-      <c r="G1851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1852">
-      <c r="A1852" t="inlineStr">
-        <is>
-          <t>Tuesday June 10 2025</t>
-        </is>
-      </c>
-      <c r="B1852" t="inlineStr"/>
-      <c r="C1852" t="inlineStr"/>
-      <c r="D1852" t="inlineStr"/>
-      <c r="E1852" t="inlineStr"/>
-      <c r="F1852" t="inlineStr"/>
-      <c r="G1852" t="inlineStr"/>
-    </row>
-    <row r="1853">
-      <c r="A1853" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1853" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexMAY</t>
-        </is>
-      </c>
-      <c r="C1853" t="inlineStr"/>
-      <c r="D1853" t="inlineStr">
-        <is>
-          <t>95.8</t>
-        </is>
-      </c>
-      <c r="E1853" t="inlineStr"/>
-      <c r="F1853" t="inlineStr"/>
-      <c r="G1853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1854">
-      <c r="A1854" t="inlineStr">
-        <is>
-          <t>07:55 AM</t>
-        </is>
-      </c>
-      <c r="B1854" t="inlineStr">
-        <is>
-          <t>Redbook YoYJUN/07</t>
-        </is>
-      </c>
-      <c r="C1854" t="inlineStr"/>
-      <c r="D1854" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="E1854" t="inlineStr"/>
-      <c r="F1854" t="inlineStr"/>
-      <c r="G1854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1855">
-      <c r="A1855" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1855" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1855" t="inlineStr"/>
-      <c r="D1855" t="inlineStr">
-        <is>
-          <t>3.930%</t>
-        </is>
-      </c>
-      <c r="E1855" t="inlineStr"/>
-      <c r="F1855" t="inlineStr"/>
-      <c r="G1855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1856">
-      <c r="A1856" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1856" t="inlineStr">
-        <is>
-          <t>3-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1856" t="inlineStr"/>
-      <c r="D1856" t="inlineStr">
-        <is>
-          <t>3.824%</t>
-        </is>
-      </c>
-      <c r="E1856" t="inlineStr"/>
-      <c r="F1856" t="inlineStr"/>
-      <c r="G1856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1857">
-      <c r="A1857" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1857" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1857" t="inlineStr"/>
-      <c r="D1857" t="inlineStr">
-        <is>
-          <t>-3.3M</t>
-        </is>
-      </c>
-      <c r="E1857" t="inlineStr"/>
-      <c r="F1857" t="inlineStr"/>
-      <c r="G1857" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1858">
-      <c r="A1858" t="inlineStr">
-        <is>
-          <t>Wednesday June 11 2025</t>
-        </is>
-      </c>
-      <c r="B1858" t="inlineStr"/>
-      <c r="C1858" t="inlineStr"/>
-      <c r="D1858" t="inlineStr"/>
-      <c r="E1858" t="inlineStr"/>
-      <c r="F1858" t="inlineStr"/>
-      <c r="G1858" t="inlineStr"/>
-    </row>
-    <row r="1859">
-      <c r="A1859" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1859" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJUN/06</t>
-        </is>
-      </c>
-      <c r="C1859" t="inlineStr"/>
-      <c r="D1859" t="inlineStr">
-        <is>
-          <t>6.92%</t>
-        </is>
-      </c>
-      <c r="E1859" t="inlineStr"/>
-      <c r="F1859" t="inlineStr"/>
-      <c r="G1859" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1860">
-      <c r="A1860" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1860" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJUN/06</t>
-        </is>
-      </c>
-      <c r="C1860" t="inlineStr"/>
-      <c r="D1860" t="inlineStr">
-        <is>
-          <t>-3.9%</t>
-        </is>
-      </c>
-      <c r="E1860" t="inlineStr"/>
-      <c r="F1860" t="inlineStr"/>
-      <c r="G1860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1861">
-      <c r="A1861" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1861" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C1861" t="inlineStr"/>
-      <c r="D1861" t="inlineStr">
-        <is>
-          <t>226.4</t>
-        </is>
-      </c>
-      <c r="E1861" t="inlineStr"/>
-      <c r="F1861" t="inlineStr"/>
-      <c r="G1861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1862">
-      <c r="A1862" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1862" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C1862" t="inlineStr"/>
-      <c r="D1862" t="inlineStr">
-        <is>
-          <t>611.8</t>
-        </is>
-      </c>
-      <c r="E1862" t="inlineStr"/>
-      <c r="F1862" t="inlineStr"/>
-      <c r="G1862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1863">
-      <c r="A1863" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1863" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C1863" t="inlineStr"/>
-      <c r="D1863" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="E1863" t="inlineStr"/>
-      <c r="F1863" t="inlineStr"/>
-      <c r="G1863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1864">
-      <c r="A1864" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1864" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1864" t="inlineStr"/>
-      <c r="D1864" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1864" t="inlineStr"/>
-      <c r="F1864" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1864" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1865">
-      <c r="A1865" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1865" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1865" t="inlineStr"/>
-      <c r="D1865" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E1865" t="inlineStr"/>
-      <c r="F1865" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G1865" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1866">
-      <c r="A1866" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1866" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1866" t="inlineStr"/>
-      <c r="D1866" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1866" t="inlineStr"/>
-      <c r="F1866" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1866" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1867">
-      <c r="A1867" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1867" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1867" t="inlineStr"/>
-      <c r="D1867" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E1867" t="inlineStr"/>
-      <c r="F1867" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G1867" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1868">
-      <c r="A1868" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1868" t="inlineStr">
-        <is>
-          <t>CPIMAY</t>
-        </is>
-      </c>
-      <c r="C1868" t="inlineStr"/>
-      <c r="D1868" t="inlineStr">
-        <is>
-          <t>320.795</t>
-        </is>
-      </c>
-      <c r="E1868" t="inlineStr"/>
-      <c r="F1868" t="inlineStr">
-        <is>
-          <t>322.1</t>
-        </is>
-      </c>
-      <c r="G1868" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1869">
-      <c r="A1869" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1869" t="inlineStr">
-        <is>
-          <t>CPI s.aMAY</t>
-        </is>
-      </c>
-      <c r="C1869" t="inlineStr"/>
-      <c r="D1869" t="inlineStr">
-        <is>
-          <t>320.321</t>
-        </is>
-      </c>
-      <c r="E1869" t="inlineStr"/>
-      <c r="F1869" t="inlineStr">
-        <is>
-          <t>321.6</t>
-        </is>
-      </c>
-      <c r="G1869" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1870">
-      <c r="A1870" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1870" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1870" t="inlineStr"/>
-      <c r="D1870" t="inlineStr">
-        <is>
-          <t>-4.304M</t>
-        </is>
-      </c>
-      <c r="E1870" t="inlineStr"/>
-      <c r="F1870" t="inlineStr"/>
-      <c r="G1870" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1871">
-      <c r="A1871" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1871" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1871" t="inlineStr"/>
-      <c r="D1871" t="inlineStr">
-        <is>
-          <t>5.219M</t>
-        </is>
-      </c>
-      <c r="E1871" t="inlineStr"/>
-      <c r="F1871" t="inlineStr"/>
-      <c r="G1871" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1872">
-      <c r="A1872" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1872" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1872" t="inlineStr"/>
-      <c r="D1872" t="inlineStr">
-        <is>
-          <t>0.389M</t>
-        </is>
-      </c>
-      <c r="E1872" t="inlineStr"/>
-      <c r="F1872" t="inlineStr"/>
-      <c r="G1872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1873">
-      <c r="A1873" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1873" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1873" t="inlineStr"/>
-      <c r="D1873" t="inlineStr">
-        <is>
-          <t>0.576M</t>
-        </is>
-      </c>
-      <c r="E1873" t="inlineStr"/>
-      <c r="F1873" t="inlineStr"/>
-      <c r="G1873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1874">
-      <c r="A1874" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1874" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1874" t="inlineStr"/>
-      <c r="D1874" t="inlineStr">
-        <is>
-          <t>0.182M</t>
-        </is>
-      </c>
-      <c r="E1874" t="inlineStr"/>
-      <c r="F1874" t="inlineStr"/>
-      <c r="G1874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1875">
-      <c r="A1875" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1875" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1875" t="inlineStr"/>
-      <c r="D1875" t="inlineStr">
-        <is>
-          <t>4.23M</t>
-        </is>
-      </c>
-      <c r="E1875" t="inlineStr"/>
-      <c r="F1875" t="inlineStr"/>
-      <c r="G1875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1876">
-      <c r="A1876" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1876" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1876" t="inlineStr"/>
-      <c r="D1876" t="inlineStr">
-        <is>
-          <t>-0.714M</t>
-        </is>
-      </c>
-      <c r="E1876" t="inlineStr"/>
-      <c r="F1876" t="inlineStr"/>
-      <c r="G1876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1877">
-      <c r="A1877" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1877" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1877" t="inlineStr"/>
-      <c r="D1877" t="inlineStr">
-        <is>
-          <t>-0.282M</t>
-        </is>
-      </c>
-      <c r="E1877" t="inlineStr"/>
-      <c r="F1877" t="inlineStr"/>
-      <c r="G1877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1878">
-      <c r="A1878" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1878" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1878" t="inlineStr"/>
-      <c r="D1878" t="inlineStr">
-        <is>
-          <t>0.67M</t>
-        </is>
-      </c>
-      <c r="E1878" t="inlineStr"/>
-      <c r="F1878" t="inlineStr"/>
-      <c r="G1878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1879">
-      <c r="A1879" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1879" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1879" t="inlineStr"/>
-      <c r="D1879" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="E1879" t="inlineStr"/>
-      <c r="F1879" t="inlineStr"/>
-      <c r="G1879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1880">
-      <c r="A1880" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1880" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1880" t="inlineStr"/>
-      <c r="D1880" t="inlineStr">
-        <is>
-          <t>4.342%</t>
-        </is>
-      </c>
-      <c r="E1880" t="inlineStr"/>
-      <c r="F1880" t="inlineStr"/>
-      <c r="G1880" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1881">
-      <c r="A1881" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1881" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementMAY</t>
-        </is>
-      </c>
-      <c r="C1881" t="inlineStr"/>
-      <c r="D1881" t="inlineStr">
-        <is>
-          <t>$258B</t>
-        </is>
-      </c>
-      <c r="E1881" t="inlineStr"/>
-      <c r="F1881" t="inlineStr"/>
-      <c r="G1881" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1882">
-      <c r="A1882" t="inlineStr">
-        <is>
-          <t>Thursday June 12 2025</t>
-        </is>
-      </c>
-      <c r="B1882" t="inlineStr"/>
-      <c r="C1882" t="inlineStr"/>
-      <c r="D1882" t="inlineStr"/>
-      <c r="E1882" t="inlineStr"/>
-      <c r="F1882" t="inlineStr"/>
-      <c r="G1882" t="inlineStr"/>
-    </row>
-    <row r="1883">
-      <c r="A1883" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1883" t="inlineStr">
-        <is>
-          <t>PPI MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1883" t="inlineStr"/>
-      <c r="D1883" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="E1883" t="inlineStr"/>
-      <c r="F1883" t="inlineStr"/>
-      <c r="G1883" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1884">
-      <c r="A1884" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1884" t="inlineStr">
-        <is>
-          <t>Core PPI MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1884" t="inlineStr"/>
-      <c r="D1884" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E1884" t="inlineStr"/>
-      <c r="F1884" t="inlineStr"/>
-      <c r="G1884" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1885">
-      <c r="A1885" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1885" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUN/07</t>
-        </is>
-      </c>
-      <c r="C1885" t="inlineStr"/>
-      <c r="D1885" t="inlineStr"/>
-      <c r="E1885" t="inlineStr"/>
-      <c r="F1885" t="inlineStr"/>
-      <c r="G1885" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1886">
-      <c r="A1886" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1886" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAY/31</t>
-        </is>
-      </c>
-      <c r="C1886" t="inlineStr"/>
-      <c r="D1886" t="inlineStr"/>
-      <c r="E1886" t="inlineStr"/>
-      <c r="F1886" t="inlineStr"/>
-      <c r="G1886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1887">
-      <c r="A1887" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1887" t="inlineStr">
-        <is>
-          <t>Core PPI YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1887" t="inlineStr"/>
-      <c r="D1887" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E1887" t="inlineStr"/>
-      <c r="F1887" t="inlineStr"/>
-      <c r="G1887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1888">
-      <c r="A1888" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1888" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUN/07</t>
-        </is>
-      </c>
-      <c r="C1888" t="inlineStr"/>
-      <c r="D1888" t="inlineStr"/>
-      <c r="E1888" t="inlineStr"/>
-      <c r="F1888" t="inlineStr"/>
-      <c r="G1888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1889">
-      <c r="A1889" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1889" t="inlineStr">
-        <is>
-          <t>PPIMAY</t>
-        </is>
-      </c>
-      <c r="C1889" t="inlineStr"/>
-      <c r="D1889" t="inlineStr">
-        <is>
-          <t>147.677</t>
-        </is>
-      </c>
-      <c r="E1889" t="inlineStr"/>
-      <c r="F1889" t="inlineStr"/>
-      <c r="G1889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1890">
-      <c r="A1890" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1890" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1890" t="inlineStr"/>
-      <c r="D1890" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1890" t="inlineStr"/>
-      <c r="F1890" t="inlineStr"/>
-      <c r="G1890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1891">
-      <c r="A1891" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1891" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1891" t="inlineStr"/>
-      <c r="D1891" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="E1891" t="inlineStr"/>
-      <c r="F1891" t="inlineStr"/>
-      <c r="G1891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1892">
-      <c r="A1892" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1892" t="inlineStr">
-        <is>
-          <t>PPI YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1892" t="inlineStr"/>
-      <c r="D1892" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E1892" t="inlineStr"/>
-      <c r="F1892" t="inlineStr"/>
-      <c r="G1892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1893">
-      <c r="A1893" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1893" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1893" t="inlineStr"/>
-      <c r="D1893" t="inlineStr"/>
-      <c r="E1893" t="inlineStr"/>
-      <c r="F1893" t="inlineStr"/>
-      <c r="G1893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1894">
-      <c r="A1894" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1894" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1894" t="inlineStr"/>
-      <c r="D1894" t="inlineStr"/>
-      <c r="E1894" t="inlineStr"/>
-      <c r="F1894" t="inlineStr"/>
-      <c r="G1894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1895">
-      <c r="A1895" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1895" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1895" t="inlineStr"/>
-      <c r="D1895" t="inlineStr"/>
-      <c r="E1895" t="inlineStr"/>
-      <c r="F1895" t="inlineStr"/>
-      <c r="G1895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1896">
-      <c r="A1896" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1896" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUN/12</t>
-        </is>
-      </c>
-      <c r="C1896" t="inlineStr"/>
-      <c r="D1896" t="inlineStr"/>
-      <c r="E1896" t="inlineStr"/>
-      <c r="F1896" t="inlineStr"/>
-      <c r="G1896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1897">
-      <c r="A1897" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1897" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUN/12</t>
-        </is>
-      </c>
-      <c r="C1897" t="inlineStr"/>
-      <c r="D1897" t="inlineStr"/>
-      <c r="E1897" t="inlineStr"/>
-      <c r="F1897" t="inlineStr"/>
-      <c r="G1897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1898">
-      <c r="A1898" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1898" t="inlineStr">
-        <is>
-          <t>WASDE Report</t>
-        </is>
-      </c>
-      <c r="C1898" t="inlineStr"/>
-      <c r="D1898" t="inlineStr"/>
-      <c r="E1898" t="inlineStr"/>
-      <c r="F1898" t="inlineStr"/>
-      <c r="G1898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1899">
-      <c r="A1899" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1899" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1899" t="inlineStr"/>
-      <c r="D1899" t="inlineStr"/>
-      <c r="E1899" t="inlineStr"/>
-      <c r="F1899" t="inlineStr"/>
-      <c r="G1899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1900">
-      <c r="A1900" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1900" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUN/11</t>
-        </is>
-      </c>
-      <c r="C1900" t="inlineStr"/>
-      <c r="D1900" t="inlineStr"/>
-      <c r="E1900" t="inlineStr"/>
-      <c r="F1900" t="inlineStr"/>
-      <c r="G1900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1901">
-      <c r="A1901" t="inlineStr">
-        <is>
-          <t>Friday June 13 2025</t>
-        </is>
-      </c>
-      <c r="B1901" t="inlineStr"/>
-      <c r="C1901" t="inlineStr"/>
-      <c r="D1901" t="inlineStr"/>
-      <c r="E1901" t="inlineStr"/>
-      <c r="F1901" t="inlineStr"/>
-      <c r="G1901" t="inlineStr"/>
-    </row>
-    <row r="1902">
-      <c r="A1902" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1902" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJUN</t>
-        </is>
-      </c>
-      <c r="C1902" t="inlineStr"/>
-      <c r="D1902" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E1902" t="inlineStr"/>
-      <c r="F1902" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="G1902" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1903">
-      <c r="A1903" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1903" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C1903" t="inlineStr"/>
-      <c r="D1903" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1903" t="inlineStr"/>
-      <c r="F1903" t="inlineStr"/>
-      <c r="G1903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1904">
-      <c r="A1904" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1904" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C1904" t="inlineStr"/>
-      <c r="D1904" t="inlineStr">
-        <is>
-          <t>47.9</t>
-        </is>
-      </c>
-      <c r="E1904" t="inlineStr"/>
-      <c r="F1904" t="inlineStr"/>
-      <c r="G1904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1905">
-      <c r="A1905" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1905" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelJUN</t>
-        </is>
-      </c>
-      <c r="C1905" t="inlineStr"/>
-      <c r="D1905" t="inlineStr">
-        <is>
-          <t>58.9</t>
-        </is>
-      </c>
-      <c r="E1905" t="inlineStr"/>
-      <c r="F1905" t="inlineStr"/>
-      <c r="G1905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1906">
-      <c r="A1906" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1906" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C1906" t="inlineStr"/>
-      <c r="D1906" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="E1906" t="inlineStr"/>
-      <c r="F1906" t="inlineStr"/>
-      <c r="G1906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1907">
-      <c r="A1907" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1907" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUN/13</t>
-        </is>
-      </c>
-      <c r="C1907" t="inlineStr"/>
-      <c r="D1907" t="inlineStr"/>
-      <c r="E1907" t="inlineStr"/>
-      <c r="F1907" t="inlineStr"/>
-      <c r="G1907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1908">
-      <c r="A1908" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1908" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUN/13</t>
-        </is>
-      </c>
-      <c r="C1908" t="inlineStr"/>
-      <c r="D1908" t="inlineStr"/>
-      <c r="E1908" t="inlineStr"/>
-      <c r="F1908" t="inlineStr"/>
-      <c r="G1908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1909">
-      <c r="A1909" t="inlineStr">
-        <is>
-          <t>Sunday June 15 2025</t>
-        </is>
-      </c>
-      <c r="B1909" t="inlineStr"/>
-      <c r="C1909" t="inlineStr"/>
-      <c r="D1909" t="inlineStr"/>
-      <c r="E1909" t="inlineStr"/>
-      <c r="F1909" t="inlineStr"/>
-      <c r="G1909" t="inlineStr"/>
+      <c r="D1838" t="inlineStr"/>
+      <c r="E1838" t="inlineStr"/>
+      <c r="F1838" t="inlineStr"/>
+      <c r="G1838" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-06-15.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-06-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1907"/>
+  <dimension ref="A1:G1842"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47630,10 +47630,8 @@
           <t>$-66.6B</t>
         </is>
       </c>
-      <c r="G1811" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1811" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1812">
@@ -47659,10 +47657,8 @@
           <t>$284.4B</t>
         </is>
       </c>
-      <c r="G1812" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1812" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1813">
@@ -47688,10 +47684,8 @@
           <t>$351.0B</t>
         </is>
       </c>
-      <c r="G1813" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1813" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1814">
@@ -47721,10 +47715,8 @@
           <t>243.0K</t>
         </is>
       </c>
-      <c r="G1814" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1814" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1815">
@@ -47754,10 +47746,8 @@
           <t>1921.0K</t>
         </is>
       </c>
-      <c r="G1815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1815" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1816">
@@ -47783,10 +47773,8 @@
           <t>232.0K</t>
         </is>
       </c>
-      <c r="G1816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1817">
@@ -47816,10 +47804,8 @@
           <t>-0.8%</t>
         </is>
       </c>
-      <c r="G1817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1818">
@@ -47849,10 +47835,8 @@
           <t>5.7%</t>
         </is>
       </c>
-      <c r="G1818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1819">
@@ -47878,10 +47862,8 @@
         </is>
       </c>
       <c r="F1819" t="inlineStr"/>
-      <c r="G1819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1819" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1820">
@@ -47903,10 +47885,8 @@
       </c>
       <c r="E1820" t="inlineStr"/>
       <c r="F1820" t="inlineStr"/>
-      <c r="G1820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1821">
@@ -47928,10 +47908,8 @@
       </c>
       <c r="E1821" t="inlineStr"/>
       <c r="F1821" t="inlineStr"/>
-      <c r="G1821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1822">
@@ -47949,10 +47927,8 @@
       <c r="D1822" t="inlineStr"/>
       <c r="E1822" t="inlineStr"/>
       <c r="F1822" t="inlineStr"/>
-      <c r="G1822" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1822" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1823">
@@ -47974,10 +47950,8 @@
       </c>
       <c r="E1823" t="inlineStr"/>
       <c r="F1823" t="inlineStr"/>
-      <c r="G1823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1824">
@@ -47999,10 +47973,8 @@
       </c>
       <c r="E1824" t="inlineStr"/>
       <c r="F1824" t="inlineStr"/>
-      <c r="G1824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1825">
@@ -48020,10 +47992,8 @@
       <c r="D1825" t="inlineStr"/>
       <c r="E1825" t="inlineStr"/>
       <c r="F1825" t="inlineStr"/>
-      <c r="G1825" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1825" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1826">
@@ -48045,213 +48015,151 @@
       </c>
       <c r="E1826" t="inlineStr"/>
       <c r="F1826" t="inlineStr"/>
-      <c r="G1826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1826" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1827">
       <c r="A1827" t="inlineStr">
         <is>
-          <t>Friday June 06 2025</t>
-        </is>
-      </c>
-      <c r="B1827" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1827" t="inlineStr">
+        <is>
+          <t>4-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C1827" t="inlineStr"/>
       <c r="D1827" t="inlineStr"/>
       <c r="E1827" t="inlineStr"/>
       <c r="F1827" t="inlineStr"/>
-      <c r="G1827" t="inlineStr"/>
+      <c r="G1827" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1828">
       <c r="A1828" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1828" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsMAY</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1828" t="inlineStr"/>
-      <c r="D1828" t="inlineStr">
-        <is>
-          <t>177K</t>
-        </is>
-      </c>
-      <c r="E1828" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="F1828" t="inlineStr">
-        <is>
-          <t>130.0K</t>
-        </is>
-      </c>
+      <c r="D1828" t="inlineStr"/>
+      <c r="E1828" t="inlineStr"/>
+      <c r="F1828" t="inlineStr"/>
       <c r="G1828" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1829">
       <c r="A1829" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1829" t="inlineStr">
         <is>
-          <t>Unemployment RateMAY</t>
+          <t>15-Year Mortgage RateJUN/12</t>
         </is>
       </c>
       <c r="C1829" t="inlineStr"/>
-      <c r="D1829" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1829" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1829" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="D1829" t="inlineStr"/>
+      <c r="E1829" t="inlineStr"/>
+      <c r="F1829" t="inlineStr"/>
       <c r="G1829" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1830">
       <c r="A1830" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1830" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMMAY</t>
+          <t>30-Year Mortgage RateJUN/12</t>
         </is>
       </c>
       <c r="C1830" t="inlineStr"/>
-      <c r="D1830" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1830" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1830" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D1830" t="inlineStr"/>
+      <c r="E1830" t="inlineStr"/>
+      <c r="F1830" t="inlineStr"/>
       <c r="G1830" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1831">
       <c r="A1831" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1831" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYMAY</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="C1831" t="inlineStr"/>
-      <c r="D1831" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="E1831" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F1831" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="D1831" t="inlineStr"/>
+      <c r="E1831" t="inlineStr"/>
+      <c r="F1831" t="inlineStr"/>
       <c r="G1831" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1832">
       <c r="A1832" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1832" t="inlineStr">
         <is>
-          <t>Participation RateMAY</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C1832" t="inlineStr"/>
-      <c r="D1832" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
+      <c r="D1832" t="inlineStr"/>
       <c r="E1832" t="inlineStr"/>
-      <c r="F1832" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
+      <c r="F1832" t="inlineStr"/>
       <c r="G1832" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1833">
       <c r="A1833" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1833" t="inlineStr">
         <is>
-          <t>Average Weekly HoursMAY</t>
+          <t>Fed Balance SheetJUN/11</t>
         </is>
       </c>
       <c r="C1833" t="inlineStr"/>
-      <c r="D1833" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="E1833" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="F1833" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+      <c r="D1833" t="inlineStr"/>
+      <c r="E1833" t="inlineStr"/>
+      <c r="F1833" t="inlineStr"/>
       <c r="G1833" t="inlineStr">
         <is>
           <t>3</t>
@@ -48261,90 +48169,66 @@
     <row r="1834">
       <c r="A1834" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1834" t="inlineStr">
-        <is>
-          <t>Government PayrollsMAY</t>
-        </is>
-      </c>
+          <t>Friday June 13 2025</t>
+        </is>
+      </c>
+      <c r="B1834" t="inlineStr"/>
       <c r="C1834" t="inlineStr"/>
-      <c r="D1834" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
+      <c r="D1834" t="inlineStr"/>
       <c r="E1834" t="inlineStr"/>
-      <c r="F1834" t="inlineStr">
-        <is>
-          <t>-10.0K</t>
-        </is>
-      </c>
-      <c r="G1834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F1834" t="inlineStr"/>
+      <c r="G1834" t="inlineStr"/>
     </row>
     <row r="1835">
       <c r="A1835" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1835" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsMAY</t>
+          <t>Michigan Consumer Sentiment PrelJUN</t>
         </is>
       </c>
       <c r="C1835" t="inlineStr"/>
       <c r="D1835" t="inlineStr">
         <is>
-          <t>-1K</t>
-        </is>
-      </c>
-      <c r="E1835" t="inlineStr">
-        <is>
-          <t>-1K</t>
-        </is>
-      </c>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="E1835" t="inlineStr"/>
       <c r="F1835" t="inlineStr">
         <is>
-          <t>3.0K</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="G1835" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1836">
       <c r="A1836" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1836" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateMAY</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C1836" t="inlineStr"/>
       <c r="D1836" t="inlineStr">
         <is>
-          <t>167K</t>
-        </is>
-      </c>
-      <c r="E1836" t="inlineStr">
-        <is>
-          <t>120K</t>
-        </is>
-      </c>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="E1836" t="inlineStr"/>
       <c r="F1836" t="inlineStr">
         <is>
-          <t>140.0K</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G1836" t="inlineStr">
@@ -48356,24 +48240,24 @@
     <row r="1837">
       <c r="A1837" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1837" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateMAY</t>
+          <t>Michigan Consumer Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C1837" t="inlineStr"/>
       <c r="D1837" t="inlineStr">
         <is>
-          <t>7.8%</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="E1837" t="inlineStr"/>
       <c r="F1837" t="inlineStr">
         <is>
-          <t>7.8%</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G1837" t="inlineStr">
@@ -48385,22 +48269,26 @@
     <row r="1838">
       <c r="A1838" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1838" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUN/06</t>
+          <t>Michigan Current Conditions PrelJUN</t>
         </is>
       </c>
       <c r="C1838" t="inlineStr"/>
       <c r="D1838" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>58.9</t>
         </is>
       </c>
       <c r="E1838" t="inlineStr"/>
-      <c r="F1838" t="inlineStr"/>
+      <c r="F1838" t="inlineStr">
+        <is>
+          <t>58.8</t>
+        </is>
+      </c>
       <c r="G1838" t="inlineStr">
         <is>
           <t>3</t>
@@ -48410,22 +48298,26 @@
     <row r="1839">
       <c r="A1839" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1839" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUN/06</t>
+          <t>Michigan Inflation Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C1839" t="inlineStr"/>
       <c r="D1839" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="E1839" t="inlineStr"/>
-      <c r="F1839" t="inlineStr"/>
+      <c r="F1839" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
       <c r="G1839" t="inlineStr">
         <is>
           <t>3</t>
@@ -48435,30 +48327,18 @@
     <row r="1840">
       <c r="A1840" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1840" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeAPR</t>
+          <t>Baker Hughes Oil Rig CountJUN/13</t>
         </is>
       </c>
       <c r="C1840" t="inlineStr"/>
-      <c r="D1840" t="inlineStr">
-        <is>
-          <t>$10.17B</t>
-        </is>
-      </c>
-      <c r="E1840" t="inlineStr">
-        <is>
-          <t>$10.85B</t>
-        </is>
-      </c>
-      <c r="F1840" t="inlineStr">
-        <is>
-          <t>$9.0B</t>
-        </is>
-      </c>
+      <c r="D1840" t="inlineStr"/>
+      <c r="E1840" t="inlineStr"/>
+      <c r="F1840" t="inlineStr"/>
       <c r="G1840" t="inlineStr">
         <is>
           <t>3</t>
@@ -48466,18 +48346,18 @@
       </c>
     </row>
     <row r="1841">
-      <c r="A1841" t="inlineStr"/>
+      <c r="A1841" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
       <c r="B1841" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMMAY</t>
+          <t>Baker Hughes Total Rigs CountJUN/13</t>
         </is>
       </c>
       <c r="C1841" t="inlineStr"/>
-      <c r="D1841" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="D1841" t="inlineStr"/>
       <c r="E1841" t="inlineStr"/>
       <c r="F1841" t="inlineStr"/>
       <c r="G1841" t="inlineStr">
@@ -48487,1590 +48367,17 @@
       </c>
     </row>
     <row r="1842">
-      <c r="A1842" t="inlineStr"/>
-      <c r="B1842" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYMAY</t>
-        </is>
-      </c>
+      <c r="A1842" t="inlineStr">
+        <is>
+          <t>Sunday June 15 2025</t>
+        </is>
+      </c>
+      <c r="B1842" t="inlineStr"/>
       <c r="C1842" t="inlineStr"/>
-      <c r="D1842" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="D1842" t="inlineStr"/>
       <c r="E1842" t="inlineStr"/>
       <c r="F1842" t="inlineStr"/>
-      <c r="G1842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1843">
-      <c r="A1843" t="inlineStr">
-        <is>
-          <t>Saturday June 07 2025</t>
-        </is>
-      </c>
-      <c r="B1843" t="inlineStr"/>
-      <c r="C1843" t="inlineStr"/>
-      <c r="D1843" t="inlineStr"/>
-      <c r="E1843" t="inlineStr"/>
-      <c r="F1843" t="inlineStr"/>
-      <c r="G1843" t="inlineStr"/>
-    </row>
-    <row r="1844">
-      <c r="A1844" t="inlineStr">
-        <is>
-          <t>Sunday June 08 2025</t>
-        </is>
-      </c>
-      <c r="B1844" t="inlineStr"/>
-      <c r="C1844" t="inlineStr"/>
-      <c r="D1844" t="inlineStr"/>
-      <c r="E1844" t="inlineStr"/>
-      <c r="F1844" t="inlineStr"/>
-      <c r="G1844" t="inlineStr"/>
-    </row>
-    <row r="1845">
-      <c r="A1845" t="inlineStr">
-        <is>
-          <t>Monday June 09 2025</t>
-        </is>
-      </c>
-      <c r="B1845" t="inlineStr"/>
-      <c r="C1845" t="inlineStr"/>
-      <c r="D1845" t="inlineStr"/>
-      <c r="E1845" t="inlineStr"/>
-      <c r="F1845" t="inlineStr"/>
-      <c r="G1845" t="inlineStr"/>
-    </row>
-    <row r="1846">
-      <c r="A1846" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1846" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1846" t="inlineStr"/>
-      <c r="D1846" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1846" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1846" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="G1846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1847">
-      <c r="A1847" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1847" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsMAY</t>
-        </is>
-      </c>
-      <c r="C1847" t="inlineStr"/>
-      <c r="D1847" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E1847" t="inlineStr"/>
-      <c r="F1847" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G1847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1848">
-      <c r="A1848" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1848" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1848" t="inlineStr"/>
-      <c r="D1848" t="inlineStr">
-        <is>
-          <t>4.250%</t>
-        </is>
-      </c>
-      <c r="E1848" t="inlineStr"/>
-      <c r="F1848" t="inlineStr"/>
-      <c r="G1848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1849">
-      <c r="A1849" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1849" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1849" t="inlineStr"/>
-      <c r="D1849" t="inlineStr">
-        <is>
-          <t>4.150%</t>
-        </is>
-      </c>
-      <c r="E1849" t="inlineStr"/>
-      <c r="F1849" t="inlineStr"/>
-      <c r="G1849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1850">
-      <c r="A1850" t="inlineStr">
-        <is>
-          <t>Tuesday June 10 2025</t>
-        </is>
-      </c>
-      <c r="B1850" t="inlineStr"/>
-      <c r="C1850" t="inlineStr"/>
-      <c r="D1850" t="inlineStr"/>
-      <c r="E1850" t="inlineStr"/>
-      <c r="F1850" t="inlineStr"/>
-      <c r="G1850" t="inlineStr"/>
-    </row>
-    <row r="1851">
-      <c r="A1851" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1851" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexMAY</t>
-        </is>
-      </c>
-      <c r="C1851" t="inlineStr"/>
-      <c r="D1851" t="inlineStr">
-        <is>
-          <t>95.8</t>
-        </is>
-      </c>
-      <c r="E1851" t="inlineStr"/>
-      <c r="F1851" t="inlineStr"/>
-      <c r="G1851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1852">
-      <c r="A1852" t="inlineStr">
-        <is>
-          <t>07:55 AM</t>
-        </is>
-      </c>
-      <c r="B1852" t="inlineStr">
-        <is>
-          <t>Redbook YoYJUN/07</t>
-        </is>
-      </c>
-      <c r="C1852" t="inlineStr"/>
-      <c r="D1852" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="E1852" t="inlineStr"/>
-      <c r="F1852" t="inlineStr"/>
-      <c r="G1852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1853">
-      <c r="A1853" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1853" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1853" t="inlineStr"/>
-      <c r="D1853" t="inlineStr">
-        <is>
-          <t>3.930%</t>
-        </is>
-      </c>
-      <c r="E1853" t="inlineStr"/>
-      <c r="F1853" t="inlineStr"/>
-      <c r="G1853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1854">
-      <c r="A1854" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1854" t="inlineStr">
-        <is>
-          <t>3-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1854" t="inlineStr"/>
-      <c r="D1854" t="inlineStr">
-        <is>
-          <t>3.824%</t>
-        </is>
-      </c>
-      <c r="E1854" t="inlineStr"/>
-      <c r="F1854" t="inlineStr"/>
-      <c r="G1854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1855">
-      <c r="A1855" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1855" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1855" t="inlineStr"/>
-      <c r="D1855" t="inlineStr">
-        <is>
-          <t>-3.3M</t>
-        </is>
-      </c>
-      <c r="E1855" t="inlineStr"/>
-      <c r="F1855" t="inlineStr"/>
-      <c r="G1855" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1856">
-      <c r="A1856" t="inlineStr">
-        <is>
-          <t>Wednesday June 11 2025</t>
-        </is>
-      </c>
-      <c r="B1856" t="inlineStr"/>
-      <c r="C1856" t="inlineStr"/>
-      <c r="D1856" t="inlineStr"/>
-      <c r="E1856" t="inlineStr"/>
-      <c r="F1856" t="inlineStr"/>
-      <c r="G1856" t="inlineStr"/>
-    </row>
-    <row r="1857">
-      <c r="A1857" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1857" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJUN/06</t>
-        </is>
-      </c>
-      <c r="C1857" t="inlineStr"/>
-      <c r="D1857" t="inlineStr">
-        <is>
-          <t>6.92%</t>
-        </is>
-      </c>
-      <c r="E1857" t="inlineStr"/>
-      <c r="F1857" t="inlineStr"/>
-      <c r="G1857" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1858">
-      <c r="A1858" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1858" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJUN/06</t>
-        </is>
-      </c>
-      <c r="C1858" t="inlineStr"/>
-      <c r="D1858" t="inlineStr">
-        <is>
-          <t>-3.9%</t>
-        </is>
-      </c>
-      <c r="E1858" t="inlineStr"/>
-      <c r="F1858" t="inlineStr"/>
-      <c r="G1858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1859">
-      <c r="A1859" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1859" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C1859" t="inlineStr"/>
-      <c r="D1859" t="inlineStr">
-        <is>
-          <t>226.4</t>
-        </is>
-      </c>
-      <c r="E1859" t="inlineStr"/>
-      <c r="F1859" t="inlineStr"/>
-      <c r="G1859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1860">
-      <c r="A1860" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1860" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C1860" t="inlineStr"/>
-      <c r="D1860" t="inlineStr">
-        <is>
-          <t>611.8</t>
-        </is>
-      </c>
-      <c r="E1860" t="inlineStr"/>
-      <c r="F1860" t="inlineStr"/>
-      <c r="G1860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1861">
-      <c r="A1861" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1861" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C1861" t="inlineStr"/>
-      <c r="D1861" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="E1861" t="inlineStr"/>
-      <c r="F1861" t="inlineStr"/>
-      <c r="G1861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1862">
-      <c r="A1862" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1862" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1862" t="inlineStr"/>
-      <c r="D1862" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1862" t="inlineStr"/>
-      <c r="F1862" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1862" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1863">
-      <c r="A1863" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1863" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1863" t="inlineStr"/>
-      <c r="D1863" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E1863" t="inlineStr"/>
-      <c r="F1863" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G1863" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1864">
-      <c r="A1864" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1864" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1864" t="inlineStr"/>
-      <c r="D1864" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1864" t="inlineStr"/>
-      <c r="F1864" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1864" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1865">
-      <c r="A1865" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1865" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1865" t="inlineStr"/>
-      <c r="D1865" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E1865" t="inlineStr"/>
-      <c r="F1865" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="G1865" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1866">
-      <c r="A1866" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1866" t="inlineStr">
-        <is>
-          <t>CPIMAY</t>
-        </is>
-      </c>
-      <c r="C1866" t="inlineStr"/>
-      <c r="D1866" t="inlineStr">
-        <is>
-          <t>320.795</t>
-        </is>
-      </c>
-      <c r="E1866" t="inlineStr"/>
-      <c r="F1866" t="inlineStr">
-        <is>
-          <t>321.9</t>
-        </is>
-      </c>
-      <c r="G1866" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1867">
-      <c r="A1867" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1867" t="inlineStr">
-        <is>
-          <t>CPI s.aMAY</t>
-        </is>
-      </c>
-      <c r="C1867" t="inlineStr"/>
-      <c r="D1867" t="inlineStr">
-        <is>
-          <t>320.321</t>
-        </is>
-      </c>
-      <c r="E1867" t="inlineStr"/>
-      <c r="F1867" t="inlineStr">
-        <is>
-          <t>321.6</t>
-        </is>
-      </c>
-      <c r="G1867" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1868">
-      <c r="A1868" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1868" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1868" t="inlineStr"/>
-      <c r="D1868" t="inlineStr">
-        <is>
-          <t>-4.304M</t>
-        </is>
-      </c>
-      <c r="E1868" t="inlineStr"/>
-      <c r="F1868" t="inlineStr"/>
-      <c r="G1868" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1869">
-      <c r="A1869" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1869" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1869" t="inlineStr"/>
-      <c r="D1869" t="inlineStr">
-        <is>
-          <t>5.219M</t>
-        </is>
-      </c>
-      <c r="E1869" t="inlineStr"/>
-      <c r="F1869" t="inlineStr"/>
-      <c r="G1869" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1870">
-      <c r="A1870" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1870" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1870" t="inlineStr"/>
-      <c r="D1870" t="inlineStr">
-        <is>
-          <t>0.389M</t>
-        </is>
-      </c>
-      <c r="E1870" t="inlineStr"/>
-      <c r="F1870" t="inlineStr"/>
-      <c r="G1870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1871">
-      <c r="A1871" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1871" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1871" t="inlineStr"/>
-      <c r="D1871" t="inlineStr">
-        <is>
-          <t>0.576M</t>
-        </is>
-      </c>
-      <c r="E1871" t="inlineStr"/>
-      <c r="F1871" t="inlineStr"/>
-      <c r="G1871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1872">
-      <c r="A1872" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1872" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1872" t="inlineStr"/>
-      <c r="D1872" t="inlineStr">
-        <is>
-          <t>0.182M</t>
-        </is>
-      </c>
-      <c r="E1872" t="inlineStr"/>
-      <c r="F1872" t="inlineStr"/>
-      <c r="G1872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1873">
-      <c r="A1873" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1873" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1873" t="inlineStr"/>
-      <c r="D1873" t="inlineStr">
-        <is>
-          <t>4.23M</t>
-        </is>
-      </c>
-      <c r="E1873" t="inlineStr"/>
-      <c r="F1873" t="inlineStr"/>
-      <c r="G1873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1874">
-      <c r="A1874" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1874" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1874" t="inlineStr"/>
-      <c r="D1874" t="inlineStr">
-        <is>
-          <t>-0.714M</t>
-        </is>
-      </c>
-      <c r="E1874" t="inlineStr"/>
-      <c r="F1874" t="inlineStr"/>
-      <c r="G1874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1875">
-      <c r="A1875" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1875" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1875" t="inlineStr"/>
-      <c r="D1875" t="inlineStr">
-        <is>
-          <t>-0.282M</t>
-        </is>
-      </c>
-      <c r="E1875" t="inlineStr"/>
-      <c r="F1875" t="inlineStr"/>
-      <c r="G1875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1876">
-      <c r="A1876" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1876" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1876" t="inlineStr"/>
-      <c r="D1876" t="inlineStr">
-        <is>
-          <t>0.67M</t>
-        </is>
-      </c>
-      <c r="E1876" t="inlineStr"/>
-      <c r="F1876" t="inlineStr"/>
-      <c r="G1876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1877">
-      <c r="A1877" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1877" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1877" t="inlineStr"/>
-      <c r="D1877" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="E1877" t="inlineStr"/>
-      <c r="F1877" t="inlineStr"/>
-      <c r="G1877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1878">
-      <c r="A1878" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1878" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1878" t="inlineStr"/>
-      <c r="D1878" t="inlineStr">
-        <is>
-          <t>4.342%</t>
-        </is>
-      </c>
-      <c r="E1878" t="inlineStr"/>
-      <c r="F1878" t="inlineStr"/>
-      <c r="G1878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1879">
-      <c r="A1879" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1879" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementMAY</t>
-        </is>
-      </c>
-      <c r="C1879" t="inlineStr"/>
-      <c r="D1879" t="inlineStr">
-        <is>
-          <t>$258B</t>
-        </is>
-      </c>
-      <c r="E1879" t="inlineStr"/>
-      <c r="F1879" t="inlineStr">
-        <is>
-          <t>$-312.0B</t>
-        </is>
-      </c>
-      <c r="G1879" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1880">
-      <c r="A1880" t="inlineStr">
-        <is>
-          <t>Thursday June 12 2025</t>
-        </is>
-      </c>
-      <c r="B1880" t="inlineStr"/>
-      <c r="C1880" t="inlineStr"/>
-      <c r="D1880" t="inlineStr"/>
-      <c r="E1880" t="inlineStr"/>
-      <c r="F1880" t="inlineStr"/>
-      <c r="G1880" t="inlineStr"/>
-    </row>
-    <row r="1881">
-      <c r="A1881" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1881" t="inlineStr">
-        <is>
-          <t>PPI MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1881" t="inlineStr"/>
-      <c r="D1881" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="E1881" t="inlineStr"/>
-      <c r="F1881" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1881" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1882">
-      <c r="A1882" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1882" t="inlineStr">
-        <is>
-          <t>Core PPI MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1882" t="inlineStr"/>
-      <c r="D1882" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E1882" t="inlineStr"/>
-      <c r="F1882" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1882" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1883">
-      <c r="A1883" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1883" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUN/07</t>
-        </is>
-      </c>
-      <c r="C1883" t="inlineStr"/>
-      <c r="D1883" t="inlineStr"/>
-      <c r="E1883" t="inlineStr"/>
-      <c r="F1883" t="inlineStr"/>
-      <c r="G1883" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1884">
-      <c r="A1884" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1884" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAY/31</t>
-        </is>
-      </c>
-      <c r="C1884" t="inlineStr"/>
-      <c r="D1884" t="inlineStr"/>
-      <c r="E1884" t="inlineStr"/>
-      <c r="F1884" t="inlineStr"/>
-      <c r="G1884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1885">
-      <c r="A1885" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1885" t="inlineStr">
-        <is>
-          <t>Core PPI YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1885" t="inlineStr"/>
-      <c r="D1885" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E1885" t="inlineStr"/>
-      <c r="F1885" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G1885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1886">
-      <c r="A1886" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1886" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUN/07</t>
-        </is>
-      </c>
-      <c r="C1886" t="inlineStr"/>
-      <c r="D1886" t="inlineStr"/>
-      <c r="E1886" t="inlineStr"/>
-      <c r="F1886" t="inlineStr"/>
-      <c r="G1886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1887">
-      <c r="A1887" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1887" t="inlineStr">
-        <is>
-          <t>PPIMAY</t>
-        </is>
-      </c>
-      <c r="C1887" t="inlineStr"/>
-      <c r="D1887" t="inlineStr">
-        <is>
-          <t>147.677</t>
-        </is>
-      </c>
-      <c r="E1887" t="inlineStr"/>
-      <c r="F1887" t="inlineStr">
-        <is>
-          <t>147.8</t>
-        </is>
-      </c>
-      <c r="G1887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1888">
-      <c r="A1888" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1888" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1888" t="inlineStr"/>
-      <c r="D1888" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1888" t="inlineStr"/>
-      <c r="F1888" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1889">
-      <c r="A1889" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1889" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1889" t="inlineStr"/>
-      <c r="D1889" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="E1889" t="inlineStr"/>
-      <c r="F1889" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G1889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1890">
-      <c r="A1890" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1890" t="inlineStr">
-        <is>
-          <t>PPI YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1890" t="inlineStr"/>
-      <c r="D1890" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E1890" t="inlineStr"/>
-      <c r="F1890" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G1890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1891">
-      <c r="A1891" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1891" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1891" t="inlineStr"/>
-      <c r="D1891" t="inlineStr"/>
-      <c r="E1891" t="inlineStr"/>
-      <c r="F1891" t="inlineStr"/>
-      <c r="G1891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1892">
-      <c r="A1892" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1892" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1892" t="inlineStr"/>
-      <c r="D1892" t="inlineStr"/>
-      <c r="E1892" t="inlineStr"/>
-      <c r="F1892" t="inlineStr"/>
-      <c r="G1892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1893">
-      <c r="A1893" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1893" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1893" t="inlineStr"/>
-      <c r="D1893" t="inlineStr"/>
-      <c r="E1893" t="inlineStr"/>
-      <c r="F1893" t="inlineStr"/>
-      <c r="G1893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1894">
-      <c r="A1894" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1894" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUN/12</t>
-        </is>
-      </c>
-      <c r="C1894" t="inlineStr"/>
-      <c r="D1894" t="inlineStr"/>
-      <c r="E1894" t="inlineStr"/>
-      <c r="F1894" t="inlineStr"/>
-      <c r="G1894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1895">
-      <c r="A1895" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1895" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUN/12</t>
-        </is>
-      </c>
-      <c r="C1895" t="inlineStr"/>
-      <c r="D1895" t="inlineStr"/>
-      <c r="E1895" t="inlineStr"/>
-      <c r="F1895" t="inlineStr"/>
-      <c r="G1895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1896">
-      <c r="A1896" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1896" t="inlineStr">
-        <is>
-          <t>WASDE Report</t>
-        </is>
-      </c>
-      <c r="C1896" t="inlineStr"/>
-      <c r="D1896" t="inlineStr"/>
-      <c r="E1896" t="inlineStr"/>
-      <c r="F1896" t="inlineStr"/>
-      <c r="G1896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1897">
-      <c r="A1897" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1897" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1897" t="inlineStr"/>
-      <c r="D1897" t="inlineStr"/>
-      <c r="E1897" t="inlineStr"/>
-      <c r="F1897" t="inlineStr"/>
-      <c r="G1897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1898">
-      <c r="A1898" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1898" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUN/11</t>
-        </is>
-      </c>
-      <c r="C1898" t="inlineStr"/>
-      <c r="D1898" t="inlineStr"/>
-      <c r="E1898" t="inlineStr"/>
-      <c r="F1898" t="inlineStr"/>
-      <c r="G1898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1899">
-      <c r="A1899" t="inlineStr">
-        <is>
-          <t>Friday June 13 2025</t>
-        </is>
-      </c>
-      <c r="B1899" t="inlineStr"/>
-      <c r="C1899" t="inlineStr"/>
-      <c r="D1899" t="inlineStr"/>
-      <c r="E1899" t="inlineStr"/>
-      <c r="F1899" t="inlineStr"/>
-      <c r="G1899" t="inlineStr"/>
-    </row>
-    <row r="1900">
-      <c r="A1900" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1900" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJUN</t>
-        </is>
-      </c>
-      <c r="C1900" t="inlineStr"/>
-      <c r="D1900" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E1900" t="inlineStr"/>
-      <c r="F1900" t="inlineStr">
-        <is>
-          <t>52.1</t>
-        </is>
-      </c>
-      <c r="G1900" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1901">
-      <c r="A1901" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1901" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C1901" t="inlineStr"/>
-      <c r="D1901" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1901" t="inlineStr"/>
-      <c r="F1901" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G1901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1902">
-      <c r="A1902" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1902" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C1902" t="inlineStr"/>
-      <c r="D1902" t="inlineStr">
-        <is>
-          <t>47.9</t>
-        </is>
-      </c>
-      <c r="E1902" t="inlineStr"/>
-      <c r="F1902" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="G1902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1903">
-      <c r="A1903" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1903" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelJUN</t>
-        </is>
-      </c>
-      <c r="C1903" t="inlineStr"/>
-      <c r="D1903" t="inlineStr">
-        <is>
-          <t>58.9</t>
-        </is>
-      </c>
-      <c r="E1903" t="inlineStr"/>
-      <c r="F1903" t="inlineStr">
-        <is>
-          <t>58.8</t>
-        </is>
-      </c>
-      <c r="G1903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1904">
-      <c r="A1904" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1904" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C1904" t="inlineStr"/>
-      <c r="D1904" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="E1904" t="inlineStr"/>
-      <c r="F1904" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="G1904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1905">
-      <c r="A1905" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1905" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUN/13</t>
-        </is>
-      </c>
-      <c r="C1905" t="inlineStr"/>
-      <c r="D1905" t="inlineStr"/>
-      <c r="E1905" t="inlineStr"/>
-      <c r="F1905" t="inlineStr"/>
-      <c r="G1905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1906">
-      <c r="A1906" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1906" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUN/13</t>
-        </is>
-      </c>
-      <c r="C1906" t="inlineStr"/>
-      <c r="D1906" t="inlineStr"/>
-      <c r="E1906" t="inlineStr"/>
-      <c r="F1906" t="inlineStr"/>
-      <c r="G1906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1907">
-      <c r="A1907" t="inlineStr">
-        <is>
-          <t>Sunday June 15 2025</t>
-        </is>
-      </c>
-      <c r="B1907" t="inlineStr"/>
-      <c r="C1907" t="inlineStr"/>
-      <c r="D1907" t="inlineStr"/>
-      <c r="E1907" t="inlineStr"/>
-      <c r="F1907" t="inlineStr"/>
-      <c r="G1907" t="inlineStr"/>
+      <c r="G1842" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-06-15.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-06-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1932"/>
+  <dimension ref="A1:G1867"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48192,10 +48192,8 @@
           <t>120.0K</t>
         </is>
       </c>
-      <c r="G1835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1836">
@@ -48229,10 +48227,8 @@
           <t>$-66.6B</t>
         </is>
       </c>
-      <c r="G1836" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1836" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1837">
@@ -48262,10 +48258,8 @@
           <t>$284.4B</t>
         </is>
       </c>
-      <c r="G1837" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1837" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1838">
@@ -48295,10 +48289,8 @@
           <t>$351.0B</t>
         </is>
       </c>
-      <c r="G1838" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1838" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1839">
@@ -48332,10 +48324,8 @@
           <t>243.0K</t>
         </is>
       </c>
-      <c r="G1839" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1839" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1840">
@@ -48369,10 +48359,8 @@
           <t>1921.0K</t>
         </is>
       </c>
-      <c r="G1840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1841">
@@ -48402,10 +48390,8 @@
           <t>232.0K</t>
         </is>
       </c>
-      <c r="G1841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1842">
@@ -48439,10 +48425,8 @@
           <t>-0.8%</t>
         </is>
       </c>
-      <c r="G1842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1842" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1843">
@@ -48476,10 +48460,8 @@
           <t>5.7%</t>
         </is>
       </c>
-      <c r="G1843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1844">
@@ -48505,10 +48487,8 @@
         </is>
       </c>
       <c r="F1844" t="inlineStr"/>
-      <c r="G1844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1845">
@@ -48530,10 +48510,8 @@
       </c>
       <c r="E1845" t="inlineStr"/>
       <c r="F1845" t="inlineStr"/>
-      <c r="G1845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1845" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1846">
@@ -48555,10 +48533,8 @@
       </c>
       <c r="E1846" t="inlineStr"/>
       <c r="F1846" t="inlineStr"/>
-      <c r="G1846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1847">
@@ -48576,10 +48552,8 @@
       <c r="D1847" t="inlineStr"/>
       <c r="E1847" t="inlineStr"/>
       <c r="F1847" t="inlineStr"/>
-      <c r="G1847" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1847" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1848">
@@ -48601,10 +48575,8 @@
       </c>
       <c r="E1848" t="inlineStr"/>
       <c r="F1848" t="inlineStr"/>
-      <c r="G1848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1849">
@@ -48626,10 +48598,8 @@
       </c>
       <c r="E1849" t="inlineStr"/>
       <c r="F1849" t="inlineStr"/>
-      <c r="G1849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1850">
@@ -48647,10 +48617,8 @@
       <c r="D1850" t="inlineStr"/>
       <c r="E1850" t="inlineStr"/>
       <c r="F1850" t="inlineStr"/>
-      <c r="G1850" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1850" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1851">
@@ -48672,213 +48640,151 @@
       </c>
       <c r="E1851" t="inlineStr"/>
       <c r="F1851" t="inlineStr"/>
-      <c r="G1851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1852">
       <c r="A1852" t="inlineStr">
         <is>
-          <t>Friday June 06 2025</t>
-        </is>
-      </c>
-      <c r="B1852" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1852" t="inlineStr">
+        <is>
+          <t>4-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C1852" t="inlineStr"/>
       <c r="D1852" t="inlineStr"/>
       <c r="E1852" t="inlineStr"/>
       <c r="F1852" t="inlineStr"/>
-      <c r="G1852" t="inlineStr"/>
+      <c r="G1852" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1853">
       <c r="A1853" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1853" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsMAY</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1853" t="inlineStr"/>
-      <c r="D1853" t="inlineStr">
-        <is>
-          <t>177K</t>
-        </is>
-      </c>
-      <c r="E1853" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="F1853" t="inlineStr">
-        <is>
-          <t>130.0K</t>
-        </is>
-      </c>
+      <c r="D1853" t="inlineStr"/>
+      <c r="E1853" t="inlineStr"/>
+      <c r="F1853" t="inlineStr"/>
       <c r="G1853" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1854">
       <c r="A1854" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1854" t="inlineStr">
         <is>
-          <t>Unemployment RateMAY</t>
+          <t>15-Year Mortgage RateJUN/12</t>
         </is>
       </c>
       <c r="C1854" t="inlineStr"/>
-      <c r="D1854" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1854" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1854" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="D1854" t="inlineStr"/>
+      <c r="E1854" t="inlineStr"/>
+      <c r="F1854" t="inlineStr"/>
       <c r="G1854" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1855">
       <c r="A1855" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1855" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMMAY</t>
+          <t>30-Year Mortgage RateJUN/12</t>
         </is>
       </c>
       <c r="C1855" t="inlineStr"/>
-      <c r="D1855" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1855" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1855" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D1855" t="inlineStr"/>
+      <c r="E1855" t="inlineStr"/>
+      <c r="F1855" t="inlineStr"/>
       <c r="G1855" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1856">
       <c r="A1856" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1856" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYMAY</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="C1856" t="inlineStr"/>
-      <c r="D1856" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="E1856" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F1856" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="D1856" t="inlineStr"/>
+      <c r="E1856" t="inlineStr"/>
+      <c r="F1856" t="inlineStr"/>
       <c r="G1856" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1857">
       <c r="A1857" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1857" t="inlineStr">
         <is>
-          <t>Participation RateMAY</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C1857" t="inlineStr"/>
-      <c r="D1857" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
+      <c r="D1857" t="inlineStr"/>
       <c r="E1857" t="inlineStr"/>
-      <c r="F1857" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
+      <c r="F1857" t="inlineStr"/>
       <c r="G1857" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1858">
       <c r="A1858" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1858" t="inlineStr">
         <is>
-          <t>Average Weekly HoursMAY</t>
+          <t>Fed Balance SheetJUN/11</t>
         </is>
       </c>
       <c r="C1858" t="inlineStr"/>
-      <c r="D1858" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="E1858" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="F1858" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+      <c r="D1858" t="inlineStr"/>
+      <c r="E1858" t="inlineStr"/>
+      <c r="F1858" t="inlineStr"/>
       <c r="G1858" t="inlineStr">
         <is>
           <t>3</t>
@@ -48888,90 +48794,66 @@
     <row r="1859">
       <c r="A1859" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1859" t="inlineStr">
-        <is>
-          <t>Government PayrollsMAY</t>
-        </is>
-      </c>
+          <t>Friday June 13 2025</t>
+        </is>
+      </c>
+      <c r="B1859" t="inlineStr"/>
       <c r="C1859" t="inlineStr"/>
-      <c r="D1859" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
+      <c r="D1859" t="inlineStr"/>
       <c r="E1859" t="inlineStr"/>
-      <c r="F1859" t="inlineStr">
-        <is>
-          <t>-10.0K</t>
-        </is>
-      </c>
-      <c r="G1859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F1859" t="inlineStr"/>
+      <c r="G1859" t="inlineStr"/>
     </row>
     <row r="1860">
       <c r="A1860" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1860" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsMAY</t>
+          <t>Michigan Consumer Sentiment PrelJUN</t>
         </is>
       </c>
       <c r="C1860" t="inlineStr"/>
       <c r="D1860" t="inlineStr">
         <is>
-          <t>-1K</t>
-        </is>
-      </c>
-      <c r="E1860" t="inlineStr">
-        <is>
-          <t>-1K</t>
-        </is>
-      </c>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="E1860" t="inlineStr"/>
       <c r="F1860" t="inlineStr">
         <is>
-          <t>3.0K</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="G1860" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1861">
       <c r="A1861" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1861" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateMAY</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C1861" t="inlineStr"/>
       <c r="D1861" t="inlineStr">
         <is>
-          <t>167K</t>
-        </is>
-      </c>
-      <c r="E1861" t="inlineStr">
-        <is>
-          <t>120K</t>
-        </is>
-      </c>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="E1861" t="inlineStr"/>
       <c r="F1861" t="inlineStr">
         <is>
-          <t>140.0K</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G1861" t="inlineStr">
@@ -48983,24 +48865,24 @@
     <row r="1862">
       <c r="A1862" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1862" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateMAY</t>
+          <t>Michigan Consumer Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C1862" t="inlineStr"/>
       <c r="D1862" t="inlineStr">
         <is>
-          <t>7.8%</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="E1862" t="inlineStr"/>
       <c r="F1862" t="inlineStr">
         <is>
-          <t>7.8%</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G1862" t="inlineStr">
@@ -49012,22 +48894,26 @@
     <row r="1863">
       <c r="A1863" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1863" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUN/06</t>
+          <t>Michigan Current Conditions PrelJUN</t>
         </is>
       </c>
       <c r="C1863" t="inlineStr"/>
       <c r="D1863" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>58.9</t>
         </is>
       </c>
       <c r="E1863" t="inlineStr"/>
-      <c r="F1863" t="inlineStr"/>
+      <c r="F1863" t="inlineStr">
+        <is>
+          <t>58.8</t>
+        </is>
+      </c>
       <c r="G1863" t="inlineStr">
         <is>
           <t>3</t>
@@ -49037,22 +48923,26 @@
     <row r="1864">
       <c r="A1864" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1864" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUN/06</t>
+          <t>Michigan Inflation Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C1864" t="inlineStr"/>
       <c r="D1864" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="E1864" t="inlineStr"/>
-      <c r="F1864" t="inlineStr"/>
+      <c r="F1864" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
       <c r="G1864" t="inlineStr">
         <is>
           <t>3</t>
@@ -49062,30 +48952,18 @@
     <row r="1865">
       <c r="A1865" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1865" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeAPR</t>
+          <t>Baker Hughes Oil Rig CountJUN/13</t>
         </is>
       </c>
       <c r="C1865" t="inlineStr"/>
-      <c r="D1865" t="inlineStr">
-        <is>
-          <t>$10.17B</t>
-        </is>
-      </c>
-      <c r="E1865" t="inlineStr">
-        <is>
-          <t>$10.85B</t>
-        </is>
-      </c>
-      <c r="F1865" t="inlineStr">
-        <is>
-          <t>$9.0B</t>
-        </is>
-      </c>
+      <c r="D1865" t="inlineStr"/>
+      <c r="E1865" t="inlineStr"/>
+      <c r="F1865" t="inlineStr"/>
       <c r="G1865" t="inlineStr">
         <is>
           <t>3</t>
@@ -49093,18 +48971,18 @@
       </c>
     </row>
     <row r="1866">
-      <c r="A1866" t="inlineStr"/>
+      <c r="A1866" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
       <c r="B1866" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMMAY</t>
+          <t>Baker Hughes Total Rigs CountJUN/13</t>
         </is>
       </c>
       <c r="C1866" t="inlineStr"/>
-      <c r="D1866" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="D1866" t="inlineStr"/>
       <c r="E1866" t="inlineStr"/>
       <c r="F1866" t="inlineStr"/>
       <c r="G1866" t="inlineStr">
@@ -49114,1594 +48992,17 @@
       </c>
     </row>
     <row r="1867">
-      <c r="A1867" t="inlineStr"/>
-      <c r="B1867" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYMAY</t>
-        </is>
-      </c>
+      <c r="A1867" t="inlineStr">
+        <is>
+          <t>Sunday June 15 2025</t>
+        </is>
+      </c>
+      <c r="B1867" t="inlineStr"/>
       <c r="C1867" t="inlineStr"/>
-      <c r="D1867" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="D1867" t="inlineStr"/>
       <c r="E1867" t="inlineStr"/>
       <c r="F1867" t="inlineStr"/>
-      <c r="G1867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1868">
-      <c r="A1868" t="inlineStr">
-        <is>
-          <t>Saturday June 07 2025</t>
-        </is>
-      </c>
-      <c r="B1868" t="inlineStr"/>
-      <c r="C1868" t="inlineStr"/>
-      <c r="D1868" t="inlineStr"/>
-      <c r="E1868" t="inlineStr"/>
-      <c r="F1868" t="inlineStr"/>
-      <c r="G1868" t="inlineStr"/>
-    </row>
-    <row r="1869">
-      <c r="A1869" t="inlineStr">
-        <is>
-          <t>Sunday June 08 2025</t>
-        </is>
-      </c>
-      <c r="B1869" t="inlineStr"/>
-      <c r="C1869" t="inlineStr"/>
-      <c r="D1869" t="inlineStr"/>
-      <c r="E1869" t="inlineStr"/>
-      <c r="F1869" t="inlineStr"/>
-      <c r="G1869" t="inlineStr"/>
-    </row>
-    <row r="1870">
-      <c r="A1870" t="inlineStr">
-        <is>
-          <t>Monday June 09 2025</t>
-        </is>
-      </c>
-      <c r="B1870" t="inlineStr"/>
-      <c r="C1870" t="inlineStr"/>
-      <c r="D1870" t="inlineStr"/>
-      <c r="E1870" t="inlineStr"/>
-      <c r="F1870" t="inlineStr"/>
-      <c r="G1870" t="inlineStr"/>
-    </row>
-    <row r="1871">
-      <c r="A1871" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1871" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1871" t="inlineStr"/>
-      <c r="D1871" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1871" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1871" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="G1871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1872">
-      <c r="A1872" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1872" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsMAY</t>
-        </is>
-      </c>
-      <c r="C1872" t="inlineStr"/>
-      <c r="D1872" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E1872" t="inlineStr"/>
-      <c r="F1872" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G1872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1873">
-      <c r="A1873" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1873" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1873" t="inlineStr"/>
-      <c r="D1873" t="inlineStr">
-        <is>
-          <t>4.250%</t>
-        </is>
-      </c>
-      <c r="E1873" t="inlineStr"/>
-      <c r="F1873" t="inlineStr"/>
-      <c r="G1873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1874">
-      <c r="A1874" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1874" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1874" t="inlineStr"/>
-      <c r="D1874" t="inlineStr">
-        <is>
-          <t>4.150%</t>
-        </is>
-      </c>
-      <c r="E1874" t="inlineStr"/>
-      <c r="F1874" t="inlineStr"/>
-      <c r="G1874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1875">
-      <c r="A1875" t="inlineStr">
-        <is>
-          <t>Tuesday June 10 2025</t>
-        </is>
-      </c>
-      <c r="B1875" t="inlineStr"/>
-      <c r="C1875" t="inlineStr"/>
-      <c r="D1875" t="inlineStr"/>
-      <c r="E1875" t="inlineStr"/>
-      <c r="F1875" t="inlineStr"/>
-      <c r="G1875" t="inlineStr"/>
-    </row>
-    <row r="1876">
-      <c r="A1876" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1876" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexMAY</t>
-        </is>
-      </c>
-      <c r="C1876" t="inlineStr"/>
-      <c r="D1876" t="inlineStr">
-        <is>
-          <t>95.8</t>
-        </is>
-      </c>
-      <c r="E1876" t="inlineStr"/>
-      <c r="F1876" t="inlineStr"/>
-      <c r="G1876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1877">
-      <c r="A1877" t="inlineStr">
-        <is>
-          <t>07:55 AM</t>
-        </is>
-      </c>
-      <c r="B1877" t="inlineStr">
-        <is>
-          <t>Redbook YoYJUN/07</t>
-        </is>
-      </c>
-      <c r="C1877" t="inlineStr"/>
-      <c r="D1877" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="E1877" t="inlineStr"/>
-      <c r="F1877" t="inlineStr"/>
-      <c r="G1877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1878">
-      <c r="A1878" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1878" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1878" t="inlineStr"/>
-      <c r="D1878" t="inlineStr">
-        <is>
-          <t>3.930%</t>
-        </is>
-      </c>
-      <c r="E1878" t="inlineStr"/>
-      <c r="F1878" t="inlineStr"/>
-      <c r="G1878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1879">
-      <c r="A1879" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1879" t="inlineStr">
-        <is>
-          <t>3-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1879" t="inlineStr"/>
-      <c r="D1879" t="inlineStr">
-        <is>
-          <t>3.824%</t>
-        </is>
-      </c>
-      <c r="E1879" t="inlineStr"/>
-      <c r="F1879" t="inlineStr"/>
-      <c r="G1879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1880">
-      <c r="A1880" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1880" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1880" t="inlineStr"/>
-      <c r="D1880" t="inlineStr">
-        <is>
-          <t>-3.3M</t>
-        </is>
-      </c>
-      <c r="E1880" t="inlineStr"/>
-      <c r="F1880" t="inlineStr"/>
-      <c r="G1880" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1881">
-      <c r="A1881" t="inlineStr">
-        <is>
-          <t>Wednesday June 11 2025</t>
-        </is>
-      </c>
-      <c r="B1881" t="inlineStr"/>
-      <c r="C1881" t="inlineStr"/>
-      <c r="D1881" t="inlineStr"/>
-      <c r="E1881" t="inlineStr"/>
-      <c r="F1881" t="inlineStr"/>
-      <c r="G1881" t="inlineStr"/>
-    </row>
-    <row r="1882">
-      <c r="A1882" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1882" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJUN/06</t>
-        </is>
-      </c>
-      <c r="C1882" t="inlineStr"/>
-      <c r="D1882" t="inlineStr">
-        <is>
-          <t>6.92%</t>
-        </is>
-      </c>
-      <c r="E1882" t="inlineStr"/>
-      <c r="F1882" t="inlineStr"/>
-      <c r="G1882" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1883">
-      <c r="A1883" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1883" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJUN/06</t>
-        </is>
-      </c>
-      <c r="C1883" t="inlineStr"/>
-      <c r="D1883" t="inlineStr">
-        <is>
-          <t>-3.9%</t>
-        </is>
-      </c>
-      <c r="E1883" t="inlineStr"/>
-      <c r="F1883" t="inlineStr"/>
-      <c r="G1883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1884">
-      <c r="A1884" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1884" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C1884" t="inlineStr"/>
-      <c r="D1884" t="inlineStr">
-        <is>
-          <t>226.4</t>
-        </is>
-      </c>
-      <c r="E1884" t="inlineStr"/>
-      <c r="F1884" t="inlineStr"/>
-      <c r="G1884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1885">
-      <c r="A1885" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1885" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C1885" t="inlineStr"/>
-      <c r="D1885" t="inlineStr">
-        <is>
-          <t>611.8</t>
-        </is>
-      </c>
-      <c r="E1885" t="inlineStr"/>
-      <c r="F1885" t="inlineStr"/>
-      <c r="G1885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1886">
-      <c r="A1886" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1886" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C1886" t="inlineStr"/>
-      <c r="D1886" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="E1886" t="inlineStr"/>
-      <c r="F1886" t="inlineStr"/>
-      <c r="G1886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1887">
-      <c r="A1887" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1887" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1887" t="inlineStr"/>
-      <c r="D1887" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1887" t="inlineStr"/>
-      <c r="F1887" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1887" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1888">
-      <c r="A1888" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1888" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1888" t="inlineStr"/>
-      <c r="D1888" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E1888" t="inlineStr"/>
-      <c r="F1888" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G1888" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1889">
-      <c r="A1889" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1889" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1889" t="inlineStr"/>
-      <c r="D1889" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1889" t="inlineStr"/>
-      <c r="F1889" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1889" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1890">
-      <c r="A1890" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1890" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1890" t="inlineStr"/>
-      <c r="D1890" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E1890" t="inlineStr"/>
-      <c r="F1890" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="G1890" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1891">
-      <c r="A1891" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1891" t="inlineStr">
-        <is>
-          <t>CPIMAY</t>
-        </is>
-      </c>
-      <c r="C1891" t="inlineStr"/>
-      <c r="D1891" t="inlineStr">
-        <is>
-          <t>320.795</t>
-        </is>
-      </c>
-      <c r="E1891" t="inlineStr"/>
-      <c r="F1891" t="inlineStr">
-        <is>
-          <t>321.9</t>
-        </is>
-      </c>
-      <c r="G1891" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1892">
-      <c r="A1892" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1892" t="inlineStr">
-        <is>
-          <t>CPI s.aMAY</t>
-        </is>
-      </c>
-      <c r="C1892" t="inlineStr"/>
-      <c r="D1892" t="inlineStr">
-        <is>
-          <t>320.321</t>
-        </is>
-      </c>
-      <c r="E1892" t="inlineStr"/>
-      <c r="F1892" t="inlineStr">
-        <is>
-          <t>321.6</t>
-        </is>
-      </c>
-      <c r="G1892" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1893">
-      <c r="A1893" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1893" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1893" t="inlineStr"/>
-      <c r="D1893" t="inlineStr">
-        <is>
-          <t>-4.304M</t>
-        </is>
-      </c>
-      <c r="E1893" t="inlineStr"/>
-      <c r="F1893" t="inlineStr"/>
-      <c r="G1893" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1894">
-      <c r="A1894" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1894" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1894" t="inlineStr"/>
-      <c r="D1894" t="inlineStr">
-        <is>
-          <t>5.219M</t>
-        </is>
-      </c>
-      <c r="E1894" t="inlineStr"/>
-      <c r="F1894" t="inlineStr"/>
-      <c r="G1894" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1895">
-      <c r="A1895" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1895" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1895" t="inlineStr"/>
-      <c r="D1895" t="inlineStr">
-        <is>
-          <t>0.389M</t>
-        </is>
-      </c>
-      <c r="E1895" t="inlineStr"/>
-      <c r="F1895" t="inlineStr"/>
-      <c r="G1895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1896">
-      <c r="A1896" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1896" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1896" t="inlineStr"/>
-      <c r="D1896" t="inlineStr">
-        <is>
-          <t>0.576M</t>
-        </is>
-      </c>
-      <c r="E1896" t="inlineStr"/>
-      <c r="F1896" t="inlineStr"/>
-      <c r="G1896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1897">
-      <c r="A1897" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1897" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1897" t="inlineStr"/>
-      <c r="D1897" t="inlineStr">
-        <is>
-          <t>0.182M</t>
-        </is>
-      </c>
-      <c r="E1897" t="inlineStr"/>
-      <c r="F1897" t="inlineStr"/>
-      <c r="G1897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1898">
-      <c r="A1898" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1898" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1898" t="inlineStr"/>
-      <c r="D1898" t="inlineStr">
-        <is>
-          <t>4.23M</t>
-        </is>
-      </c>
-      <c r="E1898" t="inlineStr"/>
-      <c r="F1898" t="inlineStr"/>
-      <c r="G1898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1899">
-      <c r="A1899" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1899" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1899" t="inlineStr"/>
-      <c r="D1899" t="inlineStr">
-        <is>
-          <t>-0.714M</t>
-        </is>
-      </c>
-      <c r="E1899" t="inlineStr"/>
-      <c r="F1899" t="inlineStr"/>
-      <c r="G1899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1900">
-      <c r="A1900" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1900" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1900" t="inlineStr"/>
-      <c r="D1900" t="inlineStr">
-        <is>
-          <t>-0.282M</t>
-        </is>
-      </c>
-      <c r="E1900" t="inlineStr"/>
-      <c r="F1900" t="inlineStr"/>
-      <c r="G1900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1901">
-      <c r="A1901" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1901" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1901" t="inlineStr"/>
-      <c r="D1901" t="inlineStr">
-        <is>
-          <t>0.67M</t>
-        </is>
-      </c>
-      <c r="E1901" t="inlineStr"/>
-      <c r="F1901" t="inlineStr"/>
-      <c r="G1901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1902">
-      <c r="A1902" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1902" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1902" t="inlineStr"/>
-      <c r="D1902" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="E1902" t="inlineStr"/>
-      <c r="F1902" t="inlineStr"/>
-      <c r="G1902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1903">
-      <c r="A1903" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1903" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1903" t="inlineStr"/>
-      <c r="D1903" t="inlineStr">
-        <is>
-          <t>4.342%</t>
-        </is>
-      </c>
-      <c r="E1903" t="inlineStr"/>
-      <c r="F1903" t="inlineStr"/>
-      <c r="G1903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1904">
-      <c r="A1904" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1904" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementMAY</t>
-        </is>
-      </c>
-      <c r="C1904" t="inlineStr"/>
-      <c r="D1904" t="inlineStr">
-        <is>
-          <t>$258B</t>
-        </is>
-      </c>
-      <c r="E1904" t="inlineStr"/>
-      <c r="F1904" t="inlineStr">
-        <is>
-          <t>$-312.0B</t>
-        </is>
-      </c>
-      <c r="G1904" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1905">
-      <c r="A1905" t="inlineStr">
-        <is>
-          <t>Thursday June 12 2025</t>
-        </is>
-      </c>
-      <c r="B1905" t="inlineStr"/>
-      <c r="C1905" t="inlineStr"/>
-      <c r="D1905" t="inlineStr"/>
-      <c r="E1905" t="inlineStr"/>
-      <c r="F1905" t="inlineStr"/>
-      <c r="G1905" t="inlineStr"/>
-    </row>
-    <row r="1906">
-      <c r="A1906" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1906" t="inlineStr">
-        <is>
-          <t>PPI MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1906" t="inlineStr"/>
-      <c r="D1906" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="E1906" t="inlineStr"/>
-      <c r="F1906" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1906" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1907">
-      <c r="A1907" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1907" t="inlineStr">
-        <is>
-          <t>Core PPI MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1907" t="inlineStr"/>
-      <c r="D1907" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E1907" t="inlineStr"/>
-      <c r="F1907" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1907" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1908">
-      <c r="A1908" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1908" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUN/07</t>
-        </is>
-      </c>
-      <c r="C1908" t="inlineStr"/>
-      <c r="D1908" t="inlineStr">
-        <is>
-          <t>247K</t>
-        </is>
-      </c>
-      <c r="E1908" t="inlineStr"/>
-      <c r="F1908" t="inlineStr"/>
-      <c r="G1908" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1909">
-      <c r="A1909" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1909" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAY/31</t>
-        </is>
-      </c>
-      <c r="C1909" t="inlineStr"/>
-      <c r="D1909" t="inlineStr"/>
-      <c r="E1909" t="inlineStr"/>
-      <c r="F1909" t="inlineStr"/>
-      <c r="G1909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1910">
-      <c r="A1910" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1910" t="inlineStr">
-        <is>
-          <t>Core PPI YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1910" t="inlineStr"/>
-      <c r="D1910" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E1910" t="inlineStr"/>
-      <c r="F1910" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G1910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1911">
-      <c r="A1911" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1911" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUN/07</t>
-        </is>
-      </c>
-      <c r="C1911" t="inlineStr"/>
-      <c r="D1911" t="inlineStr"/>
-      <c r="E1911" t="inlineStr"/>
-      <c r="F1911" t="inlineStr"/>
-      <c r="G1911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1912">
-      <c r="A1912" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1912" t="inlineStr">
-        <is>
-          <t>PPIMAY</t>
-        </is>
-      </c>
-      <c r="C1912" t="inlineStr"/>
-      <c r="D1912" t="inlineStr">
-        <is>
-          <t>147.677</t>
-        </is>
-      </c>
-      <c r="E1912" t="inlineStr"/>
-      <c r="F1912" t="inlineStr">
-        <is>
-          <t>147.8</t>
-        </is>
-      </c>
-      <c r="G1912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1913">
-      <c r="A1913" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1913" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1913" t="inlineStr"/>
-      <c r="D1913" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1913" t="inlineStr"/>
-      <c r="F1913" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1914">
-      <c r="A1914" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1914" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1914" t="inlineStr"/>
-      <c r="D1914" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="E1914" t="inlineStr"/>
-      <c r="F1914" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G1914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1915">
-      <c r="A1915" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1915" t="inlineStr">
-        <is>
-          <t>PPI YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1915" t="inlineStr"/>
-      <c r="D1915" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E1915" t="inlineStr"/>
-      <c r="F1915" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G1915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1916">
-      <c r="A1916" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1916" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1916" t="inlineStr"/>
-      <c r="D1916" t="inlineStr"/>
-      <c r="E1916" t="inlineStr"/>
-      <c r="F1916" t="inlineStr"/>
-      <c r="G1916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1917">
-      <c r="A1917" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1917" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1917" t="inlineStr"/>
-      <c r="D1917" t="inlineStr"/>
-      <c r="E1917" t="inlineStr"/>
-      <c r="F1917" t="inlineStr"/>
-      <c r="G1917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1918">
-      <c r="A1918" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1918" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1918" t="inlineStr"/>
-      <c r="D1918" t="inlineStr"/>
-      <c r="E1918" t="inlineStr"/>
-      <c r="F1918" t="inlineStr"/>
-      <c r="G1918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1919">
-      <c r="A1919" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1919" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUN/12</t>
-        </is>
-      </c>
-      <c r="C1919" t="inlineStr"/>
-      <c r="D1919" t="inlineStr"/>
-      <c r="E1919" t="inlineStr"/>
-      <c r="F1919" t="inlineStr"/>
-      <c r="G1919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1920">
-      <c r="A1920" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1920" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUN/12</t>
-        </is>
-      </c>
-      <c r="C1920" t="inlineStr"/>
-      <c r="D1920" t="inlineStr"/>
-      <c r="E1920" t="inlineStr"/>
-      <c r="F1920" t="inlineStr"/>
-      <c r="G1920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1921">
-      <c r="A1921" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1921" t="inlineStr">
-        <is>
-          <t>WASDE Report</t>
-        </is>
-      </c>
-      <c r="C1921" t="inlineStr"/>
-      <c r="D1921" t="inlineStr"/>
-      <c r="E1921" t="inlineStr"/>
-      <c r="F1921" t="inlineStr"/>
-      <c r="G1921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1922">
-      <c r="A1922" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1922" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1922" t="inlineStr"/>
-      <c r="D1922" t="inlineStr"/>
-      <c r="E1922" t="inlineStr"/>
-      <c r="F1922" t="inlineStr"/>
-      <c r="G1922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1923">
-      <c r="A1923" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1923" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUN/11</t>
-        </is>
-      </c>
-      <c r="C1923" t="inlineStr"/>
-      <c r="D1923" t="inlineStr"/>
-      <c r="E1923" t="inlineStr"/>
-      <c r="F1923" t="inlineStr"/>
-      <c r="G1923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1924">
-      <c r="A1924" t="inlineStr">
-        <is>
-          <t>Friday June 13 2025</t>
-        </is>
-      </c>
-      <c r="B1924" t="inlineStr"/>
-      <c r="C1924" t="inlineStr"/>
-      <c r="D1924" t="inlineStr"/>
-      <c r="E1924" t="inlineStr"/>
-      <c r="F1924" t="inlineStr"/>
-      <c r="G1924" t="inlineStr"/>
-    </row>
-    <row r="1925">
-      <c r="A1925" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1925" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJUN</t>
-        </is>
-      </c>
-      <c r="C1925" t="inlineStr"/>
-      <c r="D1925" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E1925" t="inlineStr"/>
-      <c r="F1925" t="inlineStr">
-        <is>
-          <t>52.1</t>
-        </is>
-      </c>
-      <c r="G1925" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1926">
-      <c r="A1926" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1926" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C1926" t="inlineStr"/>
-      <c r="D1926" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1926" t="inlineStr"/>
-      <c r="F1926" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G1926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1927">
-      <c r="A1927" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1927" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C1927" t="inlineStr"/>
-      <c r="D1927" t="inlineStr">
-        <is>
-          <t>47.9</t>
-        </is>
-      </c>
-      <c r="E1927" t="inlineStr"/>
-      <c r="F1927" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="G1927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1928">
-      <c r="A1928" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1928" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelJUN</t>
-        </is>
-      </c>
-      <c r="C1928" t="inlineStr"/>
-      <c r="D1928" t="inlineStr">
-        <is>
-          <t>58.9</t>
-        </is>
-      </c>
-      <c r="E1928" t="inlineStr"/>
-      <c r="F1928" t="inlineStr">
-        <is>
-          <t>58.8</t>
-        </is>
-      </c>
-      <c r="G1928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1929">
-      <c r="A1929" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1929" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C1929" t="inlineStr"/>
-      <c r="D1929" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="E1929" t="inlineStr"/>
-      <c r="F1929" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="G1929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1930">
-      <c r="A1930" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1930" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUN/13</t>
-        </is>
-      </c>
-      <c r="C1930" t="inlineStr"/>
-      <c r="D1930" t="inlineStr"/>
-      <c r="E1930" t="inlineStr"/>
-      <c r="F1930" t="inlineStr"/>
-      <c r="G1930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1931">
-      <c r="A1931" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1931" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUN/13</t>
-        </is>
-      </c>
-      <c r="C1931" t="inlineStr"/>
-      <c r="D1931" t="inlineStr"/>
-      <c r="E1931" t="inlineStr"/>
-      <c r="F1931" t="inlineStr"/>
-      <c r="G1931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1932">
-      <c r="A1932" t="inlineStr">
-        <is>
-          <t>Sunday June 15 2025</t>
-        </is>
-      </c>
-      <c r="B1932" t="inlineStr"/>
-      <c r="C1932" t="inlineStr"/>
-      <c r="D1932" t="inlineStr"/>
-      <c r="E1932" t="inlineStr"/>
-      <c r="F1932" t="inlineStr"/>
-      <c r="G1932" t="inlineStr"/>
+      <c r="G1867" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-06-15.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-06-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1932"/>
+  <dimension ref="A1:G1866"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48192,10 +48192,8 @@
           <t>120.0K</t>
         </is>
       </c>
-      <c r="G1835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1836">
@@ -48229,10 +48227,8 @@
           <t>$-66.6B</t>
         </is>
       </c>
-      <c r="G1836" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1836" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1837">
@@ -48262,10 +48258,8 @@
           <t>$284.4B</t>
         </is>
       </c>
-      <c r="G1837" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1837" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1838">
@@ -48295,10 +48289,8 @@
           <t>$351.0B</t>
         </is>
       </c>
-      <c r="G1838" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1838" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1839">
@@ -48332,10 +48324,8 @@
           <t>243.0K</t>
         </is>
       </c>
-      <c r="G1839" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1839" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1840">
@@ -48369,10 +48359,8 @@
           <t>1921.0K</t>
         </is>
       </c>
-      <c r="G1840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1841">
@@ -48402,10 +48390,8 @@
           <t>232.0K</t>
         </is>
       </c>
-      <c r="G1841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1842">
@@ -48439,10 +48425,8 @@
           <t>-0.8%</t>
         </is>
       </c>
-      <c r="G1842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1842" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1843">
@@ -48476,10 +48460,8 @@
           <t>5.7%</t>
         </is>
       </c>
-      <c r="G1843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1844">
@@ -48509,10 +48491,8 @@
         </is>
       </c>
       <c r="F1844" t="inlineStr"/>
-      <c r="G1844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1845">
@@ -48538,10 +48518,8 @@
       </c>
       <c r="E1845" t="inlineStr"/>
       <c r="F1845" t="inlineStr"/>
-      <c r="G1845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1845" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1846">
@@ -48567,10 +48545,8 @@
       </c>
       <c r="E1846" t="inlineStr"/>
       <c r="F1846" t="inlineStr"/>
-      <c r="G1846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1847">
@@ -48588,10 +48564,8 @@
       <c r="D1847" t="inlineStr"/>
       <c r="E1847" t="inlineStr"/>
       <c r="F1847" t="inlineStr"/>
-      <c r="G1847" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1847" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1848">
@@ -48617,10 +48591,8 @@
       </c>
       <c r="E1848" t="inlineStr"/>
       <c r="F1848" t="inlineStr"/>
-      <c r="G1848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1849">
@@ -48646,10 +48618,8 @@
       </c>
       <c r="E1849" t="inlineStr"/>
       <c r="F1849" t="inlineStr"/>
-      <c r="G1849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1850">
@@ -48667,10 +48637,8 @@
       <c r="D1850" t="inlineStr"/>
       <c r="E1850" t="inlineStr"/>
       <c r="F1850" t="inlineStr"/>
-      <c r="G1850" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1850" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1851">
@@ -48692,273 +48660,211 @@
       </c>
       <c r="E1851" t="inlineStr"/>
       <c r="F1851" t="inlineStr"/>
-      <c r="G1851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1852">
       <c r="A1852" t="inlineStr">
         <is>
-          <t>Friday June 06 2025</t>
-        </is>
-      </c>
-      <c r="B1852" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1852" t="inlineStr">
+        <is>
+          <t>8-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C1852" t="inlineStr"/>
-      <c r="D1852" t="inlineStr"/>
+      <c r="D1852" t="inlineStr">
+        <is>
+          <t>4.225%</t>
+        </is>
+      </c>
       <c r="E1852" t="inlineStr"/>
       <c r="F1852" t="inlineStr"/>
-      <c r="G1852" t="inlineStr"/>
+      <c r="G1852" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1853">
       <c r="A1853" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1853" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsMAY</t>
+          <t>15-Year Mortgage RateJUN/12</t>
         </is>
       </c>
       <c r="C1853" t="inlineStr"/>
       <c r="D1853" t="inlineStr">
         <is>
-          <t>177K</t>
-        </is>
-      </c>
-      <c r="E1853" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="F1853" t="inlineStr">
-        <is>
-          <t>130.0K</t>
-        </is>
-      </c>
+          <t>5.99%</t>
+        </is>
+      </c>
+      <c r="E1853" t="inlineStr"/>
+      <c r="F1853" t="inlineStr"/>
       <c r="G1853" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1854">
       <c r="A1854" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1854" t="inlineStr">
         <is>
-          <t>Unemployment RateMAY</t>
+          <t>30-Year Mortgage RateJUN/12</t>
         </is>
       </c>
       <c r="C1854" t="inlineStr"/>
       <c r="D1854" t="inlineStr">
         <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1854" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1854" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+          <t>6.85%</t>
+        </is>
+      </c>
+      <c r="E1854" t="inlineStr"/>
+      <c r="F1854" t="inlineStr"/>
       <c r="G1854" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1855">
       <c r="A1855" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1855" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMMAY</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="C1855" t="inlineStr"/>
-      <c r="D1855" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1855" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1855" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D1855" t="inlineStr"/>
+      <c r="E1855" t="inlineStr"/>
+      <c r="F1855" t="inlineStr"/>
       <c r="G1855" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1856">
       <c r="A1856" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1856" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYMAY</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C1856" t="inlineStr"/>
-      <c r="D1856" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="E1856" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F1856" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="D1856" t="inlineStr"/>
+      <c r="E1856" t="inlineStr"/>
+      <c r="F1856" t="inlineStr"/>
       <c r="G1856" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1857">
       <c r="A1857" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1857" t="inlineStr">
         <is>
-          <t>Participation RateMAY</t>
+          <t>Fed Balance SheetJUN/11</t>
         </is>
       </c>
       <c r="C1857" t="inlineStr"/>
-      <c r="D1857" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
+      <c r="D1857" t="inlineStr"/>
       <c r="E1857" t="inlineStr"/>
-      <c r="F1857" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
+      <c r="F1857" t="inlineStr"/>
       <c r="G1857" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1858">
       <c r="A1858" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1858" t="inlineStr">
-        <is>
-          <t>Average Weekly HoursMAY</t>
-        </is>
-      </c>
+          <t>Friday June 13 2025</t>
+        </is>
+      </c>
+      <c r="B1858" t="inlineStr"/>
       <c r="C1858" t="inlineStr"/>
-      <c r="D1858" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="E1858" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="F1858" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="G1858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D1858" t="inlineStr"/>
+      <c r="E1858" t="inlineStr"/>
+      <c r="F1858" t="inlineStr"/>
+      <c r="G1858" t="inlineStr"/>
     </row>
     <row r="1859">
       <c r="A1859" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1859" t="inlineStr">
         <is>
-          <t>Government PayrollsMAY</t>
+          <t>Michigan Consumer Sentiment PrelJUN</t>
         </is>
       </c>
       <c r="C1859" t="inlineStr"/>
       <c r="D1859" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="E1859" t="inlineStr"/>
       <c r="F1859" t="inlineStr">
         <is>
-          <t>-10.0K</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="G1859" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1860">
       <c r="A1860" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1860" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsMAY</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C1860" t="inlineStr"/>
       <c r="D1860" t="inlineStr">
         <is>
-          <t>-1K</t>
-        </is>
-      </c>
-      <c r="E1860" t="inlineStr">
-        <is>
-          <t>-1K</t>
-        </is>
-      </c>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="E1860" t="inlineStr"/>
       <c r="F1860" t="inlineStr">
         <is>
-          <t>3.0K</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G1860" t="inlineStr">
@@ -48970,28 +48876,24 @@
     <row r="1861">
       <c r="A1861" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1861" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateMAY</t>
+          <t>Michigan Consumer Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C1861" t="inlineStr"/>
       <c r="D1861" t="inlineStr">
         <is>
-          <t>167K</t>
-        </is>
-      </c>
-      <c r="E1861" t="inlineStr">
-        <is>
-          <t>120K</t>
-        </is>
-      </c>
+          <t>47.9</t>
+        </is>
+      </c>
+      <c r="E1861" t="inlineStr"/>
       <c r="F1861" t="inlineStr">
         <is>
-          <t>140.0K</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G1861" t="inlineStr">
@@ -49003,24 +48905,24 @@
     <row r="1862">
       <c r="A1862" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1862" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateMAY</t>
+          <t>Michigan Current Conditions PrelJUN</t>
         </is>
       </c>
       <c r="C1862" t="inlineStr"/>
       <c r="D1862" t="inlineStr">
         <is>
-          <t>7.8%</t>
+          <t>58.9</t>
         </is>
       </c>
       <c r="E1862" t="inlineStr"/>
       <c r="F1862" t="inlineStr">
         <is>
-          <t>7.8%</t>
+          <t>58.8</t>
         </is>
       </c>
       <c r="G1862" t="inlineStr">
@@ -49032,22 +48934,26 @@
     <row r="1863">
       <c r="A1863" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1863" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUN/06</t>
+          <t>Michigan Inflation Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C1863" t="inlineStr"/>
       <c r="D1863" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="E1863" t="inlineStr"/>
-      <c r="F1863" t="inlineStr"/>
+      <c r="F1863" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
       <c r="G1863" t="inlineStr">
         <is>
           <t>3</t>
@@ -49062,15 +48968,11 @@
       </c>
       <c r="B1864" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUN/06</t>
+          <t>Baker Hughes Oil Rig CountJUN/13</t>
         </is>
       </c>
       <c r="C1864" t="inlineStr"/>
-      <c r="D1864" t="inlineStr">
-        <is>
-          <t>563</t>
-        </is>
-      </c>
+      <c r="D1864" t="inlineStr"/>
       <c r="E1864" t="inlineStr"/>
       <c r="F1864" t="inlineStr"/>
       <c r="G1864" t="inlineStr">
@@ -49082,30 +48984,18 @@
     <row r="1865">
       <c r="A1865" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1865" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeAPR</t>
+          <t>Baker Hughes Total Rigs CountJUN/13</t>
         </is>
       </c>
       <c r="C1865" t="inlineStr"/>
-      <c r="D1865" t="inlineStr">
-        <is>
-          <t>$10.17B</t>
-        </is>
-      </c>
-      <c r="E1865" t="inlineStr">
-        <is>
-          <t>$10.85B</t>
-        </is>
-      </c>
-      <c r="F1865" t="inlineStr">
-        <is>
-          <t>$9.0B</t>
-        </is>
-      </c>
+      <c r="D1865" t="inlineStr"/>
+      <c r="E1865" t="inlineStr"/>
+      <c r="F1865" t="inlineStr"/>
       <c r="G1865" t="inlineStr">
         <is>
           <t>3</t>
@@ -49113,1631 +49003,17 @@
       </c>
     </row>
     <row r="1866">
-      <c r="A1866" t="inlineStr"/>
-      <c r="B1866" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMMAY</t>
-        </is>
-      </c>
+      <c r="A1866" t="inlineStr">
+        <is>
+          <t>Sunday June 15 2025</t>
+        </is>
+      </c>
+      <c r="B1866" t="inlineStr"/>
       <c r="C1866" t="inlineStr"/>
-      <c r="D1866" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="D1866" t="inlineStr"/>
       <c r="E1866" t="inlineStr"/>
       <c r="F1866" t="inlineStr"/>
-      <c r="G1866" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1867">
-      <c r="A1867" t="inlineStr"/>
-      <c r="B1867" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1867" t="inlineStr"/>
-      <c r="D1867" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="E1867" t="inlineStr"/>
-      <c r="F1867" t="inlineStr"/>
-      <c r="G1867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1868">
-      <c r="A1868" t="inlineStr">
-        <is>
-          <t>Saturday June 07 2025</t>
-        </is>
-      </c>
-      <c r="B1868" t="inlineStr"/>
-      <c r="C1868" t="inlineStr"/>
-      <c r="D1868" t="inlineStr"/>
-      <c r="E1868" t="inlineStr"/>
-      <c r="F1868" t="inlineStr"/>
-      <c r="G1868" t="inlineStr"/>
-    </row>
-    <row r="1869">
-      <c r="A1869" t="inlineStr">
-        <is>
-          <t>Sunday June 08 2025</t>
-        </is>
-      </c>
-      <c r="B1869" t="inlineStr"/>
-      <c r="C1869" t="inlineStr"/>
-      <c r="D1869" t="inlineStr"/>
-      <c r="E1869" t="inlineStr"/>
-      <c r="F1869" t="inlineStr"/>
-      <c r="G1869" t="inlineStr"/>
-    </row>
-    <row r="1870">
-      <c r="A1870" t="inlineStr">
-        <is>
-          <t>Monday June 09 2025</t>
-        </is>
-      </c>
-      <c r="B1870" t="inlineStr"/>
-      <c r="C1870" t="inlineStr"/>
-      <c r="D1870" t="inlineStr"/>
-      <c r="E1870" t="inlineStr"/>
-      <c r="F1870" t="inlineStr"/>
-      <c r="G1870" t="inlineStr"/>
-    </row>
-    <row r="1871">
-      <c r="A1871" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1871" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1871" t="inlineStr"/>
-      <c r="D1871" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1871" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1871" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="G1871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1872">
-      <c r="A1872" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1872" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsMAY</t>
-        </is>
-      </c>
-      <c r="C1872" t="inlineStr"/>
-      <c r="D1872" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E1872" t="inlineStr"/>
-      <c r="F1872" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G1872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1873">
-      <c r="A1873" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1873" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1873" t="inlineStr"/>
-      <c r="D1873" t="inlineStr">
-        <is>
-          <t>4.250%</t>
-        </is>
-      </c>
-      <c r="E1873" t="inlineStr"/>
-      <c r="F1873" t="inlineStr"/>
-      <c r="G1873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1874">
-      <c r="A1874" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1874" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1874" t="inlineStr"/>
-      <c r="D1874" t="inlineStr">
-        <is>
-          <t>4.150%</t>
-        </is>
-      </c>
-      <c r="E1874" t="inlineStr"/>
-      <c r="F1874" t="inlineStr"/>
-      <c r="G1874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1875">
-      <c r="A1875" t="inlineStr">
-        <is>
-          <t>Tuesday June 10 2025</t>
-        </is>
-      </c>
-      <c r="B1875" t="inlineStr"/>
-      <c r="C1875" t="inlineStr"/>
-      <c r="D1875" t="inlineStr"/>
-      <c r="E1875" t="inlineStr"/>
-      <c r="F1875" t="inlineStr"/>
-      <c r="G1875" t="inlineStr"/>
-    </row>
-    <row r="1876">
-      <c r="A1876" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1876" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexMAY</t>
-        </is>
-      </c>
-      <c r="C1876" t="inlineStr"/>
-      <c r="D1876" t="inlineStr">
-        <is>
-          <t>95.8</t>
-        </is>
-      </c>
-      <c r="E1876" t="inlineStr"/>
-      <c r="F1876" t="inlineStr"/>
-      <c r="G1876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1877">
-      <c r="A1877" t="inlineStr">
-        <is>
-          <t>07:55 AM</t>
-        </is>
-      </c>
-      <c r="B1877" t="inlineStr">
-        <is>
-          <t>Redbook YoYJUN/07</t>
-        </is>
-      </c>
-      <c r="C1877" t="inlineStr"/>
-      <c r="D1877" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="E1877" t="inlineStr"/>
-      <c r="F1877" t="inlineStr"/>
-      <c r="G1877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1878">
-      <c r="A1878" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1878" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1878" t="inlineStr"/>
-      <c r="D1878" t="inlineStr">
-        <is>
-          <t>3.930%</t>
-        </is>
-      </c>
-      <c r="E1878" t="inlineStr"/>
-      <c r="F1878" t="inlineStr"/>
-      <c r="G1878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1879">
-      <c r="A1879" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1879" t="inlineStr">
-        <is>
-          <t>3-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1879" t="inlineStr"/>
-      <c r="D1879" t="inlineStr">
-        <is>
-          <t>3.824%</t>
-        </is>
-      </c>
-      <c r="E1879" t="inlineStr"/>
-      <c r="F1879" t="inlineStr"/>
-      <c r="G1879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1880">
-      <c r="A1880" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1880" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1880" t="inlineStr"/>
-      <c r="D1880" t="inlineStr">
-        <is>
-          <t>-3.3M</t>
-        </is>
-      </c>
-      <c r="E1880" t="inlineStr"/>
-      <c r="F1880" t="inlineStr"/>
-      <c r="G1880" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1881">
-      <c r="A1881" t="inlineStr">
-        <is>
-          <t>Wednesday June 11 2025</t>
-        </is>
-      </c>
-      <c r="B1881" t="inlineStr"/>
-      <c r="C1881" t="inlineStr"/>
-      <c r="D1881" t="inlineStr"/>
-      <c r="E1881" t="inlineStr"/>
-      <c r="F1881" t="inlineStr"/>
-      <c r="G1881" t="inlineStr"/>
-    </row>
-    <row r="1882">
-      <c r="A1882" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1882" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJUN/06</t>
-        </is>
-      </c>
-      <c r="C1882" t="inlineStr"/>
-      <c r="D1882" t="inlineStr">
-        <is>
-          <t>6.92%</t>
-        </is>
-      </c>
-      <c r="E1882" t="inlineStr"/>
-      <c r="F1882" t="inlineStr"/>
-      <c r="G1882" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1883">
-      <c r="A1883" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1883" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJUN/06</t>
-        </is>
-      </c>
-      <c r="C1883" t="inlineStr"/>
-      <c r="D1883" t="inlineStr">
-        <is>
-          <t>-3.9%</t>
-        </is>
-      </c>
-      <c r="E1883" t="inlineStr"/>
-      <c r="F1883" t="inlineStr"/>
-      <c r="G1883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1884">
-      <c r="A1884" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1884" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C1884" t="inlineStr"/>
-      <c r="D1884" t="inlineStr">
-        <is>
-          <t>226.4</t>
-        </is>
-      </c>
-      <c r="E1884" t="inlineStr"/>
-      <c r="F1884" t="inlineStr"/>
-      <c r="G1884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1885">
-      <c r="A1885" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1885" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C1885" t="inlineStr"/>
-      <c r="D1885" t="inlineStr">
-        <is>
-          <t>611.8</t>
-        </is>
-      </c>
-      <c r="E1885" t="inlineStr"/>
-      <c r="F1885" t="inlineStr"/>
-      <c r="G1885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1886">
-      <c r="A1886" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1886" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C1886" t="inlineStr"/>
-      <c r="D1886" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="E1886" t="inlineStr"/>
-      <c r="F1886" t="inlineStr"/>
-      <c r="G1886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1887">
-      <c r="A1887" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1887" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1887" t="inlineStr"/>
-      <c r="D1887" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1887" t="inlineStr"/>
-      <c r="F1887" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1887" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1888">
-      <c r="A1888" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1888" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1888" t="inlineStr"/>
-      <c r="D1888" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E1888" t="inlineStr"/>
-      <c r="F1888" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G1888" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1889">
-      <c r="A1889" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1889" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1889" t="inlineStr"/>
-      <c r="D1889" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1889" t="inlineStr"/>
-      <c r="F1889" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1889" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1890">
-      <c r="A1890" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1890" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1890" t="inlineStr"/>
-      <c r="D1890" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E1890" t="inlineStr"/>
-      <c r="F1890" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="G1890" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1891">
-      <c r="A1891" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1891" t="inlineStr">
-        <is>
-          <t>CPIMAY</t>
-        </is>
-      </c>
-      <c r="C1891" t="inlineStr"/>
-      <c r="D1891" t="inlineStr">
-        <is>
-          <t>320.795</t>
-        </is>
-      </c>
-      <c r="E1891" t="inlineStr"/>
-      <c r="F1891" t="inlineStr">
-        <is>
-          <t>321.9</t>
-        </is>
-      </c>
-      <c r="G1891" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1892">
-      <c r="A1892" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1892" t="inlineStr">
-        <is>
-          <t>CPI s.aMAY</t>
-        </is>
-      </c>
-      <c r="C1892" t="inlineStr"/>
-      <c r="D1892" t="inlineStr">
-        <is>
-          <t>320.321</t>
-        </is>
-      </c>
-      <c r="E1892" t="inlineStr"/>
-      <c r="F1892" t="inlineStr">
-        <is>
-          <t>321.6</t>
-        </is>
-      </c>
-      <c r="G1892" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1893">
-      <c r="A1893" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1893" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1893" t="inlineStr"/>
-      <c r="D1893" t="inlineStr">
-        <is>
-          <t>-4.304M</t>
-        </is>
-      </c>
-      <c r="E1893" t="inlineStr"/>
-      <c r="F1893" t="inlineStr"/>
-      <c r="G1893" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1894">
-      <c r="A1894" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1894" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1894" t="inlineStr"/>
-      <c r="D1894" t="inlineStr">
-        <is>
-          <t>5.219M</t>
-        </is>
-      </c>
-      <c r="E1894" t="inlineStr"/>
-      <c r="F1894" t="inlineStr"/>
-      <c r="G1894" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1895">
-      <c r="A1895" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1895" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1895" t="inlineStr"/>
-      <c r="D1895" t="inlineStr">
-        <is>
-          <t>0.389M</t>
-        </is>
-      </c>
-      <c r="E1895" t="inlineStr"/>
-      <c r="F1895" t="inlineStr"/>
-      <c r="G1895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1896">
-      <c r="A1896" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1896" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1896" t="inlineStr"/>
-      <c r="D1896" t="inlineStr">
-        <is>
-          <t>0.576M</t>
-        </is>
-      </c>
-      <c r="E1896" t="inlineStr"/>
-      <c r="F1896" t="inlineStr"/>
-      <c r="G1896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1897">
-      <c r="A1897" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1897" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1897" t="inlineStr"/>
-      <c r="D1897" t="inlineStr">
-        <is>
-          <t>0.182M</t>
-        </is>
-      </c>
-      <c r="E1897" t="inlineStr"/>
-      <c r="F1897" t="inlineStr"/>
-      <c r="G1897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1898">
-      <c r="A1898" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1898" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1898" t="inlineStr"/>
-      <c r="D1898" t="inlineStr">
-        <is>
-          <t>4.23M</t>
-        </is>
-      </c>
-      <c r="E1898" t="inlineStr"/>
-      <c r="F1898" t="inlineStr"/>
-      <c r="G1898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1899">
-      <c r="A1899" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1899" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1899" t="inlineStr"/>
-      <c r="D1899" t="inlineStr">
-        <is>
-          <t>-0.714M</t>
-        </is>
-      </c>
-      <c r="E1899" t="inlineStr"/>
-      <c r="F1899" t="inlineStr"/>
-      <c r="G1899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1900">
-      <c r="A1900" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1900" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1900" t="inlineStr"/>
-      <c r="D1900" t="inlineStr">
-        <is>
-          <t>-0.282M</t>
-        </is>
-      </c>
-      <c r="E1900" t="inlineStr"/>
-      <c r="F1900" t="inlineStr"/>
-      <c r="G1900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1901">
-      <c r="A1901" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1901" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1901" t="inlineStr"/>
-      <c r="D1901" t="inlineStr">
-        <is>
-          <t>0.67M</t>
-        </is>
-      </c>
-      <c r="E1901" t="inlineStr"/>
-      <c r="F1901" t="inlineStr"/>
-      <c r="G1901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1902">
-      <c r="A1902" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1902" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1902" t="inlineStr"/>
-      <c r="D1902" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="E1902" t="inlineStr"/>
-      <c r="F1902" t="inlineStr"/>
-      <c r="G1902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1903">
-      <c r="A1903" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1903" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1903" t="inlineStr"/>
-      <c r="D1903" t="inlineStr">
-        <is>
-          <t>4.342%</t>
-        </is>
-      </c>
-      <c r="E1903" t="inlineStr"/>
-      <c r="F1903" t="inlineStr"/>
-      <c r="G1903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1904">
-      <c r="A1904" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1904" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementMAY</t>
-        </is>
-      </c>
-      <c r="C1904" t="inlineStr"/>
-      <c r="D1904" t="inlineStr">
-        <is>
-          <t>$258B</t>
-        </is>
-      </c>
-      <c r="E1904" t="inlineStr"/>
-      <c r="F1904" t="inlineStr">
-        <is>
-          <t>$-312.0B</t>
-        </is>
-      </c>
-      <c r="G1904" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1905">
-      <c r="A1905" t="inlineStr">
-        <is>
-          <t>Thursday June 12 2025</t>
-        </is>
-      </c>
-      <c r="B1905" t="inlineStr"/>
-      <c r="C1905" t="inlineStr"/>
-      <c r="D1905" t="inlineStr"/>
-      <c r="E1905" t="inlineStr"/>
-      <c r="F1905" t="inlineStr"/>
-      <c r="G1905" t="inlineStr"/>
-    </row>
-    <row r="1906">
-      <c r="A1906" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1906" t="inlineStr">
-        <is>
-          <t>PPI MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1906" t="inlineStr"/>
-      <c r="D1906" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="E1906" t="inlineStr"/>
-      <c r="F1906" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1906" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1907">
-      <c r="A1907" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1907" t="inlineStr">
-        <is>
-          <t>Core PPI MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1907" t="inlineStr"/>
-      <c r="D1907" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E1907" t="inlineStr"/>
-      <c r="F1907" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1907" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1908">
-      <c r="A1908" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1908" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUN/07</t>
-        </is>
-      </c>
-      <c r="C1908" t="inlineStr"/>
-      <c r="D1908" t="inlineStr">
-        <is>
-          <t>247K</t>
-        </is>
-      </c>
-      <c r="E1908" t="inlineStr"/>
-      <c r="F1908" t="inlineStr"/>
-      <c r="G1908" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1909">
-      <c r="A1909" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1909" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAY/31</t>
-        </is>
-      </c>
-      <c r="C1909" t="inlineStr"/>
-      <c r="D1909" t="inlineStr"/>
-      <c r="E1909" t="inlineStr"/>
-      <c r="F1909" t="inlineStr"/>
-      <c r="G1909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1910">
-      <c r="A1910" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1910" t="inlineStr">
-        <is>
-          <t>Core PPI YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1910" t="inlineStr"/>
-      <c r="D1910" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E1910" t="inlineStr"/>
-      <c r="F1910" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G1910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1911">
-      <c r="A1911" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1911" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUN/07</t>
-        </is>
-      </c>
-      <c r="C1911" t="inlineStr"/>
-      <c r="D1911" t="inlineStr"/>
-      <c r="E1911" t="inlineStr"/>
-      <c r="F1911" t="inlineStr"/>
-      <c r="G1911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1912">
-      <c r="A1912" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1912" t="inlineStr">
-        <is>
-          <t>PPIMAY</t>
-        </is>
-      </c>
-      <c r="C1912" t="inlineStr"/>
-      <c r="D1912" t="inlineStr">
-        <is>
-          <t>147.677</t>
-        </is>
-      </c>
-      <c r="E1912" t="inlineStr"/>
-      <c r="F1912" t="inlineStr">
-        <is>
-          <t>147.8</t>
-        </is>
-      </c>
-      <c r="G1912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1913">
-      <c r="A1913" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1913" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1913" t="inlineStr"/>
-      <c r="D1913" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1913" t="inlineStr"/>
-      <c r="F1913" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1914">
-      <c r="A1914" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1914" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1914" t="inlineStr"/>
-      <c r="D1914" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="E1914" t="inlineStr"/>
-      <c r="F1914" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G1914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1915">
-      <c r="A1915" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1915" t="inlineStr">
-        <is>
-          <t>PPI YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1915" t="inlineStr"/>
-      <c r="D1915" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E1915" t="inlineStr"/>
-      <c r="F1915" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G1915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1916">
-      <c r="A1916" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1916" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1916" t="inlineStr"/>
-      <c r="D1916" t="inlineStr">
-        <is>
-          <t>122Bcf</t>
-        </is>
-      </c>
-      <c r="E1916" t="inlineStr"/>
-      <c r="F1916" t="inlineStr"/>
-      <c r="G1916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1917">
-      <c r="A1917" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1917" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1917" t="inlineStr"/>
-      <c r="D1917" t="inlineStr">
-        <is>
-          <t>4.170%</t>
-        </is>
-      </c>
-      <c r="E1917" t="inlineStr"/>
-      <c r="F1917" t="inlineStr"/>
-      <c r="G1917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1918">
-      <c r="A1918" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1918" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1918" t="inlineStr"/>
-      <c r="D1918" t="inlineStr">
-        <is>
-          <t>4.225%</t>
-        </is>
-      </c>
-      <c r="E1918" t="inlineStr"/>
-      <c r="F1918" t="inlineStr"/>
-      <c r="G1918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1919">
-      <c r="A1919" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1919" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUN/12</t>
-        </is>
-      </c>
-      <c r="C1919" t="inlineStr"/>
-      <c r="D1919" t="inlineStr"/>
-      <c r="E1919" t="inlineStr"/>
-      <c r="F1919" t="inlineStr"/>
-      <c r="G1919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1920">
-      <c r="A1920" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1920" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUN/12</t>
-        </is>
-      </c>
-      <c r="C1920" t="inlineStr"/>
-      <c r="D1920" t="inlineStr">
-        <is>
-          <t>6.85%</t>
-        </is>
-      </c>
-      <c r="E1920" t="inlineStr"/>
-      <c r="F1920" t="inlineStr"/>
-      <c r="G1920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1921">
-      <c r="A1921" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1921" t="inlineStr">
-        <is>
-          <t>WASDE Report</t>
-        </is>
-      </c>
-      <c r="C1921" t="inlineStr"/>
-      <c r="D1921" t="inlineStr"/>
-      <c r="E1921" t="inlineStr"/>
-      <c r="F1921" t="inlineStr"/>
-      <c r="G1921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1922">
-      <c r="A1922" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1922" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1922" t="inlineStr"/>
-      <c r="D1922" t="inlineStr"/>
-      <c r="E1922" t="inlineStr"/>
-      <c r="F1922" t="inlineStr"/>
-      <c r="G1922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1923">
-      <c r="A1923" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1923" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUN/11</t>
-        </is>
-      </c>
-      <c r="C1923" t="inlineStr"/>
-      <c r="D1923" t="inlineStr"/>
-      <c r="E1923" t="inlineStr"/>
-      <c r="F1923" t="inlineStr"/>
-      <c r="G1923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1924">
-      <c r="A1924" t="inlineStr">
-        <is>
-          <t>Friday June 13 2025</t>
-        </is>
-      </c>
-      <c r="B1924" t="inlineStr"/>
-      <c r="C1924" t="inlineStr"/>
-      <c r="D1924" t="inlineStr"/>
-      <c r="E1924" t="inlineStr"/>
-      <c r="F1924" t="inlineStr"/>
-      <c r="G1924" t="inlineStr"/>
-    </row>
-    <row r="1925">
-      <c r="A1925" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1925" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJUN</t>
-        </is>
-      </c>
-      <c r="C1925" t="inlineStr"/>
-      <c r="D1925" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E1925" t="inlineStr"/>
-      <c r="F1925" t="inlineStr">
-        <is>
-          <t>52.1</t>
-        </is>
-      </c>
-      <c r="G1925" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1926">
-      <c r="A1926" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1926" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C1926" t="inlineStr"/>
-      <c r="D1926" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1926" t="inlineStr"/>
-      <c r="F1926" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G1926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1927">
-      <c r="A1927" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1927" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C1927" t="inlineStr"/>
-      <c r="D1927" t="inlineStr">
-        <is>
-          <t>47.9</t>
-        </is>
-      </c>
-      <c r="E1927" t="inlineStr"/>
-      <c r="F1927" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="G1927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1928">
-      <c r="A1928" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1928" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelJUN</t>
-        </is>
-      </c>
-      <c r="C1928" t="inlineStr"/>
-      <c r="D1928" t="inlineStr">
-        <is>
-          <t>58.9</t>
-        </is>
-      </c>
-      <c r="E1928" t="inlineStr"/>
-      <c r="F1928" t="inlineStr">
-        <is>
-          <t>58.8</t>
-        </is>
-      </c>
-      <c r="G1928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1929">
-      <c r="A1929" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1929" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C1929" t="inlineStr"/>
-      <c r="D1929" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="E1929" t="inlineStr"/>
-      <c r="F1929" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="G1929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1930">
-      <c r="A1930" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1930" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUN/13</t>
-        </is>
-      </c>
-      <c r="C1930" t="inlineStr"/>
-      <c r="D1930" t="inlineStr"/>
-      <c r="E1930" t="inlineStr"/>
-      <c r="F1930" t="inlineStr"/>
-      <c r="G1930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1931">
-      <c r="A1931" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1931" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUN/13</t>
-        </is>
-      </c>
-      <c r="C1931" t="inlineStr"/>
-      <c r="D1931" t="inlineStr"/>
-      <c r="E1931" t="inlineStr"/>
-      <c r="F1931" t="inlineStr"/>
-      <c r="G1931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1932">
-      <c r="A1932" t="inlineStr">
-        <is>
-          <t>Sunday June 15 2025</t>
-        </is>
-      </c>
-      <c r="B1932" t="inlineStr"/>
-      <c r="C1932" t="inlineStr"/>
-      <c r="D1932" t="inlineStr"/>
-      <c r="E1932" t="inlineStr"/>
-      <c r="F1932" t="inlineStr"/>
-      <c r="G1932" t="inlineStr"/>
+      <c r="G1866" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-06-15.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-06-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1932"/>
+  <dimension ref="A1:G1866"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48192,10 +48192,8 @@
           <t>120.0K</t>
         </is>
       </c>
-      <c r="G1835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1836">
@@ -48229,10 +48227,8 @@
           <t>$-66.6B</t>
         </is>
       </c>
-      <c r="G1836" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1836" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1837">
@@ -48262,10 +48258,8 @@
           <t>$284.4B</t>
         </is>
       </c>
-      <c r="G1837" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1837" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1838">
@@ -48295,10 +48289,8 @@
           <t>$351.0B</t>
         </is>
       </c>
-      <c r="G1838" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1838" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1839">
@@ -48332,10 +48324,8 @@
           <t>243.0K</t>
         </is>
       </c>
-      <c r="G1839" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1839" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1840">
@@ -48369,10 +48359,8 @@
           <t>1921.0K</t>
         </is>
       </c>
-      <c r="G1840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1841">
@@ -48402,10 +48390,8 @@
           <t>232.0K</t>
         </is>
       </c>
-      <c r="G1841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1842">
@@ -48439,10 +48425,8 @@
           <t>-0.8%</t>
         </is>
       </c>
-      <c r="G1842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1842" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1843">
@@ -48476,10 +48460,8 @@
           <t>5.7%</t>
         </is>
       </c>
-      <c r="G1843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1844">
@@ -48509,10 +48491,8 @@
         </is>
       </c>
       <c r="F1844" t="inlineStr"/>
-      <c r="G1844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1845">
@@ -48538,10 +48518,8 @@
       </c>
       <c r="E1845" t="inlineStr"/>
       <c r="F1845" t="inlineStr"/>
-      <c r="G1845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1845" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1846">
@@ -48567,10 +48545,8 @@
       </c>
       <c r="E1846" t="inlineStr"/>
       <c r="F1846" t="inlineStr"/>
-      <c r="G1846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1847">
@@ -48588,10 +48564,8 @@
       <c r="D1847" t="inlineStr"/>
       <c r="E1847" t="inlineStr"/>
       <c r="F1847" t="inlineStr"/>
-      <c r="G1847" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1847" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1848">
@@ -48617,10 +48591,8 @@
       </c>
       <c r="E1848" t="inlineStr"/>
       <c r="F1848" t="inlineStr"/>
-      <c r="G1848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1849">
@@ -48646,10 +48618,8 @@
       </c>
       <c r="E1849" t="inlineStr"/>
       <c r="F1849" t="inlineStr"/>
-      <c r="G1849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1850">
@@ -48667,10 +48637,8 @@
       <c r="D1850" t="inlineStr"/>
       <c r="E1850" t="inlineStr"/>
       <c r="F1850" t="inlineStr"/>
-      <c r="G1850" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1850" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1851">
@@ -48692,273 +48660,215 @@
       </c>
       <c r="E1851" t="inlineStr"/>
       <c r="F1851" t="inlineStr"/>
-      <c r="G1851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1852">
       <c r="A1852" t="inlineStr">
         <is>
-          <t>Friday June 06 2025</t>
-        </is>
-      </c>
-      <c r="B1852" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1852" t="inlineStr">
+        <is>
+          <t>8-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C1852" t="inlineStr"/>
-      <c r="D1852" t="inlineStr"/>
+      <c r="D1852" t="inlineStr">
+        <is>
+          <t>4.225%</t>
+        </is>
+      </c>
       <c r="E1852" t="inlineStr"/>
       <c r="F1852" t="inlineStr"/>
-      <c r="G1852" t="inlineStr"/>
+      <c r="G1852" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1853">
       <c r="A1853" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1853" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsMAY</t>
+          <t>15-Year Mortgage RateJUN/12</t>
         </is>
       </c>
       <c r="C1853" t="inlineStr"/>
       <c r="D1853" t="inlineStr">
         <is>
-          <t>177K</t>
-        </is>
-      </c>
-      <c r="E1853" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="F1853" t="inlineStr">
-        <is>
-          <t>130.0K</t>
-        </is>
-      </c>
+          <t>5.99%</t>
+        </is>
+      </c>
+      <c r="E1853" t="inlineStr"/>
+      <c r="F1853" t="inlineStr"/>
       <c r="G1853" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1854">
       <c r="A1854" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1854" t="inlineStr">
         <is>
-          <t>Unemployment RateMAY</t>
+          <t>30-Year Mortgage RateJUN/12</t>
         </is>
       </c>
       <c r="C1854" t="inlineStr"/>
       <c r="D1854" t="inlineStr">
         <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1854" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1854" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+          <t>6.85%</t>
+        </is>
+      </c>
+      <c r="E1854" t="inlineStr"/>
+      <c r="F1854" t="inlineStr"/>
       <c r="G1854" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1855">
       <c r="A1855" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1855" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMMAY</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="C1855" t="inlineStr"/>
-      <c r="D1855" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1855" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1855" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D1855" t="inlineStr"/>
+      <c r="E1855" t="inlineStr"/>
+      <c r="F1855" t="inlineStr"/>
       <c r="G1855" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1856">
       <c r="A1856" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1856" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYMAY</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C1856" t="inlineStr"/>
-      <c r="D1856" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="E1856" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F1856" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="D1856" t="inlineStr"/>
+      <c r="E1856" t="inlineStr"/>
+      <c r="F1856" t="inlineStr"/>
       <c r="G1856" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1857">
       <c r="A1857" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1857" t="inlineStr">
         <is>
-          <t>Participation RateMAY</t>
+          <t>Fed Balance SheetJUN/11</t>
         </is>
       </c>
       <c r="C1857" t="inlineStr"/>
       <c r="D1857" t="inlineStr">
         <is>
-          <t>62.6%</t>
+          <t>$6.67T</t>
         </is>
       </c>
       <c r="E1857" t="inlineStr"/>
-      <c r="F1857" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
+      <c r="F1857" t="inlineStr"/>
       <c r="G1857" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1858">
       <c r="A1858" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1858" t="inlineStr">
-        <is>
-          <t>Average Weekly HoursMAY</t>
-        </is>
-      </c>
+          <t>Friday June 13 2025</t>
+        </is>
+      </c>
+      <c r="B1858" t="inlineStr"/>
       <c r="C1858" t="inlineStr"/>
-      <c r="D1858" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="E1858" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="F1858" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="G1858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D1858" t="inlineStr"/>
+      <c r="E1858" t="inlineStr"/>
+      <c r="F1858" t="inlineStr"/>
+      <c r="G1858" t="inlineStr"/>
     </row>
     <row r="1859">
       <c r="A1859" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1859" t="inlineStr">
         <is>
-          <t>Government PayrollsMAY</t>
+          <t>Michigan Consumer Sentiment PrelJUN</t>
         </is>
       </c>
       <c r="C1859" t="inlineStr"/>
       <c r="D1859" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="E1859" t="inlineStr"/>
       <c r="F1859" t="inlineStr">
         <is>
-          <t>-10.0K</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="G1859" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1860">
       <c r="A1860" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1860" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsMAY</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C1860" t="inlineStr"/>
       <c r="D1860" t="inlineStr">
         <is>
-          <t>-1K</t>
-        </is>
-      </c>
-      <c r="E1860" t="inlineStr">
-        <is>
-          <t>-1K</t>
-        </is>
-      </c>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="E1860" t="inlineStr"/>
       <c r="F1860" t="inlineStr">
         <is>
-          <t>3.0K</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G1860" t="inlineStr">
@@ -48970,28 +48880,24 @@
     <row r="1861">
       <c r="A1861" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1861" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateMAY</t>
+          <t>Michigan Consumer Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C1861" t="inlineStr"/>
       <c r="D1861" t="inlineStr">
         <is>
-          <t>167K</t>
-        </is>
-      </c>
-      <c r="E1861" t="inlineStr">
-        <is>
-          <t>120K</t>
-        </is>
-      </c>
+          <t>47.9</t>
+        </is>
+      </c>
+      <c r="E1861" t="inlineStr"/>
       <c r="F1861" t="inlineStr">
         <is>
-          <t>140.0K</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G1861" t="inlineStr">
@@ -49003,24 +48909,24 @@
     <row r="1862">
       <c r="A1862" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1862" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateMAY</t>
+          <t>Michigan Current Conditions PrelJUN</t>
         </is>
       </c>
       <c r="C1862" t="inlineStr"/>
       <c r="D1862" t="inlineStr">
         <is>
-          <t>7.8%</t>
+          <t>58.9</t>
         </is>
       </c>
       <c r="E1862" t="inlineStr"/>
       <c r="F1862" t="inlineStr">
         <is>
-          <t>7.8%</t>
+          <t>58.8</t>
         </is>
       </c>
       <c r="G1862" t="inlineStr">
@@ -49032,22 +48938,26 @@
     <row r="1863">
       <c r="A1863" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1863" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUN/06</t>
+          <t>Michigan Inflation Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C1863" t="inlineStr"/>
       <c r="D1863" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="E1863" t="inlineStr"/>
-      <c r="F1863" t="inlineStr"/>
+      <c r="F1863" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
       <c r="G1863" t="inlineStr">
         <is>
           <t>3</t>
@@ -49062,15 +48972,11 @@
       </c>
       <c r="B1864" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUN/06</t>
+          <t>Baker Hughes Oil Rig CountJUN/13</t>
         </is>
       </c>
       <c r="C1864" t="inlineStr"/>
-      <c r="D1864" t="inlineStr">
-        <is>
-          <t>563</t>
-        </is>
-      </c>
+      <c r="D1864" t="inlineStr"/>
       <c r="E1864" t="inlineStr"/>
       <c r="F1864" t="inlineStr"/>
       <c r="G1864" t="inlineStr">
@@ -49082,30 +48988,18 @@
     <row r="1865">
       <c r="A1865" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1865" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeAPR</t>
+          <t>Baker Hughes Total Rigs CountJUN/13</t>
         </is>
       </c>
       <c r="C1865" t="inlineStr"/>
-      <c r="D1865" t="inlineStr">
-        <is>
-          <t>$10.17B</t>
-        </is>
-      </c>
-      <c r="E1865" t="inlineStr">
-        <is>
-          <t>$10.85B</t>
-        </is>
-      </c>
-      <c r="F1865" t="inlineStr">
-        <is>
-          <t>$9.0B</t>
-        </is>
-      </c>
+      <c r="D1865" t="inlineStr"/>
+      <c r="E1865" t="inlineStr"/>
+      <c r="F1865" t="inlineStr"/>
       <c r="G1865" t="inlineStr">
         <is>
           <t>3</t>
@@ -49113,1635 +49007,17 @@
       </c>
     </row>
     <row r="1866">
-      <c r="A1866" t="inlineStr"/>
-      <c r="B1866" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMMAY</t>
-        </is>
-      </c>
+      <c r="A1866" t="inlineStr">
+        <is>
+          <t>Sunday June 15 2025</t>
+        </is>
+      </c>
+      <c r="B1866" t="inlineStr"/>
       <c r="C1866" t="inlineStr"/>
-      <c r="D1866" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="D1866" t="inlineStr"/>
       <c r="E1866" t="inlineStr"/>
       <c r="F1866" t="inlineStr"/>
-      <c r="G1866" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1867">
-      <c r="A1867" t="inlineStr"/>
-      <c r="B1867" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1867" t="inlineStr"/>
-      <c r="D1867" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="E1867" t="inlineStr"/>
-      <c r="F1867" t="inlineStr"/>
-      <c r="G1867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1868">
-      <c r="A1868" t="inlineStr">
-        <is>
-          <t>Saturday June 07 2025</t>
-        </is>
-      </c>
-      <c r="B1868" t="inlineStr"/>
-      <c r="C1868" t="inlineStr"/>
-      <c r="D1868" t="inlineStr"/>
-      <c r="E1868" t="inlineStr"/>
-      <c r="F1868" t="inlineStr"/>
-      <c r="G1868" t="inlineStr"/>
-    </row>
-    <row r="1869">
-      <c r="A1869" t="inlineStr">
-        <is>
-          <t>Sunday June 08 2025</t>
-        </is>
-      </c>
-      <c r="B1869" t="inlineStr"/>
-      <c r="C1869" t="inlineStr"/>
-      <c r="D1869" t="inlineStr"/>
-      <c r="E1869" t="inlineStr"/>
-      <c r="F1869" t="inlineStr"/>
-      <c r="G1869" t="inlineStr"/>
-    </row>
-    <row r="1870">
-      <c r="A1870" t="inlineStr">
-        <is>
-          <t>Monday June 09 2025</t>
-        </is>
-      </c>
-      <c r="B1870" t="inlineStr"/>
-      <c r="C1870" t="inlineStr"/>
-      <c r="D1870" t="inlineStr"/>
-      <c r="E1870" t="inlineStr"/>
-      <c r="F1870" t="inlineStr"/>
-      <c r="G1870" t="inlineStr"/>
-    </row>
-    <row r="1871">
-      <c r="A1871" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1871" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1871" t="inlineStr"/>
-      <c r="D1871" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1871" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1871" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="G1871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1872">
-      <c r="A1872" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1872" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsMAY</t>
-        </is>
-      </c>
-      <c r="C1872" t="inlineStr"/>
-      <c r="D1872" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E1872" t="inlineStr"/>
-      <c r="F1872" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G1872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1873">
-      <c r="A1873" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1873" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1873" t="inlineStr"/>
-      <c r="D1873" t="inlineStr">
-        <is>
-          <t>4.250%</t>
-        </is>
-      </c>
-      <c r="E1873" t="inlineStr"/>
-      <c r="F1873" t="inlineStr"/>
-      <c r="G1873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1874">
-      <c r="A1874" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1874" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1874" t="inlineStr"/>
-      <c r="D1874" t="inlineStr">
-        <is>
-          <t>4.150%</t>
-        </is>
-      </c>
-      <c r="E1874" t="inlineStr"/>
-      <c r="F1874" t="inlineStr"/>
-      <c r="G1874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1875">
-      <c r="A1875" t="inlineStr">
-        <is>
-          <t>Tuesday June 10 2025</t>
-        </is>
-      </c>
-      <c r="B1875" t="inlineStr"/>
-      <c r="C1875" t="inlineStr"/>
-      <c r="D1875" t="inlineStr"/>
-      <c r="E1875" t="inlineStr"/>
-      <c r="F1875" t="inlineStr"/>
-      <c r="G1875" t="inlineStr"/>
-    </row>
-    <row r="1876">
-      <c r="A1876" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1876" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexMAY</t>
-        </is>
-      </c>
-      <c r="C1876" t="inlineStr"/>
-      <c r="D1876" t="inlineStr">
-        <is>
-          <t>95.8</t>
-        </is>
-      </c>
-      <c r="E1876" t="inlineStr"/>
-      <c r="F1876" t="inlineStr"/>
-      <c r="G1876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1877">
-      <c r="A1877" t="inlineStr">
-        <is>
-          <t>07:55 AM</t>
-        </is>
-      </c>
-      <c r="B1877" t="inlineStr">
-        <is>
-          <t>Redbook YoYJUN/07</t>
-        </is>
-      </c>
-      <c r="C1877" t="inlineStr"/>
-      <c r="D1877" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="E1877" t="inlineStr"/>
-      <c r="F1877" t="inlineStr"/>
-      <c r="G1877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1878">
-      <c r="A1878" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1878" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1878" t="inlineStr"/>
-      <c r="D1878" t="inlineStr">
-        <is>
-          <t>3.930%</t>
-        </is>
-      </c>
-      <c r="E1878" t="inlineStr"/>
-      <c r="F1878" t="inlineStr"/>
-      <c r="G1878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1879">
-      <c r="A1879" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1879" t="inlineStr">
-        <is>
-          <t>3-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1879" t="inlineStr"/>
-      <c r="D1879" t="inlineStr">
-        <is>
-          <t>3.824%</t>
-        </is>
-      </c>
-      <c r="E1879" t="inlineStr"/>
-      <c r="F1879" t="inlineStr"/>
-      <c r="G1879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1880">
-      <c r="A1880" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1880" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1880" t="inlineStr"/>
-      <c r="D1880" t="inlineStr">
-        <is>
-          <t>-3.3M</t>
-        </is>
-      </c>
-      <c r="E1880" t="inlineStr"/>
-      <c r="F1880" t="inlineStr"/>
-      <c r="G1880" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1881">
-      <c r="A1881" t="inlineStr">
-        <is>
-          <t>Wednesday June 11 2025</t>
-        </is>
-      </c>
-      <c r="B1881" t="inlineStr"/>
-      <c r="C1881" t="inlineStr"/>
-      <c r="D1881" t="inlineStr"/>
-      <c r="E1881" t="inlineStr"/>
-      <c r="F1881" t="inlineStr"/>
-      <c r="G1881" t="inlineStr"/>
-    </row>
-    <row r="1882">
-      <c r="A1882" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1882" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJUN/06</t>
-        </is>
-      </c>
-      <c r="C1882" t="inlineStr"/>
-      <c r="D1882" t="inlineStr">
-        <is>
-          <t>6.92%</t>
-        </is>
-      </c>
-      <c r="E1882" t="inlineStr"/>
-      <c r="F1882" t="inlineStr"/>
-      <c r="G1882" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1883">
-      <c r="A1883" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1883" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJUN/06</t>
-        </is>
-      </c>
-      <c r="C1883" t="inlineStr"/>
-      <c r="D1883" t="inlineStr">
-        <is>
-          <t>-3.9%</t>
-        </is>
-      </c>
-      <c r="E1883" t="inlineStr"/>
-      <c r="F1883" t="inlineStr"/>
-      <c r="G1883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1884">
-      <c r="A1884" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1884" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C1884" t="inlineStr"/>
-      <c r="D1884" t="inlineStr">
-        <is>
-          <t>226.4</t>
-        </is>
-      </c>
-      <c r="E1884" t="inlineStr"/>
-      <c r="F1884" t="inlineStr"/>
-      <c r="G1884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1885">
-      <c r="A1885" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1885" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C1885" t="inlineStr"/>
-      <c r="D1885" t="inlineStr">
-        <is>
-          <t>611.8</t>
-        </is>
-      </c>
-      <c r="E1885" t="inlineStr"/>
-      <c r="F1885" t="inlineStr"/>
-      <c r="G1885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1886">
-      <c r="A1886" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1886" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C1886" t="inlineStr"/>
-      <c r="D1886" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="E1886" t="inlineStr"/>
-      <c r="F1886" t="inlineStr"/>
-      <c r="G1886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1887">
-      <c r="A1887" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1887" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1887" t="inlineStr"/>
-      <c r="D1887" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1887" t="inlineStr"/>
-      <c r="F1887" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1887" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1888">
-      <c r="A1888" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1888" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1888" t="inlineStr"/>
-      <c r="D1888" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E1888" t="inlineStr"/>
-      <c r="F1888" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G1888" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1889">
-      <c r="A1889" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1889" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1889" t="inlineStr"/>
-      <c r="D1889" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1889" t="inlineStr"/>
-      <c r="F1889" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1889" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1890">
-      <c r="A1890" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1890" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1890" t="inlineStr"/>
-      <c r="D1890" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E1890" t="inlineStr"/>
-      <c r="F1890" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="G1890" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1891">
-      <c r="A1891" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1891" t="inlineStr">
-        <is>
-          <t>CPIMAY</t>
-        </is>
-      </c>
-      <c r="C1891" t="inlineStr"/>
-      <c r="D1891" t="inlineStr">
-        <is>
-          <t>320.795</t>
-        </is>
-      </c>
-      <c r="E1891" t="inlineStr"/>
-      <c r="F1891" t="inlineStr">
-        <is>
-          <t>321.9</t>
-        </is>
-      </c>
-      <c r="G1891" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1892">
-      <c r="A1892" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1892" t="inlineStr">
-        <is>
-          <t>CPI s.aMAY</t>
-        </is>
-      </c>
-      <c r="C1892" t="inlineStr"/>
-      <c r="D1892" t="inlineStr">
-        <is>
-          <t>320.321</t>
-        </is>
-      </c>
-      <c r="E1892" t="inlineStr"/>
-      <c r="F1892" t="inlineStr">
-        <is>
-          <t>321.6</t>
-        </is>
-      </c>
-      <c r="G1892" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1893">
-      <c r="A1893" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1893" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1893" t="inlineStr"/>
-      <c r="D1893" t="inlineStr">
-        <is>
-          <t>-4.304M</t>
-        </is>
-      </c>
-      <c r="E1893" t="inlineStr"/>
-      <c r="F1893" t="inlineStr"/>
-      <c r="G1893" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1894">
-      <c r="A1894" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1894" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1894" t="inlineStr"/>
-      <c r="D1894" t="inlineStr">
-        <is>
-          <t>5.219M</t>
-        </is>
-      </c>
-      <c r="E1894" t="inlineStr"/>
-      <c r="F1894" t="inlineStr"/>
-      <c r="G1894" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1895">
-      <c r="A1895" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1895" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1895" t="inlineStr"/>
-      <c r="D1895" t="inlineStr">
-        <is>
-          <t>0.389M</t>
-        </is>
-      </c>
-      <c r="E1895" t="inlineStr"/>
-      <c r="F1895" t="inlineStr"/>
-      <c r="G1895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1896">
-      <c r="A1896" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1896" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1896" t="inlineStr"/>
-      <c r="D1896" t="inlineStr">
-        <is>
-          <t>0.576M</t>
-        </is>
-      </c>
-      <c r="E1896" t="inlineStr"/>
-      <c r="F1896" t="inlineStr"/>
-      <c r="G1896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1897">
-      <c r="A1897" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1897" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1897" t="inlineStr"/>
-      <c r="D1897" t="inlineStr">
-        <is>
-          <t>0.182M</t>
-        </is>
-      </c>
-      <c r="E1897" t="inlineStr"/>
-      <c r="F1897" t="inlineStr"/>
-      <c r="G1897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1898">
-      <c r="A1898" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1898" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1898" t="inlineStr"/>
-      <c r="D1898" t="inlineStr">
-        <is>
-          <t>4.23M</t>
-        </is>
-      </c>
-      <c r="E1898" t="inlineStr"/>
-      <c r="F1898" t="inlineStr"/>
-      <c r="G1898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1899">
-      <c r="A1899" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1899" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1899" t="inlineStr"/>
-      <c r="D1899" t="inlineStr">
-        <is>
-          <t>-0.714M</t>
-        </is>
-      </c>
-      <c r="E1899" t="inlineStr"/>
-      <c r="F1899" t="inlineStr"/>
-      <c r="G1899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1900">
-      <c r="A1900" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1900" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1900" t="inlineStr"/>
-      <c r="D1900" t="inlineStr">
-        <is>
-          <t>-0.282M</t>
-        </is>
-      </c>
-      <c r="E1900" t="inlineStr"/>
-      <c r="F1900" t="inlineStr"/>
-      <c r="G1900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1901">
-      <c r="A1901" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1901" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1901" t="inlineStr"/>
-      <c r="D1901" t="inlineStr">
-        <is>
-          <t>0.67M</t>
-        </is>
-      </c>
-      <c r="E1901" t="inlineStr"/>
-      <c r="F1901" t="inlineStr"/>
-      <c r="G1901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1902">
-      <c r="A1902" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1902" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1902" t="inlineStr"/>
-      <c r="D1902" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="E1902" t="inlineStr"/>
-      <c r="F1902" t="inlineStr"/>
-      <c r="G1902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1903">
-      <c r="A1903" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1903" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1903" t="inlineStr"/>
-      <c r="D1903" t="inlineStr">
-        <is>
-          <t>4.342%</t>
-        </is>
-      </c>
-      <c r="E1903" t="inlineStr"/>
-      <c r="F1903" t="inlineStr"/>
-      <c r="G1903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1904">
-      <c r="A1904" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1904" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementMAY</t>
-        </is>
-      </c>
-      <c r="C1904" t="inlineStr"/>
-      <c r="D1904" t="inlineStr">
-        <is>
-          <t>$258B</t>
-        </is>
-      </c>
-      <c r="E1904" t="inlineStr"/>
-      <c r="F1904" t="inlineStr">
-        <is>
-          <t>$-312.0B</t>
-        </is>
-      </c>
-      <c r="G1904" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1905">
-      <c r="A1905" t="inlineStr">
-        <is>
-          <t>Thursday June 12 2025</t>
-        </is>
-      </c>
-      <c r="B1905" t="inlineStr"/>
-      <c r="C1905" t="inlineStr"/>
-      <c r="D1905" t="inlineStr"/>
-      <c r="E1905" t="inlineStr"/>
-      <c r="F1905" t="inlineStr"/>
-      <c r="G1905" t="inlineStr"/>
-    </row>
-    <row r="1906">
-      <c r="A1906" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1906" t="inlineStr">
-        <is>
-          <t>PPI MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1906" t="inlineStr"/>
-      <c r="D1906" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="E1906" t="inlineStr"/>
-      <c r="F1906" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1906" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1907">
-      <c r="A1907" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1907" t="inlineStr">
-        <is>
-          <t>Core PPI MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1907" t="inlineStr"/>
-      <c r="D1907" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E1907" t="inlineStr"/>
-      <c r="F1907" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1907" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1908">
-      <c r="A1908" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1908" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUN/07</t>
-        </is>
-      </c>
-      <c r="C1908" t="inlineStr"/>
-      <c r="D1908" t="inlineStr">
-        <is>
-          <t>247K</t>
-        </is>
-      </c>
-      <c r="E1908" t="inlineStr"/>
-      <c r="F1908" t="inlineStr"/>
-      <c r="G1908" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1909">
-      <c r="A1909" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1909" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAY/31</t>
-        </is>
-      </c>
-      <c r="C1909" t="inlineStr"/>
-      <c r="D1909" t="inlineStr"/>
-      <c r="E1909" t="inlineStr"/>
-      <c r="F1909" t="inlineStr"/>
-      <c r="G1909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1910">
-      <c r="A1910" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1910" t="inlineStr">
-        <is>
-          <t>Core PPI YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1910" t="inlineStr"/>
-      <c r="D1910" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E1910" t="inlineStr"/>
-      <c r="F1910" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G1910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1911">
-      <c r="A1911" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1911" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUN/07</t>
-        </is>
-      </c>
-      <c r="C1911" t="inlineStr"/>
-      <c r="D1911" t="inlineStr"/>
-      <c r="E1911" t="inlineStr"/>
-      <c r="F1911" t="inlineStr"/>
-      <c r="G1911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1912">
-      <c r="A1912" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1912" t="inlineStr">
-        <is>
-          <t>PPIMAY</t>
-        </is>
-      </c>
-      <c r="C1912" t="inlineStr"/>
-      <c r="D1912" t="inlineStr">
-        <is>
-          <t>147.677</t>
-        </is>
-      </c>
-      <c r="E1912" t="inlineStr"/>
-      <c r="F1912" t="inlineStr">
-        <is>
-          <t>147.8</t>
-        </is>
-      </c>
-      <c r="G1912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1913">
-      <c r="A1913" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1913" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1913" t="inlineStr"/>
-      <c r="D1913" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1913" t="inlineStr"/>
-      <c r="F1913" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1914">
-      <c r="A1914" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1914" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1914" t="inlineStr"/>
-      <c r="D1914" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="E1914" t="inlineStr"/>
-      <c r="F1914" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G1914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1915">
-      <c r="A1915" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1915" t="inlineStr">
-        <is>
-          <t>PPI YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1915" t="inlineStr"/>
-      <c r="D1915" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E1915" t="inlineStr"/>
-      <c r="F1915" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G1915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1916">
-      <c r="A1916" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1916" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1916" t="inlineStr"/>
-      <c r="D1916" t="inlineStr">
-        <is>
-          <t>122Bcf</t>
-        </is>
-      </c>
-      <c r="E1916" t="inlineStr"/>
-      <c r="F1916" t="inlineStr"/>
-      <c r="G1916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1917">
-      <c r="A1917" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1917" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1917" t="inlineStr"/>
-      <c r="D1917" t="inlineStr">
-        <is>
-          <t>4.170%</t>
-        </is>
-      </c>
-      <c r="E1917" t="inlineStr"/>
-      <c r="F1917" t="inlineStr"/>
-      <c r="G1917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1918">
-      <c r="A1918" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1918" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1918" t="inlineStr"/>
-      <c r="D1918" t="inlineStr">
-        <is>
-          <t>4.225%</t>
-        </is>
-      </c>
-      <c r="E1918" t="inlineStr"/>
-      <c r="F1918" t="inlineStr"/>
-      <c r="G1918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1919">
-      <c r="A1919" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1919" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUN/12</t>
-        </is>
-      </c>
-      <c r="C1919" t="inlineStr"/>
-      <c r="D1919" t="inlineStr">
-        <is>
-          <t>5.99%</t>
-        </is>
-      </c>
-      <c r="E1919" t="inlineStr"/>
-      <c r="F1919" t="inlineStr"/>
-      <c r="G1919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1920">
-      <c r="A1920" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1920" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUN/12</t>
-        </is>
-      </c>
-      <c r="C1920" t="inlineStr"/>
-      <c r="D1920" t="inlineStr">
-        <is>
-          <t>6.85%</t>
-        </is>
-      </c>
-      <c r="E1920" t="inlineStr"/>
-      <c r="F1920" t="inlineStr"/>
-      <c r="G1920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1921">
-      <c r="A1921" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1921" t="inlineStr">
-        <is>
-          <t>WASDE Report</t>
-        </is>
-      </c>
-      <c r="C1921" t="inlineStr"/>
-      <c r="D1921" t="inlineStr"/>
-      <c r="E1921" t="inlineStr"/>
-      <c r="F1921" t="inlineStr"/>
-      <c r="G1921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1922">
-      <c r="A1922" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1922" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1922" t="inlineStr"/>
-      <c r="D1922" t="inlineStr"/>
-      <c r="E1922" t="inlineStr"/>
-      <c r="F1922" t="inlineStr"/>
-      <c r="G1922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1923">
-      <c r="A1923" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1923" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUN/11</t>
-        </is>
-      </c>
-      <c r="C1923" t="inlineStr"/>
-      <c r="D1923" t="inlineStr"/>
-      <c r="E1923" t="inlineStr"/>
-      <c r="F1923" t="inlineStr"/>
-      <c r="G1923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1924">
-      <c r="A1924" t="inlineStr">
-        <is>
-          <t>Friday June 13 2025</t>
-        </is>
-      </c>
-      <c r="B1924" t="inlineStr"/>
-      <c r="C1924" t="inlineStr"/>
-      <c r="D1924" t="inlineStr"/>
-      <c r="E1924" t="inlineStr"/>
-      <c r="F1924" t="inlineStr"/>
-      <c r="G1924" t="inlineStr"/>
-    </row>
-    <row r="1925">
-      <c r="A1925" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1925" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJUN</t>
-        </is>
-      </c>
-      <c r="C1925" t="inlineStr"/>
-      <c r="D1925" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E1925" t="inlineStr"/>
-      <c r="F1925" t="inlineStr">
-        <is>
-          <t>52.1</t>
-        </is>
-      </c>
-      <c r="G1925" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1926">
-      <c r="A1926" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1926" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C1926" t="inlineStr"/>
-      <c r="D1926" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1926" t="inlineStr"/>
-      <c r="F1926" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G1926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1927">
-      <c r="A1927" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1927" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C1927" t="inlineStr"/>
-      <c r="D1927" t="inlineStr">
-        <is>
-          <t>47.9</t>
-        </is>
-      </c>
-      <c r="E1927" t="inlineStr"/>
-      <c r="F1927" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="G1927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1928">
-      <c r="A1928" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1928" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelJUN</t>
-        </is>
-      </c>
-      <c r="C1928" t="inlineStr"/>
-      <c r="D1928" t="inlineStr">
-        <is>
-          <t>58.9</t>
-        </is>
-      </c>
-      <c r="E1928" t="inlineStr"/>
-      <c r="F1928" t="inlineStr">
-        <is>
-          <t>58.8</t>
-        </is>
-      </c>
-      <c r="G1928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1929">
-      <c r="A1929" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1929" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C1929" t="inlineStr"/>
-      <c r="D1929" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="E1929" t="inlineStr"/>
-      <c r="F1929" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="G1929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1930">
-      <c r="A1930" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1930" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUN/13</t>
-        </is>
-      </c>
-      <c r="C1930" t="inlineStr"/>
-      <c r="D1930" t="inlineStr"/>
-      <c r="E1930" t="inlineStr"/>
-      <c r="F1930" t="inlineStr"/>
-      <c r="G1930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1931">
-      <c r="A1931" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1931" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUN/13</t>
-        </is>
-      </c>
-      <c r="C1931" t="inlineStr"/>
-      <c r="D1931" t="inlineStr"/>
-      <c r="E1931" t="inlineStr"/>
-      <c r="F1931" t="inlineStr"/>
-      <c r="G1931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1932">
-      <c r="A1932" t="inlineStr">
-        <is>
-          <t>Sunday June 15 2025</t>
-        </is>
-      </c>
-      <c r="B1932" t="inlineStr"/>
-      <c r="C1932" t="inlineStr"/>
-      <c r="D1932" t="inlineStr"/>
-      <c r="E1932" t="inlineStr"/>
-      <c r="F1932" t="inlineStr"/>
-      <c r="G1932" t="inlineStr"/>
+      <c r="G1866" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-06-15.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-06-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1932"/>
+  <dimension ref="A1:G1866"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48192,10 +48192,8 @@
           <t>120.0K</t>
         </is>
       </c>
-      <c r="G1835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1836">
@@ -48229,10 +48227,8 @@
           <t>$-66.6B</t>
         </is>
       </c>
-      <c r="G1836" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1836" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1837">
@@ -48262,10 +48258,8 @@
           <t>$284.4B</t>
         </is>
       </c>
-      <c r="G1837" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1837" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1838">
@@ -48295,10 +48289,8 @@
           <t>$351.0B</t>
         </is>
       </c>
-      <c r="G1838" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1838" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1839">
@@ -48332,10 +48324,8 @@
           <t>243.0K</t>
         </is>
       </c>
-      <c r="G1839" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1839" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1840">
@@ -48369,10 +48359,8 @@
           <t>1921.0K</t>
         </is>
       </c>
-      <c r="G1840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1841">
@@ -48402,10 +48390,8 @@
           <t>232.0K</t>
         </is>
       </c>
-      <c r="G1841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1842">
@@ -48439,10 +48425,8 @@
           <t>-0.8%</t>
         </is>
       </c>
-      <c r="G1842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1842" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1843">
@@ -48476,10 +48460,8 @@
           <t>5.7%</t>
         </is>
       </c>
-      <c r="G1843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1844">
@@ -48509,10 +48491,8 @@
         </is>
       </c>
       <c r="F1844" t="inlineStr"/>
-      <c r="G1844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1845">
@@ -48538,10 +48518,8 @@
       </c>
       <c r="E1845" t="inlineStr"/>
       <c r="F1845" t="inlineStr"/>
-      <c r="G1845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1845" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1846">
@@ -48567,10 +48545,8 @@
       </c>
       <c r="E1846" t="inlineStr"/>
       <c r="F1846" t="inlineStr"/>
-      <c r="G1846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1847">
@@ -48588,10 +48564,8 @@
       <c r="D1847" t="inlineStr"/>
       <c r="E1847" t="inlineStr"/>
       <c r="F1847" t="inlineStr"/>
-      <c r="G1847" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1847" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1848">
@@ -48617,10 +48591,8 @@
       </c>
       <c r="E1848" t="inlineStr"/>
       <c r="F1848" t="inlineStr"/>
-      <c r="G1848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1849">
@@ -48646,10 +48618,8 @@
       </c>
       <c r="E1849" t="inlineStr"/>
       <c r="F1849" t="inlineStr"/>
-      <c r="G1849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1850">
@@ -48667,10 +48637,8 @@
       <c r="D1850" t="inlineStr"/>
       <c r="E1850" t="inlineStr"/>
       <c r="F1850" t="inlineStr"/>
-      <c r="G1850" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1850" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1851">
@@ -48696,273 +48664,215 @@
       </c>
       <c r="E1851" t="inlineStr"/>
       <c r="F1851" t="inlineStr"/>
-      <c r="G1851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1852">
       <c r="A1852" t="inlineStr">
         <is>
-          <t>Friday June 06 2025</t>
-        </is>
-      </c>
-      <c r="B1852" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1852" t="inlineStr">
+        <is>
+          <t>8-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C1852" t="inlineStr"/>
-      <c r="D1852" t="inlineStr"/>
+      <c r="D1852" t="inlineStr">
+        <is>
+          <t>4.225%</t>
+        </is>
+      </c>
       <c r="E1852" t="inlineStr"/>
       <c r="F1852" t="inlineStr"/>
-      <c r="G1852" t="inlineStr"/>
+      <c r="G1852" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1853">
       <c r="A1853" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1853" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsMAY</t>
+          <t>15-Year Mortgage RateJUN/12</t>
         </is>
       </c>
       <c r="C1853" t="inlineStr"/>
       <c r="D1853" t="inlineStr">
         <is>
-          <t>177K</t>
-        </is>
-      </c>
-      <c r="E1853" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="F1853" t="inlineStr">
-        <is>
-          <t>130.0K</t>
-        </is>
-      </c>
+          <t>5.99%</t>
+        </is>
+      </c>
+      <c r="E1853" t="inlineStr"/>
+      <c r="F1853" t="inlineStr"/>
       <c r="G1853" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1854">
       <c r="A1854" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1854" t="inlineStr">
         <is>
-          <t>Unemployment RateMAY</t>
+          <t>30-Year Mortgage RateJUN/12</t>
         </is>
       </c>
       <c r="C1854" t="inlineStr"/>
       <c r="D1854" t="inlineStr">
         <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1854" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1854" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+          <t>6.85%</t>
+        </is>
+      </c>
+      <c r="E1854" t="inlineStr"/>
+      <c r="F1854" t="inlineStr"/>
       <c r="G1854" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1855">
       <c r="A1855" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1855" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMMAY</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="C1855" t="inlineStr"/>
-      <c r="D1855" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1855" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1855" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D1855" t="inlineStr"/>
+      <c r="E1855" t="inlineStr"/>
+      <c r="F1855" t="inlineStr"/>
       <c r="G1855" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1856">
       <c r="A1856" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1856" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYMAY</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C1856" t="inlineStr"/>
-      <c r="D1856" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="E1856" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F1856" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="D1856" t="inlineStr"/>
+      <c r="E1856" t="inlineStr"/>
+      <c r="F1856" t="inlineStr"/>
       <c r="G1856" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1857">
       <c r="A1857" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1857" t="inlineStr">
         <is>
-          <t>Participation RateMAY</t>
+          <t>Fed Balance SheetJUN/11</t>
         </is>
       </c>
       <c r="C1857" t="inlineStr"/>
       <c r="D1857" t="inlineStr">
         <is>
-          <t>62.6%</t>
+          <t>$6.67T</t>
         </is>
       </c>
       <c r="E1857" t="inlineStr"/>
-      <c r="F1857" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
+      <c r="F1857" t="inlineStr"/>
       <c r="G1857" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1858">
       <c r="A1858" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1858" t="inlineStr">
-        <is>
-          <t>Average Weekly HoursMAY</t>
-        </is>
-      </c>
+          <t>Friday June 13 2025</t>
+        </is>
+      </c>
+      <c r="B1858" t="inlineStr"/>
       <c r="C1858" t="inlineStr"/>
-      <c r="D1858" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="E1858" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="F1858" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="G1858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D1858" t="inlineStr"/>
+      <c r="E1858" t="inlineStr"/>
+      <c r="F1858" t="inlineStr"/>
+      <c r="G1858" t="inlineStr"/>
     </row>
     <row r="1859">
       <c r="A1859" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1859" t="inlineStr">
         <is>
-          <t>Government PayrollsMAY</t>
+          <t>Michigan Consumer Sentiment PrelJUN</t>
         </is>
       </c>
       <c r="C1859" t="inlineStr"/>
       <c r="D1859" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="E1859" t="inlineStr"/>
       <c r="F1859" t="inlineStr">
         <is>
-          <t>-10.0K</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="G1859" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1860">
       <c r="A1860" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1860" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsMAY</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C1860" t="inlineStr"/>
       <c r="D1860" t="inlineStr">
         <is>
-          <t>-1K</t>
-        </is>
-      </c>
-      <c r="E1860" t="inlineStr">
-        <is>
-          <t>-1K</t>
-        </is>
-      </c>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="E1860" t="inlineStr"/>
       <c r="F1860" t="inlineStr">
         <is>
-          <t>3.0K</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G1860" t="inlineStr">
@@ -48974,28 +48884,24 @@
     <row r="1861">
       <c r="A1861" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1861" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateMAY</t>
+          <t>Michigan Consumer Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C1861" t="inlineStr"/>
       <c r="D1861" t="inlineStr">
         <is>
-          <t>167K</t>
-        </is>
-      </c>
-      <c r="E1861" t="inlineStr">
-        <is>
-          <t>120K</t>
-        </is>
-      </c>
+          <t>47.9</t>
+        </is>
+      </c>
+      <c r="E1861" t="inlineStr"/>
       <c r="F1861" t="inlineStr">
         <is>
-          <t>140.0K</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G1861" t="inlineStr">
@@ -49007,24 +48913,24 @@
     <row r="1862">
       <c r="A1862" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1862" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateMAY</t>
+          <t>Michigan Current Conditions PrelJUN</t>
         </is>
       </c>
       <c r="C1862" t="inlineStr"/>
       <c r="D1862" t="inlineStr">
         <is>
-          <t>7.8%</t>
+          <t>58.9</t>
         </is>
       </c>
       <c r="E1862" t="inlineStr"/>
       <c r="F1862" t="inlineStr">
         <is>
-          <t>7.8%</t>
+          <t>58.8</t>
         </is>
       </c>
       <c r="G1862" t="inlineStr">
@@ -49036,22 +48942,26 @@
     <row r="1863">
       <c r="A1863" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1863" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUN/06</t>
+          <t>Michigan Inflation Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C1863" t="inlineStr"/>
       <c r="D1863" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="E1863" t="inlineStr"/>
-      <c r="F1863" t="inlineStr"/>
+      <c r="F1863" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
       <c r="G1863" t="inlineStr">
         <is>
           <t>3</t>
@@ -49066,15 +48976,11 @@
       </c>
       <c r="B1864" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUN/06</t>
+          <t>Baker Hughes Oil Rig CountJUN/13</t>
         </is>
       </c>
       <c r="C1864" t="inlineStr"/>
-      <c r="D1864" t="inlineStr">
-        <is>
-          <t>563</t>
-        </is>
-      </c>
+      <c r="D1864" t="inlineStr"/>
       <c r="E1864" t="inlineStr"/>
       <c r="F1864" t="inlineStr"/>
       <c r="G1864" t="inlineStr">
@@ -49086,30 +48992,18 @@
     <row r="1865">
       <c r="A1865" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1865" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeAPR</t>
+          <t>Baker Hughes Total Rigs CountJUN/13</t>
         </is>
       </c>
       <c r="C1865" t="inlineStr"/>
-      <c r="D1865" t="inlineStr">
-        <is>
-          <t>$10.17B</t>
-        </is>
-      </c>
-      <c r="E1865" t="inlineStr">
-        <is>
-          <t>$10.85B</t>
-        </is>
-      </c>
-      <c r="F1865" t="inlineStr">
-        <is>
-          <t>$9.0B</t>
-        </is>
-      </c>
+      <c r="D1865" t="inlineStr"/>
+      <c r="E1865" t="inlineStr"/>
+      <c r="F1865" t="inlineStr"/>
       <c r="G1865" t="inlineStr">
         <is>
           <t>3</t>
@@ -49117,1639 +49011,17 @@
       </c>
     </row>
     <row r="1866">
-      <c r="A1866" t="inlineStr"/>
-      <c r="B1866" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMMAY</t>
-        </is>
-      </c>
+      <c r="A1866" t="inlineStr">
+        <is>
+          <t>Sunday June 15 2025</t>
+        </is>
+      </c>
+      <c r="B1866" t="inlineStr"/>
       <c r="C1866" t="inlineStr"/>
-      <c r="D1866" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="D1866" t="inlineStr"/>
       <c r="E1866" t="inlineStr"/>
       <c r="F1866" t="inlineStr"/>
-      <c r="G1866" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1867">
-      <c r="A1867" t="inlineStr"/>
-      <c r="B1867" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1867" t="inlineStr"/>
-      <c r="D1867" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="E1867" t="inlineStr"/>
-      <c r="F1867" t="inlineStr"/>
-      <c r="G1867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1868">
-      <c r="A1868" t="inlineStr">
-        <is>
-          <t>Saturday June 07 2025</t>
-        </is>
-      </c>
-      <c r="B1868" t="inlineStr"/>
-      <c r="C1868" t="inlineStr"/>
-      <c r="D1868" t="inlineStr"/>
-      <c r="E1868" t="inlineStr"/>
-      <c r="F1868" t="inlineStr"/>
-      <c r="G1868" t="inlineStr"/>
-    </row>
-    <row r="1869">
-      <c r="A1869" t="inlineStr">
-        <is>
-          <t>Sunday June 08 2025</t>
-        </is>
-      </c>
-      <c r="B1869" t="inlineStr"/>
-      <c r="C1869" t="inlineStr"/>
-      <c r="D1869" t="inlineStr"/>
-      <c r="E1869" t="inlineStr"/>
-      <c r="F1869" t="inlineStr"/>
-      <c r="G1869" t="inlineStr"/>
-    </row>
-    <row r="1870">
-      <c r="A1870" t="inlineStr">
-        <is>
-          <t>Monday June 09 2025</t>
-        </is>
-      </c>
-      <c r="B1870" t="inlineStr"/>
-      <c r="C1870" t="inlineStr"/>
-      <c r="D1870" t="inlineStr"/>
-      <c r="E1870" t="inlineStr"/>
-      <c r="F1870" t="inlineStr"/>
-      <c r="G1870" t="inlineStr"/>
-    </row>
-    <row r="1871">
-      <c r="A1871" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1871" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1871" t="inlineStr"/>
-      <c r="D1871" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1871" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1871" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="G1871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1872">
-      <c r="A1872" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1872" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsMAY</t>
-        </is>
-      </c>
-      <c r="C1872" t="inlineStr"/>
-      <c r="D1872" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E1872" t="inlineStr"/>
-      <c r="F1872" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G1872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1873">
-      <c r="A1873" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1873" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1873" t="inlineStr"/>
-      <c r="D1873" t="inlineStr">
-        <is>
-          <t>4.250%</t>
-        </is>
-      </c>
-      <c r="E1873" t="inlineStr"/>
-      <c r="F1873" t="inlineStr"/>
-      <c r="G1873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1874">
-      <c r="A1874" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1874" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1874" t="inlineStr"/>
-      <c r="D1874" t="inlineStr">
-        <is>
-          <t>4.150%</t>
-        </is>
-      </c>
-      <c r="E1874" t="inlineStr"/>
-      <c r="F1874" t="inlineStr"/>
-      <c r="G1874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1875">
-      <c r="A1875" t="inlineStr">
-        <is>
-          <t>Tuesday June 10 2025</t>
-        </is>
-      </c>
-      <c r="B1875" t="inlineStr"/>
-      <c r="C1875" t="inlineStr"/>
-      <c r="D1875" t="inlineStr"/>
-      <c r="E1875" t="inlineStr"/>
-      <c r="F1875" t="inlineStr"/>
-      <c r="G1875" t="inlineStr"/>
-    </row>
-    <row r="1876">
-      <c r="A1876" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1876" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexMAY</t>
-        </is>
-      </c>
-      <c r="C1876" t="inlineStr"/>
-      <c r="D1876" t="inlineStr">
-        <is>
-          <t>95.8</t>
-        </is>
-      </c>
-      <c r="E1876" t="inlineStr"/>
-      <c r="F1876" t="inlineStr"/>
-      <c r="G1876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1877">
-      <c r="A1877" t="inlineStr">
-        <is>
-          <t>07:55 AM</t>
-        </is>
-      </c>
-      <c r="B1877" t="inlineStr">
-        <is>
-          <t>Redbook YoYJUN/07</t>
-        </is>
-      </c>
-      <c r="C1877" t="inlineStr"/>
-      <c r="D1877" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="E1877" t="inlineStr"/>
-      <c r="F1877" t="inlineStr"/>
-      <c r="G1877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1878">
-      <c r="A1878" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1878" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1878" t="inlineStr"/>
-      <c r="D1878" t="inlineStr">
-        <is>
-          <t>3.930%</t>
-        </is>
-      </c>
-      <c r="E1878" t="inlineStr"/>
-      <c r="F1878" t="inlineStr"/>
-      <c r="G1878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1879">
-      <c r="A1879" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1879" t="inlineStr">
-        <is>
-          <t>3-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1879" t="inlineStr"/>
-      <c r="D1879" t="inlineStr">
-        <is>
-          <t>3.824%</t>
-        </is>
-      </c>
-      <c r="E1879" t="inlineStr"/>
-      <c r="F1879" t="inlineStr"/>
-      <c r="G1879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1880">
-      <c r="A1880" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1880" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1880" t="inlineStr"/>
-      <c r="D1880" t="inlineStr">
-        <is>
-          <t>-3.3M</t>
-        </is>
-      </c>
-      <c r="E1880" t="inlineStr"/>
-      <c r="F1880" t="inlineStr"/>
-      <c r="G1880" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1881">
-      <c r="A1881" t="inlineStr">
-        <is>
-          <t>Wednesday June 11 2025</t>
-        </is>
-      </c>
-      <c r="B1881" t="inlineStr"/>
-      <c r="C1881" t="inlineStr"/>
-      <c r="D1881" t="inlineStr"/>
-      <c r="E1881" t="inlineStr"/>
-      <c r="F1881" t="inlineStr"/>
-      <c r="G1881" t="inlineStr"/>
-    </row>
-    <row r="1882">
-      <c r="A1882" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1882" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJUN/06</t>
-        </is>
-      </c>
-      <c r="C1882" t="inlineStr"/>
-      <c r="D1882" t="inlineStr">
-        <is>
-          <t>6.92%</t>
-        </is>
-      </c>
-      <c r="E1882" t="inlineStr"/>
-      <c r="F1882" t="inlineStr"/>
-      <c r="G1882" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1883">
-      <c r="A1883" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1883" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJUN/06</t>
-        </is>
-      </c>
-      <c r="C1883" t="inlineStr"/>
-      <c r="D1883" t="inlineStr">
-        <is>
-          <t>-3.9%</t>
-        </is>
-      </c>
-      <c r="E1883" t="inlineStr"/>
-      <c r="F1883" t="inlineStr"/>
-      <c r="G1883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1884">
-      <c r="A1884" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1884" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C1884" t="inlineStr"/>
-      <c r="D1884" t="inlineStr">
-        <is>
-          <t>226.4</t>
-        </is>
-      </c>
-      <c r="E1884" t="inlineStr"/>
-      <c r="F1884" t="inlineStr"/>
-      <c r="G1884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1885">
-      <c r="A1885" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1885" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C1885" t="inlineStr"/>
-      <c r="D1885" t="inlineStr">
-        <is>
-          <t>611.8</t>
-        </is>
-      </c>
-      <c r="E1885" t="inlineStr"/>
-      <c r="F1885" t="inlineStr"/>
-      <c r="G1885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1886">
-      <c r="A1886" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1886" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C1886" t="inlineStr"/>
-      <c r="D1886" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="E1886" t="inlineStr"/>
-      <c r="F1886" t="inlineStr"/>
-      <c r="G1886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1887">
-      <c r="A1887" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1887" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1887" t="inlineStr"/>
-      <c r="D1887" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1887" t="inlineStr"/>
-      <c r="F1887" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1887" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1888">
-      <c r="A1888" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1888" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1888" t="inlineStr"/>
-      <c r="D1888" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E1888" t="inlineStr"/>
-      <c r="F1888" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G1888" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1889">
-      <c r="A1889" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1889" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1889" t="inlineStr"/>
-      <c r="D1889" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1889" t="inlineStr"/>
-      <c r="F1889" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1889" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1890">
-      <c r="A1890" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1890" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1890" t="inlineStr"/>
-      <c r="D1890" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E1890" t="inlineStr"/>
-      <c r="F1890" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="G1890" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1891">
-      <c r="A1891" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1891" t="inlineStr">
-        <is>
-          <t>CPIMAY</t>
-        </is>
-      </c>
-      <c r="C1891" t="inlineStr"/>
-      <c r="D1891" t="inlineStr">
-        <is>
-          <t>320.795</t>
-        </is>
-      </c>
-      <c r="E1891" t="inlineStr"/>
-      <c r="F1891" t="inlineStr">
-        <is>
-          <t>321.9</t>
-        </is>
-      </c>
-      <c r="G1891" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1892">
-      <c r="A1892" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1892" t="inlineStr">
-        <is>
-          <t>CPI s.aMAY</t>
-        </is>
-      </c>
-      <c r="C1892" t="inlineStr"/>
-      <c r="D1892" t="inlineStr">
-        <is>
-          <t>320.321</t>
-        </is>
-      </c>
-      <c r="E1892" t="inlineStr"/>
-      <c r="F1892" t="inlineStr">
-        <is>
-          <t>321.6</t>
-        </is>
-      </c>
-      <c r="G1892" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1893">
-      <c r="A1893" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1893" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1893" t="inlineStr"/>
-      <c r="D1893" t="inlineStr">
-        <is>
-          <t>-4.304M</t>
-        </is>
-      </c>
-      <c r="E1893" t="inlineStr"/>
-      <c r="F1893" t="inlineStr"/>
-      <c r="G1893" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1894">
-      <c r="A1894" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1894" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1894" t="inlineStr"/>
-      <c r="D1894" t="inlineStr">
-        <is>
-          <t>5.219M</t>
-        </is>
-      </c>
-      <c r="E1894" t="inlineStr"/>
-      <c r="F1894" t="inlineStr"/>
-      <c r="G1894" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1895">
-      <c r="A1895" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1895" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1895" t="inlineStr"/>
-      <c r="D1895" t="inlineStr">
-        <is>
-          <t>0.389M</t>
-        </is>
-      </c>
-      <c r="E1895" t="inlineStr"/>
-      <c r="F1895" t="inlineStr"/>
-      <c r="G1895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1896">
-      <c r="A1896" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1896" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1896" t="inlineStr"/>
-      <c r="D1896" t="inlineStr">
-        <is>
-          <t>0.576M</t>
-        </is>
-      </c>
-      <c r="E1896" t="inlineStr"/>
-      <c r="F1896" t="inlineStr"/>
-      <c r="G1896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1897">
-      <c r="A1897" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1897" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1897" t="inlineStr"/>
-      <c r="D1897" t="inlineStr">
-        <is>
-          <t>0.182M</t>
-        </is>
-      </c>
-      <c r="E1897" t="inlineStr"/>
-      <c r="F1897" t="inlineStr"/>
-      <c r="G1897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1898">
-      <c r="A1898" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1898" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1898" t="inlineStr"/>
-      <c r="D1898" t="inlineStr">
-        <is>
-          <t>4.23M</t>
-        </is>
-      </c>
-      <c r="E1898" t="inlineStr"/>
-      <c r="F1898" t="inlineStr"/>
-      <c r="G1898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1899">
-      <c r="A1899" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1899" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1899" t="inlineStr"/>
-      <c r="D1899" t="inlineStr">
-        <is>
-          <t>-0.714M</t>
-        </is>
-      </c>
-      <c r="E1899" t="inlineStr"/>
-      <c r="F1899" t="inlineStr"/>
-      <c r="G1899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1900">
-      <c r="A1900" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1900" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1900" t="inlineStr"/>
-      <c r="D1900" t="inlineStr">
-        <is>
-          <t>-0.282M</t>
-        </is>
-      </c>
-      <c r="E1900" t="inlineStr"/>
-      <c r="F1900" t="inlineStr"/>
-      <c r="G1900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1901">
-      <c r="A1901" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1901" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1901" t="inlineStr"/>
-      <c r="D1901" t="inlineStr">
-        <is>
-          <t>0.67M</t>
-        </is>
-      </c>
-      <c r="E1901" t="inlineStr"/>
-      <c r="F1901" t="inlineStr"/>
-      <c r="G1901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1902">
-      <c r="A1902" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1902" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1902" t="inlineStr"/>
-      <c r="D1902" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="E1902" t="inlineStr"/>
-      <c r="F1902" t="inlineStr"/>
-      <c r="G1902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1903">
-      <c r="A1903" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1903" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1903" t="inlineStr"/>
-      <c r="D1903" t="inlineStr">
-        <is>
-          <t>4.342%</t>
-        </is>
-      </c>
-      <c r="E1903" t="inlineStr"/>
-      <c r="F1903" t="inlineStr"/>
-      <c r="G1903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1904">
-      <c r="A1904" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1904" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementMAY</t>
-        </is>
-      </c>
-      <c r="C1904" t="inlineStr"/>
-      <c r="D1904" t="inlineStr">
-        <is>
-          <t>$258B</t>
-        </is>
-      </c>
-      <c r="E1904" t="inlineStr"/>
-      <c r="F1904" t="inlineStr">
-        <is>
-          <t>$-312.0B</t>
-        </is>
-      </c>
-      <c r="G1904" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1905">
-      <c r="A1905" t="inlineStr">
-        <is>
-          <t>Thursday June 12 2025</t>
-        </is>
-      </c>
-      <c r="B1905" t="inlineStr"/>
-      <c r="C1905" t="inlineStr"/>
-      <c r="D1905" t="inlineStr"/>
-      <c r="E1905" t="inlineStr"/>
-      <c r="F1905" t="inlineStr"/>
-      <c r="G1905" t="inlineStr"/>
-    </row>
-    <row r="1906">
-      <c r="A1906" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1906" t="inlineStr">
-        <is>
-          <t>PPI MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1906" t="inlineStr"/>
-      <c r="D1906" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="E1906" t="inlineStr"/>
-      <c r="F1906" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1906" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1907">
-      <c r="A1907" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1907" t="inlineStr">
-        <is>
-          <t>Core PPI MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1907" t="inlineStr"/>
-      <c r="D1907" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E1907" t="inlineStr"/>
-      <c r="F1907" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1907" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1908">
-      <c r="A1908" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1908" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUN/07</t>
-        </is>
-      </c>
-      <c r="C1908" t="inlineStr"/>
-      <c r="D1908" t="inlineStr">
-        <is>
-          <t>247K</t>
-        </is>
-      </c>
-      <c r="E1908" t="inlineStr"/>
-      <c r="F1908" t="inlineStr"/>
-      <c r="G1908" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1909">
-      <c r="A1909" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1909" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAY/31</t>
-        </is>
-      </c>
-      <c r="C1909" t="inlineStr"/>
-      <c r="D1909" t="inlineStr"/>
-      <c r="E1909" t="inlineStr"/>
-      <c r="F1909" t="inlineStr"/>
-      <c r="G1909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1910">
-      <c r="A1910" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1910" t="inlineStr">
-        <is>
-          <t>Core PPI YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1910" t="inlineStr"/>
-      <c r="D1910" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E1910" t="inlineStr"/>
-      <c r="F1910" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G1910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1911">
-      <c r="A1911" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1911" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUN/07</t>
-        </is>
-      </c>
-      <c r="C1911" t="inlineStr"/>
-      <c r="D1911" t="inlineStr"/>
-      <c r="E1911" t="inlineStr"/>
-      <c r="F1911" t="inlineStr"/>
-      <c r="G1911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1912">
-      <c r="A1912" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1912" t="inlineStr">
-        <is>
-          <t>PPIMAY</t>
-        </is>
-      </c>
-      <c r="C1912" t="inlineStr"/>
-      <c r="D1912" t="inlineStr">
-        <is>
-          <t>147.677</t>
-        </is>
-      </c>
-      <c r="E1912" t="inlineStr"/>
-      <c r="F1912" t="inlineStr">
-        <is>
-          <t>147.8</t>
-        </is>
-      </c>
-      <c r="G1912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1913">
-      <c r="A1913" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1913" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1913" t="inlineStr"/>
-      <c r="D1913" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1913" t="inlineStr"/>
-      <c r="F1913" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1914">
-      <c r="A1914" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1914" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1914" t="inlineStr"/>
-      <c r="D1914" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="E1914" t="inlineStr"/>
-      <c r="F1914" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G1914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1915">
-      <c r="A1915" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1915" t="inlineStr">
-        <is>
-          <t>PPI YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1915" t="inlineStr"/>
-      <c r="D1915" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E1915" t="inlineStr"/>
-      <c r="F1915" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G1915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1916">
-      <c r="A1916" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1916" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1916" t="inlineStr"/>
-      <c r="D1916" t="inlineStr">
-        <is>
-          <t>122Bcf</t>
-        </is>
-      </c>
-      <c r="E1916" t="inlineStr"/>
-      <c r="F1916" t="inlineStr"/>
-      <c r="G1916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1917">
-      <c r="A1917" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1917" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1917" t="inlineStr"/>
-      <c r="D1917" t="inlineStr">
-        <is>
-          <t>4.170%</t>
-        </is>
-      </c>
-      <c r="E1917" t="inlineStr"/>
-      <c r="F1917" t="inlineStr"/>
-      <c r="G1917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1918">
-      <c r="A1918" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1918" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1918" t="inlineStr"/>
-      <c r="D1918" t="inlineStr">
-        <is>
-          <t>4.225%</t>
-        </is>
-      </c>
-      <c r="E1918" t="inlineStr"/>
-      <c r="F1918" t="inlineStr"/>
-      <c r="G1918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1919">
-      <c r="A1919" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1919" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUN/12</t>
-        </is>
-      </c>
-      <c r="C1919" t="inlineStr"/>
-      <c r="D1919" t="inlineStr">
-        <is>
-          <t>5.99%</t>
-        </is>
-      </c>
-      <c r="E1919" t="inlineStr"/>
-      <c r="F1919" t="inlineStr"/>
-      <c r="G1919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1920">
-      <c r="A1920" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1920" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUN/12</t>
-        </is>
-      </c>
-      <c r="C1920" t="inlineStr"/>
-      <c r="D1920" t="inlineStr">
-        <is>
-          <t>6.85%</t>
-        </is>
-      </c>
-      <c r="E1920" t="inlineStr"/>
-      <c r="F1920" t="inlineStr"/>
-      <c r="G1920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1921">
-      <c r="A1921" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1921" t="inlineStr">
-        <is>
-          <t>WASDE Report</t>
-        </is>
-      </c>
-      <c r="C1921" t="inlineStr"/>
-      <c r="D1921" t="inlineStr"/>
-      <c r="E1921" t="inlineStr"/>
-      <c r="F1921" t="inlineStr"/>
-      <c r="G1921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1922">
-      <c r="A1922" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1922" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1922" t="inlineStr"/>
-      <c r="D1922" t="inlineStr"/>
-      <c r="E1922" t="inlineStr"/>
-      <c r="F1922" t="inlineStr"/>
-      <c r="G1922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1923">
-      <c r="A1923" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1923" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUN/11</t>
-        </is>
-      </c>
-      <c r="C1923" t="inlineStr"/>
-      <c r="D1923" t="inlineStr">
-        <is>
-          <t>$6.67T</t>
-        </is>
-      </c>
-      <c r="E1923" t="inlineStr"/>
-      <c r="F1923" t="inlineStr"/>
-      <c r="G1923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1924">
-      <c r="A1924" t="inlineStr">
-        <is>
-          <t>Friday June 13 2025</t>
-        </is>
-      </c>
-      <c r="B1924" t="inlineStr"/>
-      <c r="C1924" t="inlineStr"/>
-      <c r="D1924" t="inlineStr"/>
-      <c r="E1924" t="inlineStr"/>
-      <c r="F1924" t="inlineStr"/>
-      <c r="G1924" t="inlineStr"/>
-    </row>
-    <row r="1925">
-      <c r="A1925" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1925" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJUN</t>
-        </is>
-      </c>
-      <c r="C1925" t="inlineStr"/>
-      <c r="D1925" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E1925" t="inlineStr"/>
-      <c r="F1925" t="inlineStr">
-        <is>
-          <t>52.1</t>
-        </is>
-      </c>
-      <c r="G1925" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1926">
-      <c r="A1926" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1926" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C1926" t="inlineStr"/>
-      <c r="D1926" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1926" t="inlineStr"/>
-      <c r="F1926" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G1926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1927">
-      <c r="A1927" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1927" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C1927" t="inlineStr"/>
-      <c r="D1927" t="inlineStr">
-        <is>
-          <t>47.9</t>
-        </is>
-      </c>
-      <c r="E1927" t="inlineStr"/>
-      <c r="F1927" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="G1927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1928">
-      <c r="A1928" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1928" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelJUN</t>
-        </is>
-      </c>
-      <c r="C1928" t="inlineStr"/>
-      <c r="D1928" t="inlineStr">
-        <is>
-          <t>58.9</t>
-        </is>
-      </c>
-      <c r="E1928" t="inlineStr"/>
-      <c r="F1928" t="inlineStr">
-        <is>
-          <t>58.8</t>
-        </is>
-      </c>
-      <c r="G1928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1929">
-      <c r="A1929" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1929" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C1929" t="inlineStr"/>
-      <c r="D1929" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="E1929" t="inlineStr"/>
-      <c r="F1929" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="G1929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1930">
-      <c r="A1930" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1930" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUN/13</t>
-        </is>
-      </c>
-      <c r="C1930" t="inlineStr"/>
-      <c r="D1930" t="inlineStr"/>
-      <c r="E1930" t="inlineStr"/>
-      <c r="F1930" t="inlineStr"/>
-      <c r="G1930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1931">
-      <c r="A1931" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1931" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUN/13</t>
-        </is>
-      </c>
-      <c r="C1931" t="inlineStr"/>
-      <c r="D1931" t="inlineStr"/>
-      <c r="E1931" t="inlineStr"/>
-      <c r="F1931" t="inlineStr"/>
-      <c r="G1931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1932">
-      <c r="A1932" t="inlineStr">
-        <is>
-          <t>Sunday June 15 2025</t>
-        </is>
-      </c>
-      <c r="B1932" t="inlineStr"/>
-      <c r="C1932" t="inlineStr"/>
-      <c r="D1932" t="inlineStr"/>
-      <c r="E1932" t="inlineStr"/>
-      <c r="F1932" t="inlineStr"/>
-      <c r="G1932" t="inlineStr"/>
+      <c r="G1866" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-06-15.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-06-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1932"/>
+  <dimension ref="A1:G1870"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48192,10 +48192,8 @@
           <t>120.0K</t>
         </is>
       </c>
-      <c r="G1835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1836">
@@ -48229,10 +48227,8 @@
           <t>$-66.6B</t>
         </is>
       </c>
-      <c r="G1836" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1836" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1837">
@@ -48262,10 +48258,8 @@
           <t>$284.4B</t>
         </is>
       </c>
-      <c r="G1837" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1837" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1838">
@@ -48295,10 +48289,8 @@
           <t>$351.0B</t>
         </is>
       </c>
-      <c r="G1838" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1838" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1839">
@@ -48332,10 +48324,8 @@
           <t>243.0K</t>
         </is>
       </c>
-      <c r="G1839" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1839" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1840">
@@ -48369,10 +48359,8 @@
           <t>1921.0K</t>
         </is>
       </c>
-      <c r="G1840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1841">
@@ -48402,10 +48390,8 @@
           <t>232.0K</t>
         </is>
       </c>
-      <c r="G1841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1842">
@@ -48439,10 +48425,8 @@
           <t>-0.8%</t>
         </is>
       </c>
-      <c r="G1842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1842" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1843">
@@ -48476,10 +48460,8 @@
           <t>5.7%</t>
         </is>
       </c>
-      <c r="G1843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1844">
@@ -48509,10 +48491,8 @@
         </is>
       </c>
       <c r="F1844" t="inlineStr"/>
-      <c r="G1844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1845">
@@ -48538,10 +48518,8 @@
       </c>
       <c r="E1845" t="inlineStr"/>
       <c r="F1845" t="inlineStr"/>
-      <c r="G1845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1845" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1846">
@@ -48567,10 +48545,8 @@
       </c>
       <c r="E1846" t="inlineStr"/>
       <c r="F1846" t="inlineStr"/>
-      <c r="G1846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1847">
@@ -48588,10 +48564,8 @@
       <c r="D1847" t="inlineStr"/>
       <c r="E1847" t="inlineStr"/>
       <c r="F1847" t="inlineStr"/>
-      <c r="G1847" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1847" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1848">
@@ -48617,10 +48591,8 @@
       </c>
       <c r="E1848" t="inlineStr"/>
       <c r="F1848" t="inlineStr"/>
-      <c r="G1848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1849">
@@ -48646,10 +48618,8 @@
       </c>
       <c r="E1849" t="inlineStr"/>
       <c r="F1849" t="inlineStr"/>
-      <c r="G1849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1850">
@@ -48667,10 +48637,8 @@
       <c r="D1850" t="inlineStr"/>
       <c r="E1850" t="inlineStr"/>
       <c r="F1850" t="inlineStr"/>
-      <c r="G1850" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1850" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1851">
@@ -48696,24 +48664,38 @@
       </c>
       <c r="E1851" t="inlineStr"/>
       <c r="F1851" t="inlineStr"/>
-      <c r="G1851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1852">
       <c r="A1852" t="inlineStr">
         <is>
-          <t>Friday June 06 2025</t>
-        </is>
-      </c>
-      <c r="B1852" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1852" t="inlineStr">
+        <is>
+          <t>PPI Ex Food, Energy and Trade YoYMAY</t>
+        </is>
+      </c>
       <c r="C1852" t="inlineStr"/>
-      <c r="D1852" t="inlineStr"/>
+      <c r="D1852" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
       <c r="E1852" t="inlineStr"/>
-      <c r="F1852" t="inlineStr"/>
-      <c r="G1852" t="inlineStr"/>
+      <c r="F1852" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="G1852" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1853">
       <c r="A1853" t="inlineStr">
@@ -48723,186 +48705,146 @@
       </c>
       <c r="B1853" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsMAY</t>
+          <t>PPI YoYMAY</t>
         </is>
       </c>
       <c r="C1853" t="inlineStr"/>
       <c r="D1853" t="inlineStr">
         <is>
-          <t>177K</t>
-        </is>
-      </c>
-      <c r="E1853" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="E1853" t="inlineStr"/>
       <c r="F1853" t="inlineStr">
         <is>
-          <t>130.0K</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="G1853" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1854">
       <c r="A1854" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1854" t="inlineStr">
         <is>
-          <t>Unemployment RateMAY</t>
+          <t>EIA Natural Gas Stocks ChangeJUN/06</t>
         </is>
       </c>
       <c r="C1854" t="inlineStr"/>
       <c r="D1854" t="inlineStr">
         <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1854" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1854" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+          <t>122Bcf</t>
+        </is>
+      </c>
+      <c r="E1854" t="inlineStr"/>
+      <c r="F1854" t="inlineStr"/>
       <c r="G1854" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1855">
       <c r="A1855" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1855" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMMAY</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1855" t="inlineStr"/>
       <c r="D1855" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1855" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1855" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>4.170%</t>
+        </is>
+      </c>
+      <c r="E1855" t="inlineStr"/>
+      <c r="F1855" t="inlineStr"/>
       <c r="G1855" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1856">
       <c r="A1856" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1856" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYMAY</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1856" t="inlineStr"/>
       <c r="D1856" t="inlineStr">
         <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="E1856" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F1856" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+          <t>4.225%</t>
+        </is>
+      </c>
+      <c r="E1856" t="inlineStr"/>
+      <c r="F1856" t="inlineStr"/>
       <c r="G1856" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1857">
       <c r="A1857" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1857" t="inlineStr">
         <is>
-          <t>Participation RateMAY</t>
+          <t>15-Year Mortgage RateJUN/12</t>
         </is>
       </c>
       <c r="C1857" t="inlineStr"/>
       <c r="D1857" t="inlineStr">
         <is>
-          <t>62.6%</t>
+          <t>5.99%</t>
         </is>
       </c>
       <c r="E1857" t="inlineStr"/>
-      <c r="F1857" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
+      <c r="F1857" t="inlineStr"/>
       <c r="G1857" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1858">
       <c r="A1858" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1858" t="inlineStr">
         <is>
-          <t>Average Weekly HoursMAY</t>
+          <t>30-Year Mortgage RateJUN/12</t>
         </is>
       </c>
       <c r="C1858" t="inlineStr"/>
       <c r="D1858" t="inlineStr">
         <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="E1858" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="F1858" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+          <t>6.85%</t>
+        </is>
+      </c>
+      <c r="E1858" t="inlineStr"/>
+      <c r="F1858" t="inlineStr"/>
       <c r="G1858" t="inlineStr">
         <is>
           <t>3</t>
@@ -48912,26 +48854,18 @@
     <row r="1859">
       <c r="A1859" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1859" t="inlineStr">
         <is>
-          <t>Government PayrollsMAY</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="C1859" t="inlineStr"/>
-      <c r="D1859" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
+      <c r="D1859" t="inlineStr"/>
       <c r="E1859" t="inlineStr"/>
-      <c r="F1859" t="inlineStr">
-        <is>
-          <t>-10.0K</t>
-        </is>
-      </c>
+      <c r="F1859" t="inlineStr"/>
       <c r="G1859" t="inlineStr">
         <is>
           <t>3</t>
@@ -48941,30 +48875,18 @@
     <row r="1860">
       <c r="A1860" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1860" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsMAY</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C1860" t="inlineStr"/>
-      <c r="D1860" t="inlineStr">
-        <is>
-          <t>-1K</t>
-        </is>
-      </c>
-      <c r="E1860" t="inlineStr">
-        <is>
-          <t>-1K</t>
-        </is>
-      </c>
-      <c r="F1860" t="inlineStr">
-        <is>
-          <t>3.0K</t>
-        </is>
-      </c>
+      <c r="D1860" t="inlineStr"/>
+      <c r="E1860" t="inlineStr"/>
+      <c r="F1860" t="inlineStr"/>
       <c r="G1860" t="inlineStr">
         <is>
           <t>3</t>
@@ -48974,30 +48896,22 @@
     <row r="1861">
       <c r="A1861" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1861" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateMAY</t>
+          <t>Fed Balance SheetJUN/11</t>
         </is>
       </c>
       <c r="C1861" t="inlineStr"/>
       <c r="D1861" t="inlineStr">
         <is>
-          <t>167K</t>
-        </is>
-      </c>
-      <c r="E1861" t="inlineStr">
-        <is>
-          <t>120K</t>
-        </is>
-      </c>
-      <c r="F1861" t="inlineStr">
-        <is>
-          <t>140.0K</t>
-        </is>
-      </c>
+          <t>$6.67T</t>
+        </is>
+      </c>
+      <c r="E1861" t="inlineStr"/>
+      <c r="F1861" t="inlineStr"/>
       <c r="G1861" t="inlineStr">
         <is>
           <t>3</t>
@@ -49007,76 +48921,68 @@
     <row r="1862">
       <c r="A1862" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1862" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment RateMAY</t>
-        </is>
-      </c>
+          <t>Friday June 13 2025</t>
+        </is>
+      </c>
+      <c r="B1862" t="inlineStr"/>
       <c r="C1862" t="inlineStr"/>
-      <c r="D1862" t="inlineStr">
-        <is>
-          <t>7.8%</t>
-        </is>
-      </c>
+      <c r="D1862" t="inlineStr"/>
       <c r="E1862" t="inlineStr"/>
-      <c r="F1862" t="inlineStr">
-        <is>
-          <t>7.8%</t>
-        </is>
-      </c>
-      <c r="G1862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F1862" t="inlineStr"/>
+      <c r="G1862" t="inlineStr"/>
     </row>
     <row r="1863">
       <c r="A1863" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1863" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUN/06</t>
+          <t>Michigan Consumer Sentiment PrelJUN</t>
         </is>
       </c>
       <c r="C1863" t="inlineStr"/>
       <c r="D1863" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="E1863" t="inlineStr"/>
-      <c r="F1863" t="inlineStr"/>
+      <c r="F1863" t="inlineStr">
+        <is>
+          <t>52.1</t>
+        </is>
+      </c>
       <c r="G1863" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1864">
       <c r="A1864" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1864" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUN/06</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C1864" t="inlineStr"/>
       <c r="D1864" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="E1864" t="inlineStr"/>
-      <c r="F1864" t="inlineStr"/>
+      <c r="F1864" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="G1864" t="inlineStr">
         <is>
           <t>3</t>
@@ -49086,28 +48992,24 @@
     <row r="1865">
       <c r="A1865" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1865" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeAPR</t>
+          <t>Michigan Consumer Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C1865" t="inlineStr"/>
       <c r="D1865" t="inlineStr">
         <is>
-          <t>$10.17B</t>
-        </is>
-      </c>
-      <c r="E1865" t="inlineStr">
-        <is>
-          <t>$10.85B</t>
-        </is>
-      </c>
+          <t>47.9</t>
+        </is>
+      </c>
+      <c r="E1865" t="inlineStr"/>
       <c r="F1865" t="inlineStr">
         <is>
-          <t>$9.0B</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G1865" t="inlineStr">
@@ -49117,20 +49019,28 @@
       </c>
     </row>
     <row r="1866">
-      <c r="A1866" t="inlineStr"/>
+      <c r="A1866" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1866" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMMAY</t>
+          <t>Michigan Current Conditions PrelJUN</t>
         </is>
       </c>
       <c r="C1866" t="inlineStr"/>
       <c r="D1866" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>58.9</t>
         </is>
       </c>
       <c r="E1866" t="inlineStr"/>
-      <c r="F1866" t="inlineStr"/>
+      <c r="F1866" t="inlineStr">
+        <is>
+          <t>58.8</t>
+        </is>
+      </c>
       <c r="G1866" t="inlineStr">
         <is>
           <t>3</t>
@@ -49138,20 +49048,28 @@
       </c>
     </row>
     <row r="1867">
-      <c r="A1867" t="inlineStr"/>
+      <c r="A1867" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1867" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYMAY</t>
+          <t>Michigan Inflation Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C1867" t="inlineStr"/>
       <c r="D1867" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="E1867" t="inlineStr"/>
-      <c r="F1867" t="inlineStr"/>
+      <c r="F1867" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
       <c r="G1867" t="inlineStr">
         <is>
           <t>3</t>
@@ -49161,33 +49079,49 @@
     <row r="1868">
       <c r="A1868" t="inlineStr">
         <is>
-          <t>Saturday June 07 2025</t>
-        </is>
-      </c>
-      <c r="B1868" t="inlineStr"/>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B1868" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountJUN/13</t>
+        </is>
+      </c>
       <c r="C1868" t="inlineStr"/>
       <c r="D1868" t="inlineStr"/>
       <c r="E1868" t="inlineStr"/>
       <c r="F1868" t="inlineStr"/>
-      <c r="G1868" t="inlineStr"/>
+      <c r="G1868" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1869">
       <c r="A1869" t="inlineStr">
         <is>
-          <t>Sunday June 08 2025</t>
-        </is>
-      </c>
-      <c r="B1869" t="inlineStr"/>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B1869" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountJUN/13</t>
+        </is>
+      </c>
       <c r="C1869" t="inlineStr"/>
       <c r="D1869" t="inlineStr"/>
       <c r="E1869" t="inlineStr"/>
       <c r="F1869" t="inlineStr"/>
-      <c r="G1869" t="inlineStr"/>
+      <c r="G1869" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1870">
       <c r="A1870" t="inlineStr">
         <is>
-          <t>Monday June 09 2025</t>
+          <t>Sunday June 15 2025</t>
         </is>
       </c>
       <c r="B1870" t="inlineStr"/>
@@ -49197,1560 +49131,6 @@
       <c r="F1870" t="inlineStr"/>
       <c r="G1870" t="inlineStr"/>
     </row>
-    <row r="1871">
-      <c r="A1871" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1871" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1871" t="inlineStr"/>
-      <c r="D1871" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1871" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1871" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="G1871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1872">
-      <c r="A1872" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1872" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsMAY</t>
-        </is>
-      </c>
-      <c r="C1872" t="inlineStr"/>
-      <c r="D1872" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E1872" t="inlineStr"/>
-      <c r="F1872" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G1872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1873">
-      <c r="A1873" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1873" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1873" t="inlineStr"/>
-      <c r="D1873" t="inlineStr">
-        <is>
-          <t>4.250%</t>
-        </is>
-      </c>
-      <c r="E1873" t="inlineStr"/>
-      <c r="F1873" t="inlineStr"/>
-      <c r="G1873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1874">
-      <c r="A1874" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1874" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1874" t="inlineStr"/>
-      <c r="D1874" t="inlineStr">
-        <is>
-          <t>4.150%</t>
-        </is>
-      </c>
-      <c r="E1874" t="inlineStr"/>
-      <c r="F1874" t="inlineStr"/>
-      <c r="G1874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1875">
-      <c r="A1875" t="inlineStr">
-        <is>
-          <t>Tuesday June 10 2025</t>
-        </is>
-      </c>
-      <c r="B1875" t="inlineStr"/>
-      <c r="C1875" t="inlineStr"/>
-      <c r="D1875" t="inlineStr"/>
-      <c r="E1875" t="inlineStr"/>
-      <c r="F1875" t="inlineStr"/>
-      <c r="G1875" t="inlineStr"/>
-    </row>
-    <row r="1876">
-      <c r="A1876" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1876" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexMAY</t>
-        </is>
-      </c>
-      <c r="C1876" t="inlineStr"/>
-      <c r="D1876" t="inlineStr">
-        <is>
-          <t>95.8</t>
-        </is>
-      </c>
-      <c r="E1876" t="inlineStr"/>
-      <c r="F1876" t="inlineStr"/>
-      <c r="G1876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1877">
-      <c r="A1877" t="inlineStr">
-        <is>
-          <t>07:55 AM</t>
-        </is>
-      </c>
-      <c r="B1877" t="inlineStr">
-        <is>
-          <t>Redbook YoYJUN/07</t>
-        </is>
-      </c>
-      <c r="C1877" t="inlineStr"/>
-      <c r="D1877" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="E1877" t="inlineStr"/>
-      <c r="F1877" t="inlineStr"/>
-      <c r="G1877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1878">
-      <c r="A1878" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1878" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1878" t="inlineStr"/>
-      <c r="D1878" t="inlineStr">
-        <is>
-          <t>3.930%</t>
-        </is>
-      </c>
-      <c r="E1878" t="inlineStr"/>
-      <c r="F1878" t="inlineStr"/>
-      <c r="G1878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1879">
-      <c r="A1879" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1879" t="inlineStr">
-        <is>
-          <t>3-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1879" t="inlineStr"/>
-      <c r="D1879" t="inlineStr">
-        <is>
-          <t>3.824%</t>
-        </is>
-      </c>
-      <c r="E1879" t="inlineStr"/>
-      <c r="F1879" t="inlineStr"/>
-      <c r="G1879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1880">
-      <c r="A1880" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1880" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1880" t="inlineStr"/>
-      <c r="D1880" t="inlineStr">
-        <is>
-          <t>-3.3M</t>
-        </is>
-      </c>
-      <c r="E1880" t="inlineStr"/>
-      <c r="F1880" t="inlineStr"/>
-      <c r="G1880" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1881">
-      <c r="A1881" t="inlineStr">
-        <is>
-          <t>Wednesday June 11 2025</t>
-        </is>
-      </c>
-      <c r="B1881" t="inlineStr"/>
-      <c r="C1881" t="inlineStr"/>
-      <c r="D1881" t="inlineStr"/>
-      <c r="E1881" t="inlineStr"/>
-      <c r="F1881" t="inlineStr"/>
-      <c r="G1881" t="inlineStr"/>
-    </row>
-    <row r="1882">
-      <c r="A1882" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1882" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJUN/06</t>
-        </is>
-      </c>
-      <c r="C1882" t="inlineStr"/>
-      <c r="D1882" t="inlineStr">
-        <is>
-          <t>6.92%</t>
-        </is>
-      </c>
-      <c r="E1882" t="inlineStr"/>
-      <c r="F1882" t="inlineStr"/>
-      <c r="G1882" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1883">
-      <c r="A1883" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1883" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJUN/06</t>
-        </is>
-      </c>
-      <c r="C1883" t="inlineStr"/>
-      <c r="D1883" t="inlineStr">
-        <is>
-          <t>-3.9%</t>
-        </is>
-      </c>
-      <c r="E1883" t="inlineStr"/>
-      <c r="F1883" t="inlineStr"/>
-      <c r="G1883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1884">
-      <c r="A1884" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1884" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C1884" t="inlineStr"/>
-      <c r="D1884" t="inlineStr">
-        <is>
-          <t>226.4</t>
-        </is>
-      </c>
-      <c r="E1884" t="inlineStr"/>
-      <c r="F1884" t="inlineStr"/>
-      <c r="G1884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1885">
-      <c r="A1885" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1885" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C1885" t="inlineStr"/>
-      <c r="D1885" t="inlineStr">
-        <is>
-          <t>611.8</t>
-        </is>
-      </c>
-      <c r="E1885" t="inlineStr"/>
-      <c r="F1885" t="inlineStr"/>
-      <c r="G1885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1886">
-      <c r="A1886" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1886" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C1886" t="inlineStr"/>
-      <c r="D1886" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="E1886" t="inlineStr"/>
-      <c r="F1886" t="inlineStr"/>
-      <c r="G1886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1887">
-      <c r="A1887" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1887" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1887" t="inlineStr"/>
-      <c r="D1887" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1887" t="inlineStr"/>
-      <c r="F1887" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1887" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1888">
-      <c r="A1888" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1888" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1888" t="inlineStr"/>
-      <c r="D1888" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E1888" t="inlineStr"/>
-      <c r="F1888" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G1888" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1889">
-      <c r="A1889" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1889" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1889" t="inlineStr"/>
-      <c r="D1889" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1889" t="inlineStr"/>
-      <c r="F1889" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1889" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1890">
-      <c r="A1890" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1890" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1890" t="inlineStr"/>
-      <c r="D1890" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E1890" t="inlineStr"/>
-      <c r="F1890" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="G1890" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1891">
-      <c r="A1891" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1891" t="inlineStr">
-        <is>
-          <t>CPIMAY</t>
-        </is>
-      </c>
-      <c r="C1891" t="inlineStr"/>
-      <c r="D1891" t="inlineStr">
-        <is>
-          <t>320.795</t>
-        </is>
-      </c>
-      <c r="E1891" t="inlineStr"/>
-      <c r="F1891" t="inlineStr">
-        <is>
-          <t>321.9</t>
-        </is>
-      </c>
-      <c r="G1891" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1892">
-      <c r="A1892" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1892" t="inlineStr">
-        <is>
-          <t>CPI s.aMAY</t>
-        </is>
-      </c>
-      <c r="C1892" t="inlineStr"/>
-      <c r="D1892" t="inlineStr">
-        <is>
-          <t>320.321</t>
-        </is>
-      </c>
-      <c r="E1892" t="inlineStr"/>
-      <c r="F1892" t="inlineStr">
-        <is>
-          <t>321.6</t>
-        </is>
-      </c>
-      <c r="G1892" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1893">
-      <c r="A1893" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1893" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1893" t="inlineStr"/>
-      <c r="D1893" t="inlineStr">
-        <is>
-          <t>-4.304M</t>
-        </is>
-      </c>
-      <c r="E1893" t="inlineStr"/>
-      <c r="F1893" t="inlineStr"/>
-      <c r="G1893" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1894">
-      <c r="A1894" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1894" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1894" t="inlineStr"/>
-      <c r="D1894" t="inlineStr">
-        <is>
-          <t>5.219M</t>
-        </is>
-      </c>
-      <c r="E1894" t="inlineStr"/>
-      <c r="F1894" t="inlineStr"/>
-      <c r="G1894" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1895">
-      <c r="A1895" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1895" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1895" t="inlineStr"/>
-      <c r="D1895" t="inlineStr">
-        <is>
-          <t>0.389M</t>
-        </is>
-      </c>
-      <c r="E1895" t="inlineStr"/>
-      <c r="F1895" t="inlineStr"/>
-      <c r="G1895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1896">
-      <c r="A1896" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1896" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1896" t="inlineStr"/>
-      <c r="D1896" t="inlineStr">
-        <is>
-          <t>0.576M</t>
-        </is>
-      </c>
-      <c r="E1896" t="inlineStr"/>
-      <c r="F1896" t="inlineStr"/>
-      <c r="G1896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1897">
-      <c r="A1897" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1897" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1897" t="inlineStr"/>
-      <c r="D1897" t="inlineStr">
-        <is>
-          <t>0.182M</t>
-        </is>
-      </c>
-      <c r="E1897" t="inlineStr"/>
-      <c r="F1897" t="inlineStr"/>
-      <c r="G1897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1898">
-      <c r="A1898" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1898" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1898" t="inlineStr"/>
-      <c r="D1898" t="inlineStr">
-        <is>
-          <t>4.23M</t>
-        </is>
-      </c>
-      <c r="E1898" t="inlineStr"/>
-      <c r="F1898" t="inlineStr"/>
-      <c r="G1898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1899">
-      <c r="A1899" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1899" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1899" t="inlineStr"/>
-      <c r="D1899" t="inlineStr">
-        <is>
-          <t>-0.714M</t>
-        </is>
-      </c>
-      <c r="E1899" t="inlineStr"/>
-      <c r="F1899" t="inlineStr"/>
-      <c r="G1899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1900">
-      <c r="A1900" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1900" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1900" t="inlineStr"/>
-      <c r="D1900" t="inlineStr">
-        <is>
-          <t>-0.282M</t>
-        </is>
-      </c>
-      <c r="E1900" t="inlineStr"/>
-      <c r="F1900" t="inlineStr"/>
-      <c r="G1900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1901">
-      <c r="A1901" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1901" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1901" t="inlineStr"/>
-      <c r="D1901" t="inlineStr">
-        <is>
-          <t>0.67M</t>
-        </is>
-      </c>
-      <c r="E1901" t="inlineStr"/>
-      <c r="F1901" t="inlineStr"/>
-      <c r="G1901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1902">
-      <c r="A1902" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1902" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1902" t="inlineStr"/>
-      <c r="D1902" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="E1902" t="inlineStr"/>
-      <c r="F1902" t="inlineStr"/>
-      <c r="G1902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1903">
-      <c r="A1903" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1903" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1903" t="inlineStr"/>
-      <c r="D1903" t="inlineStr">
-        <is>
-          <t>4.342%</t>
-        </is>
-      </c>
-      <c r="E1903" t="inlineStr"/>
-      <c r="F1903" t="inlineStr"/>
-      <c r="G1903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1904">
-      <c r="A1904" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1904" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementMAY</t>
-        </is>
-      </c>
-      <c r="C1904" t="inlineStr"/>
-      <c r="D1904" t="inlineStr">
-        <is>
-          <t>$258B</t>
-        </is>
-      </c>
-      <c r="E1904" t="inlineStr"/>
-      <c r="F1904" t="inlineStr">
-        <is>
-          <t>$-312.0B</t>
-        </is>
-      </c>
-      <c r="G1904" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1905">
-      <c r="A1905" t="inlineStr">
-        <is>
-          <t>Thursday June 12 2025</t>
-        </is>
-      </c>
-      <c r="B1905" t="inlineStr"/>
-      <c r="C1905" t="inlineStr"/>
-      <c r="D1905" t="inlineStr"/>
-      <c r="E1905" t="inlineStr"/>
-      <c r="F1905" t="inlineStr"/>
-      <c r="G1905" t="inlineStr"/>
-    </row>
-    <row r="1906">
-      <c r="A1906" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1906" t="inlineStr">
-        <is>
-          <t>PPI MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1906" t="inlineStr"/>
-      <c r="D1906" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="E1906" t="inlineStr"/>
-      <c r="F1906" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1906" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1907">
-      <c r="A1907" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1907" t="inlineStr">
-        <is>
-          <t>Core PPI MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1907" t="inlineStr"/>
-      <c r="D1907" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E1907" t="inlineStr"/>
-      <c r="F1907" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1907" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1908">
-      <c r="A1908" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1908" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUN/07</t>
-        </is>
-      </c>
-      <c r="C1908" t="inlineStr"/>
-      <c r="D1908" t="inlineStr">
-        <is>
-          <t>247K</t>
-        </is>
-      </c>
-      <c r="E1908" t="inlineStr"/>
-      <c r="F1908" t="inlineStr"/>
-      <c r="G1908" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1909">
-      <c r="A1909" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1909" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAY/31</t>
-        </is>
-      </c>
-      <c r="C1909" t="inlineStr"/>
-      <c r="D1909" t="inlineStr"/>
-      <c r="E1909" t="inlineStr"/>
-      <c r="F1909" t="inlineStr"/>
-      <c r="G1909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1910">
-      <c r="A1910" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1910" t="inlineStr">
-        <is>
-          <t>Core PPI YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1910" t="inlineStr"/>
-      <c r="D1910" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E1910" t="inlineStr"/>
-      <c r="F1910" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G1910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1911">
-      <c r="A1911" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1911" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUN/07</t>
-        </is>
-      </c>
-      <c r="C1911" t="inlineStr"/>
-      <c r="D1911" t="inlineStr"/>
-      <c r="E1911" t="inlineStr"/>
-      <c r="F1911" t="inlineStr"/>
-      <c r="G1911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1912">
-      <c r="A1912" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1912" t="inlineStr">
-        <is>
-          <t>PPIMAY</t>
-        </is>
-      </c>
-      <c r="C1912" t="inlineStr"/>
-      <c r="D1912" t="inlineStr">
-        <is>
-          <t>147.677</t>
-        </is>
-      </c>
-      <c r="E1912" t="inlineStr"/>
-      <c r="F1912" t="inlineStr">
-        <is>
-          <t>147.8</t>
-        </is>
-      </c>
-      <c r="G1912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1913">
-      <c r="A1913" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1913" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1913" t="inlineStr"/>
-      <c r="D1913" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1913" t="inlineStr"/>
-      <c r="F1913" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1914">
-      <c r="A1914" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1914" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1914" t="inlineStr"/>
-      <c r="D1914" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="E1914" t="inlineStr"/>
-      <c r="F1914" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G1914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1915">
-      <c r="A1915" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1915" t="inlineStr">
-        <is>
-          <t>PPI YoYMAY</t>
-        </is>
-      </c>
-      <c r="C1915" t="inlineStr"/>
-      <c r="D1915" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E1915" t="inlineStr"/>
-      <c r="F1915" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G1915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1916">
-      <c r="A1916" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1916" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C1916" t="inlineStr"/>
-      <c r="D1916" t="inlineStr">
-        <is>
-          <t>122Bcf</t>
-        </is>
-      </c>
-      <c r="E1916" t="inlineStr"/>
-      <c r="F1916" t="inlineStr"/>
-      <c r="G1916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1917">
-      <c r="A1917" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1917" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1917" t="inlineStr"/>
-      <c r="D1917" t="inlineStr">
-        <is>
-          <t>4.170%</t>
-        </is>
-      </c>
-      <c r="E1917" t="inlineStr"/>
-      <c r="F1917" t="inlineStr"/>
-      <c r="G1917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1918">
-      <c r="A1918" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1918" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1918" t="inlineStr"/>
-      <c r="D1918" t="inlineStr">
-        <is>
-          <t>4.225%</t>
-        </is>
-      </c>
-      <c r="E1918" t="inlineStr"/>
-      <c r="F1918" t="inlineStr"/>
-      <c r="G1918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1919">
-      <c r="A1919" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1919" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUN/12</t>
-        </is>
-      </c>
-      <c r="C1919" t="inlineStr"/>
-      <c r="D1919" t="inlineStr">
-        <is>
-          <t>5.99%</t>
-        </is>
-      </c>
-      <c r="E1919" t="inlineStr"/>
-      <c r="F1919" t="inlineStr"/>
-      <c r="G1919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1920">
-      <c r="A1920" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1920" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUN/12</t>
-        </is>
-      </c>
-      <c r="C1920" t="inlineStr"/>
-      <c r="D1920" t="inlineStr">
-        <is>
-          <t>6.85%</t>
-        </is>
-      </c>
-      <c r="E1920" t="inlineStr"/>
-      <c r="F1920" t="inlineStr"/>
-      <c r="G1920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1921">
-      <c r="A1921" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1921" t="inlineStr">
-        <is>
-          <t>WASDE Report</t>
-        </is>
-      </c>
-      <c r="C1921" t="inlineStr"/>
-      <c r="D1921" t="inlineStr"/>
-      <c r="E1921" t="inlineStr"/>
-      <c r="F1921" t="inlineStr"/>
-      <c r="G1921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1922">
-      <c r="A1922" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1922" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1922" t="inlineStr"/>
-      <c r="D1922" t="inlineStr"/>
-      <c r="E1922" t="inlineStr"/>
-      <c r="F1922" t="inlineStr"/>
-      <c r="G1922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1923">
-      <c r="A1923" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1923" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUN/11</t>
-        </is>
-      </c>
-      <c r="C1923" t="inlineStr"/>
-      <c r="D1923" t="inlineStr">
-        <is>
-          <t>$6.67T</t>
-        </is>
-      </c>
-      <c r="E1923" t="inlineStr"/>
-      <c r="F1923" t="inlineStr"/>
-      <c r="G1923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1924">
-      <c r="A1924" t="inlineStr">
-        <is>
-          <t>Friday June 13 2025</t>
-        </is>
-      </c>
-      <c r="B1924" t="inlineStr"/>
-      <c r="C1924" t="inlineStr"/>
-      <c r="D1924" t="inlineStr"/>
-      <c r="E1924" t="inlineStr"/>
-      <c r="F1924" t="inlineStr"/>
-      <c r="G1924" t="inlineStr"/>
-    </row>
-    <row r="1925">
-      <c r="A1925" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1925" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJUN</t>
-        </is>
-      </c>
-      <c r="C1925" t="inlineStr"/>
-      <c r="D1925" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E1925" t="inlineStr"/>
-      <c r="F1925" t="inlineStr">
-        <is>
-          <t>52.1</t>
-        </is>
-      </c>
-      <c r="G1925" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1926">
-      <c r="A1926" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1926" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C1926" t="inlineStr"/>
-      <c r="D1926" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1926" t="inlineStr"/>
-      <c r="F1926" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G1926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1927">
-      <c r="A1927" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1927" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C1927" t="inlineStr"/>
-      <c r="D1927" t="inlineStr">
-        <is>
-          <t>47.9</t>
-        </is>
-      </c>
-      <c r="E1927" t="inlineStr"/>
-      <c r="F1927" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="G1927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1928">
-      <c r="A1928" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1928" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelJUN</t>
-        </is>
-      </c>
-      <c r="C1928" t="inlineStr"/>
-      <c r="D1928" t="inlineStr">
-        <is>
-          <t>58.9</t>
-        </is>
-      </c>
-      <c r="E1928" t="inlineStr"/>
-      <c r="F1928" t="inlineStr">
-        <is>
-          <t>58.8</t>
-        </is>
-      </c>
-      <c r="G1928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1929">
-      <c r="A1929" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1929" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C1929" t="inlineStr"/>
-      <c r="D1929" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="E1929" t="inlineStr"/>
-      <c r="F1929" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="G1929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1930">
-      <c r="A1930" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1930" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUN/13</t>
-        </is>
-      </c>
-      <c r="C1930" t="inlineStr"/>
-      <c r="D1930" t="inlineStr"/>
-      <c r="E1930" t="inlineStr"/>
-      <c r="F1930" t="inlineStr"/>
-      <c r="G1930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1931">
-      <c r="A1931" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1931" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUN/13</t>
-        </is>
-      </c>
-      <c r="C1931" t="inlineStr"/>
-      <c r="D1931" t="inlineStr"/>
-      <c r="E1931" t="inlineStr"/>
-      <c r="F1931" t="inlineStr"/>
-      <c r="G1931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1932">
-      <c r="A1932" t="inlineStr">
-        <is>
-          <t>Sunday June 15 2025</t>
-        </is>
-      </c>
-      <c r="B1932" t="inlineStr"/>
-      <c r="C1932" t="inlineStr"/>
-      <c r="D1932" t="inlineStr"/>
-      <c r="E1932" t="inlineStr"/>
-      <c r="F1932" t="inlineStr"/>
-      <c r="G1932" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
